--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="116">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -140,6 +141,30 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -155,6 +180,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -179,31 +207,31 @@
     <t>8.8-4.2</t>
   </si>
   <si>
-    <t>8.3-4.6</t>
-  </si>
-  <si>
-    <t>7.6-5.3</t>
+    <t>8.4-4.6</t>
   </si>
   <si>
     <t>7.6-5.4</t>
   </si>
   <si>
-    <t>7.9-5.1</t>
+    <t>7.8-5.2</t>
   </si>
   <si>
     <t>7.1-5.9</t>
   </si>
   <si>
-    <t>6.8-6.1</t>
-  </si>
-  <si>
-    <t>6.1-6.9</t>
+    <t>6.9-6.1-0.1</t>
+  </si>
+  <si>
+    <t>6.0-7.0-0.1</t>
+  </si>
+  <si>
+    <t>4.9-8.0</t>
   </si>
   <si>
     <t>4.8-8.1</t>
   </si>
   <si>
-    <t>4.5-8.5-0.1</t>
+    <t>4.5-8.5</t>
   </si>
   <si>
     <t>3.4-9.5</t>
@@ -1720,31 +1748,31 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>42.8</v>
+        <v>43.8</v>
       </c>
       <c r="C2">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="D2">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="E2">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="F2">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1756,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1764,43 +1792,43 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>18.5</v>
+        <v>22.2</v>
       </c>
       <c r="C3">
-        <v>22.4</v>
+        <v>21.1</v>
       </c>
       <c r="D3">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="E3">
-        <v>15.1</v>
+        <v>13.3</v>
       </c>
       <c r="F3">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I3">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
         <v>0.8</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1808,43 +1836,43 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="C4">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="D4">
-        <v>16.9</v>
+        <v>17.8</v>
       </c>
       <c r="E4">
-        <v>16.9</v>
+        <v>15.4</v>
       </c>
       <c r="F4">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="G4">
-        <v>8.800000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="K4">
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>85.40000000000001</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1852,43 +1880,43 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>11.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C5">
-        <v>16.1</v>
+        <v>18.3</v>
       </c>
       <c r="D5">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="E5">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="F5">
-        <v>11.3</v>
+        <v>15.8</v>
       </c>
       <c r="G5">
         <v>11.2</v>
       </c>
       <c r="H5">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K5">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>80.5</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1896,34 +1924,34 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>11.5</v>
+        <v>7.9</v>
       </c>
       <c r="C6">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="E6">
-        <v>15.5</v>
+        <v>18.2</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="G6">
-        <v>11.9</v>
+        <v>13.1</v>
       </c>
       <c r="H6">
-        <v>9.1</v>
+        <v>10.3</v>
       </c>
       <c r="I6">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
         <v>0.4</v>
@@ -1932,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>79.3</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1940,43 +1968,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="D7">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E7">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F7">
-        <v>16.9</v>
+        <v>16.5</v>
       </c>
       <c r="G7">
-        <v>16.4</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="I7">
-        <v>11.2</v>
+        <v>10.2</v>
       </c>
       <c r="J7">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L7">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
-        <v>62.1</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1984,43 +2012,43 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F8">
-        <v>10.9</v>
+        <v>13.5</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="H8">
-        <v>19.6</v>
+        <v>17.6</v>
       </c>
       <c r="I8">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="J8">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="K8">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M8">
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>48.3</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2028,43 +2056,43 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="D9">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E9">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="F9">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="I9">
-        <v>21.7</v>
+        <v>20.8</v>
       </c>
       <c r="J9">
-        <v>13.7</v>
+        <v>18.2</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="L9">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="M9">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="N9">
-        <v>35.8</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2072,92 +2100,92 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="F10">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G10">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I10">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="J10">
-        <v>24.7</v>
+        <v>20.8</v>
       </c>
       <c r="K10">
-        <v>18.6</v>
+        <v>21.9</v>
       </c>
       <c r="L10">
-        <v>17.3</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N10">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I11">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="K11">
-        <v>23.4</v>
+        <v>21.4</v>
       </c>
       <c r="L11">
-        <v>26.2</v>
+        <v>28.4</v>
       </c>
       <c r="M11">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N11">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2169,34 +2197,34 @@
         <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="J12">
-        <v>14.7</v>
+        <v>13.3</v>
       </c>
       <c r="K12">
-        <v>26.8</v>
+        <v>25.4</v>
       </c>
       <c r="L12">
-        <v>26.1</v>
+        <v>24.4</v>
       </c>
       <c r="M12">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2216,31 +2244,31 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
         <v>0.5</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="I13">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J13">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="K13">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="L13">
-        <v>22.9</v>
+        <v>24.6</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>51.1</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2250,16 +2278,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2281,317 +2306,356 @@
       <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="B2">
+        <v>14.9</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D2">
-        <v>158.2885714285714</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="E2">
-        <v>1108.02</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="F2">
-        <v>87.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>81</v>
+      </c>
+      <c r="H2">
+        <v>87.3</v>
+      </c>
+      <c r="I2">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
+      <c r="B3">
+        <v>65.90000000000001</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>148.9514285714286</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>1042.66</v>
+        <v>18.8</v>
       </c>
       <c r="F3">
-        <v>74.2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="G3">
+        <v>58.5</v>
+      </c>
+      <c r="H3">
+        <v>73.3</v>
+      </c>
+      <c r="I3">
+        <v>74.40000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
+      <c r="B4">
+        <v>91.10000000000001</v>
       </c>
       <c r="C4">
-        <v>0.5714285714285714</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>155.62</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E4">
-        <v>1089.34</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="F4">
-        <v>62.2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>23.9</v>
+      </c>
+      <c r="G4">
+        <v>48.7</v>
+      </c>
+      <c r="H4">
+        <v>65.7</v>
+      </c>
+      <c r="I4">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
+      <c r="B5">
+        <v>5.7</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
-        <v>153.3828571428571</v>
+        <v>30.5</v>
       </c>
       <c r="E5">
-        <v>1073.68</v>
+        <v>58.2</v>
       </c>
       <c r="F5">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>62.6</v>
+      </c>
+      <c r="G5">
+        <v>69.89999999999999</v>
+      </c>
+      <c r="H5">
+        <v>58.3</v>
+      </c>
+      <c r="I5">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7142857142857143</v>
+        <v>27.3</v>
       </c>
       <c r="D6">
-        <v>139.4114285714286</v>
+        <v>16.6</v>
       </c>
       <c r="E6">
-        <v>975.8800000000001</v>
+        <v>17.3</v>
       </c>
       <c r="F6">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>32.9</v>
+      </c>
+      <c r="G6">
+        <v>37.7</v>
+      </c>
+      <c r="H6">
+        <v>52.6</v>
+      </c>
+      <c r="I6">
+        <v>55.50000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
+      <c r="B7">
+        <v>61.1</v>
       </c>
       <c r="C7">
-        <v>0.5714285714285714</v>
+        <v>19.8</v>
       </c>
       <c r="D7">
-        <v>138.3914285714285</v>
+        <v>16.3</v>
       </c>
       <c r="E7">
-        <v>968.7399999999999</v>
+        <v>44.4</v>
       </c>
       <c r="F7">
-        <v>28.8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>40.3</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>25.7</v>
+      </c>
+      <c r="I7">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
+      <c r="B8">
+        <v>59.9</v>
       </c>
       <c r="C8">
-        <v>0.5714285714285714</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>135.4342857142857</v>
+        <v>49.9</v>
       </c>
       <c r="E8">
-        <v>948.04</v>
+        <v>51.5</v>
       </c>
       <c r="F8">
-        <v>20.4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>34.9</v>
+      </c>
+      <c r="G8">
+        <v>37.4</v>
+      </c>
+      <c r="H8">
+        <v>18.1</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>48</v>
+      <c r="B9">
+        <v>10.3</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>56.7</v>
       </c>
       <c r="D9">
-        <v>139.7828571428572</v>
+        <v>16.5</v>
       </c>
       <c r="E9">
-        <v>978.48</v>
+        <v>35.9</v>
       </c>
       <c r="F9">
+        <v>27.1</v>
+      </c>
+      <c r="G9">
+        <v>7.5</v>
+      </c>
+      <c r="H9">
+        <v>14.6</v>
+      </c>
+      <c r="I9">
         <v>11.9</v>
       </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>49</v>
+      <c r="B10">
+        <v>45.6</v>
       </c>
       <c r="C10">
-        <v>0.2857142857142857</v>
+        <v>10.1</v>
       </c>
       <c r="D10">
-        <v>136.4</v>
+        <v>2.6</v>
       </c>
       <c r="E10">
-        <v>954.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F10">
-        <v>1.3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>8.6</v>
+      </c>
+      <c r="G10">
+        <v>2.9</v>
+      </c>
+      <c r="H10">
+        <v>2.6</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
+      <c r="B11">
+        <v>35.8</v>
       </c>
       <c r="C11">
-        <v>0.4285714285714285</v>
+        <v>2.6</v>
       </c>
       <c r="D11">
-        <v>102.4342857142857</v>
+        <v>21.7</v>
       </c>
       <c r="E11">
-        <v>717.04</v>
+        <v>22.7</v>
       </c>
       <c r="F11">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>10.6</v>
+      </c>
+      <c r="G11">
+        <v>3.3</v>
+      </c>
+      <c r="H11">
+        <v>1.1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>49</v>
+      <c r="B12">
+        <v>9.5</v>
       </c>
       <c r="C12">
-        <v>0.2857142857142857</v>
+        <v>53.1</v>
       </c>
       <c r="D12">
-        <v>128.18</v>
+        <v>26.5</v>
       </c>
       <c r="E12">
-        <v>897.2600000000001</v>
+        <v>9.6</v>
       </c>
       <c r="F12">
-        <v>0.6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>13.3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>50</v>
+      <c r="B13">
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <v>0.1428571428571428</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="D13">
-        <v>124.5257142857143</v>
+        <v>1.1</v>
       </c>
       <c r="E13">
-        <v>871.6800000000001</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
+        <v>1.3</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2600,6 +2664,396 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D2">
+        <v>158.2885714285714</v>
+      </c>
+      <c r="E2">
+        <v>1108.02</v>
+      </c>
+      <c r="F2">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D3">
+        <v>148.9514285714286</v>
+      </c>
+      <c r="E3">
+        <v>1042.66</v>
+      </c>
+      <c r="F3">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D4">
+        <v>155.62</v>
+      </c>
+      <c r="E4">
+        <v>1089.34</v>
+      </c>
+      <c r="F4">
+        <v>60.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D5">
+        <v>153.3828571428571</v>
+      </c>
+      <c r="E5">
+        <v>1073.68</v>
+      </c>
+      <c r="F5">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D6">
+        <v>139.4114285714286</v>
+      </c>
+      <c r="E6">
+        <v>975.8800000000001</v>
+      </c>
+      <c r="F6">
+        <v>52.7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D7">
+        <v>138.3914285714285</v>
+      </c>
+      <c r="E7">
+        <v>968.7399999999999</v>
+      </c>
+      <c r="F7">
+        <v>30.9</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D8">
+        <v>135.4342857142857</v>
+      </c>
+      <c r="E8">
+        <v>948.04</v>
+      </c>
+      <c r="F8">
+        <v>20.8</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D9">
+        <v>139.7828571428572</v>
+      </c>
+      <c r="E9">
+        <v>978.48</v>
+      </c>
+      <c r="F9">
+        <v>10.7</v>
+      </c>
+      <c r="G9">
+        <v>1.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D10">
+        <v>136.4</v>
+      </c>
+      <c r="E10">
+        <v>954.8</v>
+      </c>
+      <c r="F10">
+        <v>2.8</v>
+      </c>
+      <c r="G10">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D11">
+        <v>102.4342857142857</v>
+      </c>
+      <c r="E11">
+        <v>717.04</v>
+      </c>
+      <c r="F11">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="G11">
+        <v>18.6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D12">
+        <v>128.18</v>
+      </c>
+      <c r="E12">
+        <v>897.2600000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D13">
+        <v>124.5257142857143</v>
+      </c>
+      <c r="E13">
+        <v>871.6800000000001</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>51.1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2612,16 +3066,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2632,7 +3086,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -2641,7 +3095,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2652,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -2661,7 +3115,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2672,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -2681,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2692,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -2701,7 +3155,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2712,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2721,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2732,7 +3186,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2741,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2752,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -2761,7 +3215,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2772,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>-7</v>
@@ -2781,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2792,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>-12</v>
@@ -2801,7 +3255,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2812,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>-14</v>
@@ -2821,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2832,7 +3286,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>-15</v>
@@ -2841,7 +3295,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2852,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>-31</v>
@@ -2861,7 +3315,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -2879,28 +3333,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2929,7 +3383,7 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2958,7 +3412,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2987,7 +3441,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3016,7 +3470,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3045,7 +3499,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3074,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3103,7 +3557,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3132,7 +3586,7 @@
         <v>-7</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3161,7 +3615,7 @@
         <v>-12</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3190,7 +3644,7 @@
         <v>-14</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3219,7 +3673,7 @@
         <v>-15</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3248,7 +3702,7 @@
         <v>-31</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3256,7 +3710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -3266,25 +3720,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="116">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -60,28 +60,28 @@
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -165,6 +165,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,52 +192,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>8.8-4.2</t>
-  </si>
-  <si>
-    <t>8.4-4.6</t>
-  </si>
-  <si>
-    <t>7.6-5.4</t>
-  </si>
-  <si>
-    <t>7.8-5.2</t>
-  </si>
-  <si>
-    <t>7.1-5.9</t>
-  </si>
-  <si>
-    <t>6.9-6.1-0.1</t>
-  </si>
-  <si>
-    <t>6.0-7.0-0.1</t>
-  </si>
-  <si>
-    <t>4.9-8.0</t>
-  </si>
-  <si>
-    <t>4.8-8.1</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>9.2-3.8</t>
+  </si>
+  <si>
+    <t>8.5-4.5</t>
+  </si>
+  <si>
+    <t>8.0-5.0</t>
+  </si>
+  <si>
+    <t>7.7-5.3</t>
+  </si>
+  <si>
+    <t>6.8-6.2</t>
+  </si>
+  <si>
+    <t>6.7-6.3</t>
+  </si>
+  <si>
+    <t>6.4-6.5</t>
+  </si>
+  <si>
+    <t>6.4-6.6</t>
+  </si>
+  <si>
+    <t>5.7-7.2</t>
   </si>
   <si>
     <t>4.5-8.5</t>
   </si>
   <si>
-    <t>3.4-9.5</t>
+    <t>3.9-9.1</t>
+  </si>
+  <si>
+    <t>4.0-8.9</t>
   </si>
   <si>
     <t>9-4</t>
@@ -249,15 +255,9 @@
     <t>6-7</t>
   </si>
   <si>
-    <t>5-8</t>
-  </si>
-  <si>
     <t>4-9</t>
   </si>
   <si>
-    <t>3-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -270,13 +270,16 @@
     <t>Ariq Rashid</t>
   </si>
   <si>
+    <t>Dean Schar</t>
+  </si>
+  <si>
+    <t>Basak Gafoor</t>
+  </si>
+  <si>
     <t>Tyler Rahman</t>
   </si>
   <si>
-    <t>Dean Schar</t>
-  </si>
-  <si>
-    <t>Basak Gafoor</t>
+    <t>Michael Nader</t>
   </si>
   <si>
     <t>Andrew Ross</t>
@@ -285,49 +288,43 @@
     <t>Joseph Westerlund</t>
   </si>
   <si>
-    <t>Michael Nader</t>
-  </si>
-  <si>
     <t>Alan Devera</t>
   </si>
   <si>
     <t>Ayush Chivate</t>
   </si>
   <si>
+    <t>Nach Konuganti</t>
+  </si>
+  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>Nach Konuganti</t>
-  </si>
-  <si>
     <t>Caleb Owens</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -779,10 +779,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -794,22 +794,22 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -820,37 +820,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -870,28 +870,28 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -902,37 +902,37 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -943,22 +943,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -967,10 +967,10 @@
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -984,37 +984,37 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1055,7 +1055,7 @@
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1063,28 +1063,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -1093,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1116,25 +1116,25 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1145,29 +1145,29 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1189,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1201,22 +1201,22 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -1227,13 +1227,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1242,25 +1242,25 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1292,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2.166666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1306,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.25</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1323,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3.166666666666667</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>3.416666666666667</v>
-      </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1365,10 +1365,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1404,13 +1404,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1418,10 +1418,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>4.333333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1432,13 +1432,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>4.5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1487,16 +1487,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1504,16 +1504,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>4.916666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333304</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1524,13 +1524,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.583333333333333</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1541,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D5">
-        <v>0.08333333333333304</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1555,16 +1555,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.583333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.4166666666666665</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1572,13 +1572,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D7">
-        <v>0.5833333333333335</v>
+        <v>1.25</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1592,10 +1592,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8">
-        <v>-1.5</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1609,13 +1609,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.333333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.6666666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1623,13 +1623,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D10">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1640,16 +1640,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1657,16 +1657,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1.916666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D12">
-        <v>-1.083333333333333</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1674,16 +1674,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1.916666666666667</v>
       </c>
       <c r="D13">
-        <v>0.9166666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1748,28 +1748,28 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>43.8</v>
+        <v>63.3</v>
       </c>
       <c r="C2">
-        <v>21.7</v>
+        <v>18.5</v>
       </c>
       <c r="D2">
-        <v>13.7</v>
+        <v>8.9</v>
       </c>
       <c r="E2">
-        <v>9.4</v>
+        <v>4.4</v>
       </c>
       <c r="F2">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="G2">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -1784,39 +1784,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.59999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>22.2</v>
+        <v>14.5</v>
       </c>
       <c r="C3">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="D3">
-        <v>18.8</v>
+        <v>23.7</v>
       </c>
       <c r="E3">
-        <v>13.3</v>
+        <v>16.6</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K3">
         <v>0.1</v>
@@ -1828,86 +1828,86 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>93.09999999999999</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>11.2</v>
+      </c>
+      <c r="C4">
+        <v>25.1</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>14.7</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>12.4</v>
-      </c>
-      <c r="C4">
-        <v>14.7</v>
-      </c>
-      <c r="D4">
-        <v>17.8</v>
-      </c>
-      <c r="E4">
-        <v>15.4</v>
-      </c>
-      <c r="F4">
-        <v>13.5</v>
-      </c>
       <c r="G4">
-        <v>12.6</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>86.40000000000001</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="C5">
-        <v>18.3</v>
+        <v>17.9</v>
       </c>
       <c r="D5">
-        <v>15.5</v>
+        <v>17.2</v>
       </c>
       <c r="E5">
-        <v>13.1</v>
+        <v>17.8</v>
       </c>
       <c r="F5">
-        <v>15.8</v>
+        <v>12.9</v>
       </c>
       <c r="G5">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L5">
         <v>0.2</v>
@@ -1916,51 +1916,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>83.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>7.9</v>
-      </c>
       <c r="C6">
-        <v>12.8</v>
+        <v>8.9</v>
       </c>
       <c r="D6">
-        <v>13.8</v>
+        <v>11.2</v>
       </c>
       <c r="E6">
-        <v>18.2</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>12.5</v>
+        <v>18.7</v>
       </c>
       <c r="G6">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="H6">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="J6">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>78.3</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1968,131 +1968,131 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="E7">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="F7">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="H7">
-        <v>17.1</v>
+        <v>16.3</v>
       </c>
       <c r="I7">
-        <v>10.2</v>
+        <v>14.7</v>
       </c>
       <c r="J7">
-        <v>7.4</v>
+        <v>13.1</v>
       </c>
       <c r="K7">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="L7">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>61.4</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E8">
-        <v>9.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="F8">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="G8">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="H8">
-        <v>17.6</v>
+        <v>15.2</v>
       </c>
       <c r="I8">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="J8">
-        <v>9.9</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="L8">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M8">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N8">
-        <v>50.6</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.2</v>
       </c>
       <c r="C9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E9">
-        <v>5.4</v>
+        <v>8.1</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>10.8</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>14.4</v>
       </c>
       <c r="H9">
+        <v>16.1</v>
+      </c>
+      <c r="I9">
+        <v>20.3</v>
+      </c>
+      <c r="J9">
         <v>15.3</v>
       </c>
-      <c r="I9">
-        <v>20.8</v>
-      </c>
-      <c r="J9">
-        <v>18.2</v>
-      </c>
       <c r="K9">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="L9">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="N9">
-        <v>31.3</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2103,40 +2103,40 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="E10">
+        <v>5.8</v>
+      </c>
+      <c r="F10">
+        <v>7.7</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>17.6</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>20.5</v>
+      </c>
+      <c r="K10">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L10">
+        <v>4.7</v>
+      </c>
+      <c r="M10">
         <v>1.7</v>
       </c>
-      <c r="F10">
-        <v>2.4</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I10">
-        <v>15.6</v>
-      </c>
-      <c r="J10">
-        <v>20.8</v>
-      </c>
-      <c r="K10">
-        <v>21.9</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>8.699999999999999</v>
-      </c>
       <c r="N10">
-        <v>9.199999999999999</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2150,37 +2150,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
         <v>0.4</v>
       </c>
-      <c r="F11">
-        <v>1.1</v>
-      </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H11">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="I11">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="J11">
-        <v>15.5</v>
+        <v>6.9</v>
       </c>
       <c r="K11">
-        <v>21.4</v>
+        <v>24.5</v>
       </c>
       <c r="L11">
-        <v>28.4</v>
+        <v>26.9</v>
       </c>
       <c r="M11">
-        <v>18.6</v>
+        <v>33.1</v>
       </c>
       <c r="N11">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2194,37 +2194,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
         <v>0.4</v>
       </c>
-      <c r="F12">
-        <v>1.5</v>
-      </c>
       <c r="G12">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="I12">
-        <v>8.6</v>
+        <v>3.5</v>
       </c>
       <c r="J12">
-        <v>13.3</v>
+        <v>7.3</v>
       </c>
       <c r="K12">
-        <v>25.4</v>
+        <v>21.2</v>
       </c>
       <c r="L12">
-        <v>24.4</v>
+        <v>32.3</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>33.7</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2247,28 +2247,28 @@
         <v>0.1</v>
       </c>
       <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>2.2</v>
+      </c>
+      <c r="I13">
+        <v>3.6</v>
+      </c>
+      <c r="J13">
+        <v>8.9</v>
+      </c>
+      <c r="K13">
+        <v>25.2</v>
+      </c>
+      <c r="L13">
+        <v>29.4</v>
+      </c>
+      <c r="M13">
+        <v>30.2</v>
+      </c>
+      <c r="N13">
         <v>0.5</v>
-      </c>
-      <c r="H13">
-        <v>1.3</v>
-      </c>
-      <c r="I13">
-        <v>2.8</v>
-      </c>
-      <c r="J13">
-        <v>6.2</v>
-      </c>
-      <c r="K13">
-        <v>13.4</v>
-      </c>
-      <c r="L13">
-        <v>24.6</v>
-      </c>
-      <c r="M13">
-        <v>51.1</v>
-      </c>
-      <c r="N13">
-        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2278,13 +2278,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2309,327 +2309,363 @@
       <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>14.9</v>
+        <v>10.5</v>
       </c>
       <c r="C2">
-        <v>83.09999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D2">
-        <v>82.89999999999999</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>92.30000000000001</v>
+        <v>93</v>
       </c>
       <c r="F2">
-        <v>90</v>
+        <v>89.7</v>
       </c>
       <c r="G2">
-        <v>81</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="H2">
-        <v>87.3</v>
+        <v>90.3</v>
       </c>
       <c r="I2">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>96.5</v>
+      </c>
+      <c r="J2">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>26.5</v>
+      </c>
+      <c r="D3">
+        <v>16.6</v>
+      </c>
+      <c r="E3">
+        <v>16.3</v>
+      </c>
+      <c r="F3">
+        <v>31.5</v>
+      </c>
+      <c r="G3">
+        <v>37.8</v>
+      </c>
+      <c r="H3">
+        <v>47.09999999999999</v>
+      </c>
+      <c r="I3">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="J3">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>6.3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>29.9</v>
+      </c>
+      <c r="E4">
+        <v>55.8</v>
+      </c>
+      <c r="F4">
+        <v>63.1</v>
+      </c>
+      <c r="G4">
+        <v>72.39999999999999</v>
+      </c>
+      <c r="H4">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="I4">
+        <v>69.8</v>
+      </c>
+      <c r="J4">
+        <v>67.10000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>59</v>
-      </c>
-      <c r="D3">
-        <v>62</v>
-      </c>
-      <c r="E3">
-        <v>18.8</v>
-      </c>
-      <c r="F3">
-        <v>54.50000000000001</v>
-      </c>
-      <c r="G3">
-        <v>58.5</v>
-      </c>
-      <c r="H3">
-        <v>73.3</v>
-      </c>
-      <c r="I3">
+      <c r="B5">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="C5">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="D5">
+        <v>60.6</v>
+      </c>
+      <c r="E5">
+        <v>20.4</v>
+      </c>
+      <c r="F5">
+        <v>54.1</v>
+      </c>
+      <c r="G5">
+        <v>59.09999999999999</v>
+      </c>
+      <c r="H5">
+        <v>74.3</v>
+      </c>
+      <c r="I5">
+        <v>58.4</v>
+      </c>
+      <c r="J5">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>93.7</v>
+      </c>
+      <c r="C6">
+        <v>64.7</v>
+      </c>
+      <c r="D6">
         <v>74.40000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="C4">
-        <v>59</v>
-      </c>
-      <c r="D4">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E4">
-        <v>46.40000000000001</v>
-      </c>
-      <c r="F4">
-        <v>23.9</v>
-      </c>
-      <c r="G4">
-        <v>48.7</v>
-      </c>
-      <c r="H4">
-        <v>65.7</v>
-      </c>
-      <c r="I4">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>5.7</v>
-      </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-      <c r="D5">
-        <v>30.5</v>
-      </c>
-      <c r="E5">
-        <v>58.2</v>
-      </c>
-      <c r="F5">
-        <v>62.6</v>
-      </c>
-      <c r="G5">
-        <v>69.89999999999999</v>
-      </c>
-      <c r="H5">
-        <v>58.3</v>
-      </c>
-      <c r="I5">
-        <v>57.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>27.3</v>
-      </c>
-      <c r="D6">
-        <v>16.6</v>
-      </c>
       <c r="E6">
-        <v>17.3</v>
+        <v>45.9</v>
       </c>
       <c r="F6">
-        <v>32.9</v>
+        <v>22.8</v>
       </c>
       <c r="G6">
-        <v>37.7</v>
+        <v>48.6</v>
       </c>
       <c r="H6">
-        <v>52.6</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="I6">
-        <v>55.50000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>39.4</v>
+      </c>
+      <c r="J6">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>11.7</v>
+      </c>
+      <c r="C7">
+        <v>51.1</v>
+      </c>
+      <c r="D7">
+        <v>15.1</v>
+      </c>
+      <c r="E7">
+        <v>35.5</v>
+      </c>
+      <c r="F7">
+        <v>26.6</v>
+      </c>
+      <c r="G7">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="H7">
+        <v>12.6</v>
+      </c>
+      <c r="I7">
+        <v>22.2</v>
+      </c>
+      <c r="J7">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>61.1</v>
-      </c>
-      <c r="C7">
-        <v>19.8</v>
-      </c>
-      <c r="D7">
-        <v>16.3</v>
-      </c>
-      <c r="E7">
-        <v>44.4</v>
-      </c>
-      <c r="F7">
-        <v>40.3</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>25.7</v>
-      </c>
-      <c r="I7">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>60.9</v>
+      </c>
+      <c r="C8">
+        <v>20.2</v>
+      </c>
+      <c r="D8">
+        <v>17.5</v>
+      </c>
+      <c r="E8">
+        <v>45.5</v>
+      </c>
+      <c r="F8">
+        <v>38.4</v>
+      </c>
+      <c r="G8">
+        <v>47.3</v>
+      </c>
+      <c r="H8">
+        <v>25.2</v>
+      </c>
+      <c r="I8">
+        <v>17.2</v>
+      </c>
+      <c r="J8">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>59.9</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>49.9</v>
-      </c>
-      <c r="E8">
+      <c r="B9">
+        <v>60.3</v>
+      </c>
+      <c r="C9">
+        <v>23.5</v>
+      </c>
+      <c r="D9">
+        <v>48.8</v>
+      </c>
+      <c r="E9">
         <v>51.5</v>
       </c>
-      <c r="F8">
-        <v>34.9</v>
-      </c>
-      <c r="G8">
-        <v>37.4</v>
-      </c>
-      <c r="H8">
-        <v>18.1</v>
-      </c>
-      <c r="I8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>10.3</v>
-      </c>
-      <c r="C9">
-        <v>56.7</v>
-      </c>
-      <c r="D9">
-        <v>16.5</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
         <v>35.9</v>
       </c>
-      <c r="F9">
-        <v>27.1</v>
-      </c>
       <c r="G9">
-        <v>7.5</v>
+        <v>39.2</v>
       </c>
       <c r="H9">
-        <v>14.6</v>
+        <v>19.5</v>
       </c>
       <c r="I9">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16.1</v>
+      </c>
+      <c r="J9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>45.6</v>
+        <v>42.9</v>
       </c>
       <c r="C10">
-        <v>10.1</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="D10">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E10">
-        <v>0.8999999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="F10">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H10">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>14.6</v>
+      </c>
+      <c r="J10">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.8</v>
+        <v>37.5</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D11">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="E11">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="F11">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H11">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="C12">
-        <v>53.1</v>
+        <v>52.5</v>
       </c>
       <c r="D12">
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="E12">
-        <v>9.6</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="F12">
-        <v>13.3</v>
+        <v>16.5</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H12">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2637,24 +2673,27 @@
         <v>0.2</v>
       </c>
       <c r="C13">
-        <v>5.899999999999999</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="D13">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F13">
-        <v>1.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
@@ -2676,28 +2715,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2705,144 +2744,144 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>158.2885714285714</v>
+        <v>159.4975</v>
       </c>
       <c r="E2">
-        <v>1108.02</v>
+        <v>1275.98</v>
       </c>
       <c r="F2">
-        <v>88.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>148.9514285714286</v>
+        <v>138.485</v>
       </c>
       <c r="E3">
-        <v>1042.66</v>
+        <v>1107.88</v>
       </c>
       <c r="F3">
-        <v>75.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D4">
-        <v>155.62</v>
+        <v>149.3175</v>
       </c>
       <c r="E4">
-        <v>1089.34</v>
+        <v>1194.54</v>
       </c>
       <c r="F4">
-        <v>60.3</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>153.3828571428571</v>
+        <v>146.6325</v>
       </c>
       <c r="E5">
-        <v>1073.68</v>
+        <v>1173.06</v>
       </c>
       <c r="F5">
-        <v>56.59999999999999</v>
+        <v>60.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>139.4114285714286</v>
+        <v>151.7225</v>
       </c>
       <c r="E6">
-        <v>975.8800000000001</v>
+        <v>1213.78</v>
       </c>
       <c r="F6">
-        <v>52.7</v>
+        <v>36.1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2850,86 +2889,86 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>138.3914285714285</v>
+        <v>136.09</v>
       </c>
       <c r="E7">
-        <v>968.7399999999999</v>
+        <v>1088.72</v>
       </c>
       <c r="F7">
-        <v>30.9</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>135.4342857142857</v>
+        <v>139.92</v>
       </c>
       <c r="E8">
-        <v>948.04</v>
+        <v>1119.36</v>
       </c>
       <c r="F8">
-        <v>20.8</v>
+        <v>16.1</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>139.7828571428572</v>
+        <v>135.3875</v>
       </c>
       <c r="E9">
-        <v>978.48</v>
+        <v>1083.1</v>
       </c>
       <c r="F9">
-        <v>10.7</v>
+        <v>13.5</v>
       </c>
       <c r="G9">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2937,28 +2976,28 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>136.4</v>
+        <v>144.9475</v>
       </c>
       <c r="E10">
-        <v>954.8</v>
+        <v>1159.58</v>
       </c>
       <c r="F10">
-        <v>2.8</v>
+        <v>10.5</v>
       </c>
       <c r="G10">
-        <v>8.699999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2966,28 +3005,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D11">
-        <v>102.4342857142857</v>
+        <v>96.31750000000001</v>
       </c>
       <c r="E11">
-        <v>717.04</v>
+        <v>770.54</v>
       </c>
       <c r="F11">
-        <v>0.7000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>18.6</v>
+        <v>33.1</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2995,28 +3034,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>128.18</v>
+        <v>127.11</v>
       </c>
       <c r="E12">
-        <v>897.2600000000001</v>
+        <v>1016.88</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>33.7</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3024,25 +3063,25 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>124.5257142857143</v>
+        <v>126.3775</v>
       </c>
       <c r="E13">
-        <v>871.6800000000001</v>
+        <v>1011.02</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>51.1</v>
+        <v>30.2</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
         <v>77</v>
@@ -3089,10 +3128,10 @@
         <v>81</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>93</v>
@@ -3103,16 +3142,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>94</v>
@@ -3123,19 +3162,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3143,19 +3182,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3163,19 +3202,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3183,13 +3222,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -3203,16 +3242,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>98</v>
@@ -3235,7 +3274,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3249,13 +3288,13 @@
         <v>89</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3263,19 +3302,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>90</v>
       </c>
       <c r="D11">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3283,19 +3322,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
       </c>
       <c r="D12">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3309,13 +3348,13 @@
         <v>92</v>
       </c>
       <c r="D13">
-        <v>-31</v>
+        <v>-33</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3325,39 +3364,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3382,185 +3424,206 @@
       <c r="H2">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>-8</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>-2</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>-3</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-9</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-11</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>-1</v>
       </c>
-      <c r="C4">
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-11</v>
-      </c>
-      <c r="D6">
-        <v>-9</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>-9</v>
       </c>
       <c r="F8">
         <v>-2</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>-6</v>
       </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3585,11 +3648,14 @@
       <c r="H9">
         <v>-7</v>
       </c>
-      <c r="I9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3614,69 +3680,78 @@
       <c r="H10">
         <v>-12</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <v>-8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>-4</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <v>-12</v>
+      </c>
+      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="F11">
+        <v>-15</v>
+      </c>
+      <c r="G11">
+        <v>-17</v>
+      </c>
+      <c r="H11">
+        <v>-15</v>
+      </c>
+      <c r="I11">
+        <v>-16</v>
+      </c>
+      <c r="J11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-2</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-3</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-8</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-14</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-14</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12">
+        <v>-17</v>
+      </c>
+      <c r="J12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>-4</v>
-      </c>
-      <c r="C12">
-        <v>-6</v>
-      </c>
-      <c r="D12">
-        <v>-12</v>
-      </c>
-      <c r="E12">
-        <v>-10</v>
-      </c>
-      <c r="F12">
-        <v>-15</v>
-      </c>
-      <c r="G12">
-        <v>-17</v>
-      </c>
-      <c r="H12">
-        <v>-15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3701,8 +3776,11 @@
       <c r="H13">
         <v>-31</v>
       </c>
-      <c r="I13" t="s">
-        <v>101</v>
+      <c r="I13">
+        <v>-33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3746,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -3775,22 +3853,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>-10</v>
       </c>
       <c r="G3">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3798,25 +3876,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="F4">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3824,25 +3902,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>-5</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3850,25 +3928,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>-2</v>
-      </c>
       <c r="F6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3876,25 +3954,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3902,22 +3980,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F8">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -3928,19 +4006,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -3954,25 +4032,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
       <c r="F10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3980,25 +4058,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4006,25 +4084,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4032,25 +4110,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>-16</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4058,22 +4136,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>-6</v>
+        <v>-16</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
         <v>2</v>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="122">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -60,28 +60,31 @@
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +171,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -192,55 +198,61 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>9.2-3.8</t>
-  </si>
-  <si>
-    <t>8.5-4.5</t>
-  </si>
-  <si>
-    <t>8.0-5.0</t>
-  </si>
-  <si>
-    <t>7.7-5.3</t>
-  </si>
-  <si>
-    <t>6.8-6.2</t>
-  </si>
-  <si>
-    <t>6.7-6.3</t>
-  </si>
-  <si>
-    <t>6.4-6.5</t>
-  </si>
-  <si>
-    <t>6.4-6.6</t>
-  </si>
-  <si>
-    <t>5.7-7.2</t>
-  </si>
-  <si>
-    <t>4.5-8.5</t>
-  </si>
-  <si>
-    <t>3.9-9.1</t>
-  </si>
-  <si>
-    <t>4.0-8.9</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>9.4-3.6</t>
+  </si>
+  <si>
+    <t>8.6-4.4</t>
+  </si>
+  <si>
+    <t>7.7-5.2</t>
+  </si>
+  <si>
+    <t>7.2-5.8</t>
+  </si>
+  <si>
+    <t>7.1-5.9</t>
+  </si>
+  <si>
+    <t>6.3-6.7</t>
+  </si>
+  <si>
+    <t>6.9-6.1</t>
+  </si>
+  <si>
+    <t>6.2-6.8</t>
+  </si>
+  <si>
+    <t>6.1-6.9</t>
+  </si>
+  <si>
+    <t>4.5-8.4</t>
+  </si>
+  <si>
+    <t>3.6-9.3</t>
+  </si>
+  <si>
+    <t>4.2-8.7</t>
+  </si>
+  <si>
+    <t>10-3</t>
   </si>
   <si>
     <t>9-4</t>
@@ -279,46 +291,49 @@
     <t>Tyler Rahman</t>
   </si>
   <si>
+    <t>Andrew Ross</t>
+  </si>
+  <si>
+    <t>Joseph Westerlund</t>
+  </si>
+  <si>
     <t>Michael Nader</t>
   </si>
   <si>
-    <t>Andrew Ross</t>
-  </si>
-  <si>
-    <t>Joseph Westerlund</t>
+    <t>Ayush Chivate</t>
   </si>
   <si>
     <t>Alan Devera</t>
   </si>
   <si>
-    <t>Ayush Chivate</t>
+    <t>Jackson Jansorn</t>
   </si>
   <si>
     <t>Nach Konuganti</t>
   </si>
   <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
     <t>Caleb Owens</t>
   </si>
   <si>
-    <t>↓2</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓11</t>
   </si>
   <si>
     <t>↓1</t>
@@ -349,6 +364,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -779,37 +797,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -820,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -829,22 +847,22 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -858,40 +876,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -902,37 +920,37 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -940,40 +958,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -990,19 +1008,19 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1011,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1025,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1037,25 +1055,25 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1069,34 +1087,34 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1104,40 +1122,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1145,40 +1163,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1186,40 +1204,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
         <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1227,40 +1245,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1278,13 +1296,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1295,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.583333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1309,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.666666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1323,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>3.166666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1334,13 +1352,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1348,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1362,10 +1380,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1376,13 +1394,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1390,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1404,13 +1422,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1418,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>4.583333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1432,13 +1450,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>4.666666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1446,13 +1464,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>4.666666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1470,16 +1488,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1490,13 +1508,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>-0.166666666666667</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1507,13 +1525,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>5.333333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D3">
-        <v>1.333333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1521,13 +1539,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.833333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.166666666666667</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1538,16 +1556,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.583333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1555,16 +1573,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D6">
-        <v>0.416666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1572,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>4.25</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D7">
-        <v>1.25</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1589,13 +1607,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4.083333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D8">
-        <v>-1.916666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1609,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333348</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1623,16 +1641,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D10">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1640,16 +1658,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D11">
-        <v>0.6666666666666665</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1657,16 +1675,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>2.583333333333333</v>
-      </c>
-      <c r="D12">
-        <v>0.5833333333333335</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1677,13 +1695,13 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>1.916666666666667</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D13">
-        <v>-1.083333333333333</v>
+        <v>-0.5833333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1701,46 +1719,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1748,31 +1766,31 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>63.3</v>
+        <v>61.2</v>
       </c>
       <c r="C2">
-        <v>18.5</v>
+        <v>26.3</v>
       </c>
       <c r="D2">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="E2">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1784,42 +1802,42 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>14.5</v>
+        <v>29.5</v>
       </c>
       <c r="C3">
-        <v>21.7</v>
+        <v>40.6</v>
       </c>
       <c r="D3">
-        <v>23.7</v>
+        <v>15.2</v>
       </c>
       <c r="E3">
-        <v>16.6</v>
+        <v>6.1</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1828,42 +1846,42 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>92.5</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
+        <v>5.2</v>
+      </c>
+      <c r="C4">
+        <v>12.3</v>
+      </c>
+      <c r="D4">
+        <v>19.4</v>
+      </c>
+      <c r="E4">
+        <v>16.4</v>
+      </c>
+      <c r="F4">
         <v>11.2</v>
       </c>
-      <c r="C4">
-        <v>25.1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>14.7</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
       <c r="H4">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1872,276 +1890,276 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>89</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="C5">
-        <v>17.9</v>
+        <v>5.7</v>
       </c>
       <c r="D5">
-        <v>17.2</v>
+        <v>18.2</v>
       </c>
       <c r="E5">
-        <v>17.8</v>
+        <v>15.1</v>
       </c>
       <c r="F5">
-        <v>12.9</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>11.7</v>
+        <v>14.3</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>10.9</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="K5">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>85.09999999999999</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="C6">
-        <v>8.9</v>
+        <v>6.1</v>
       </c>
       <c r="D6">
-        <v>11.2</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="F6">
-        <v>18.7</v>
+        <v>14.2</v>
       </c>
       <c r="G6">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="H6">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="I6">
         <v>8.4</v>
       </c>
       <c r="J6">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="K6">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>69.3</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>2.6</v>
+      </c>
+      <c r="D7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E7">
+        <v>11.3</v>
+      </c>
+      <c r="F7">
+        <v>13.3</v>
+      </c>
+      <c r="G7">
+        <v>13.2</v>
+      </c>
+      <c r="H7">
+        <v>13.6</v>
+      </c>
+      <c r="I7">
+        <v>14.8</v>
+      </c>
+      <c r="J7">
+        <v>13.3</v>
+      </c>
+      <c r="K7">
+        <v>6.9</v>
+      </c>
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+      <c r="M7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-      <c r="D7">
-        <v>6.2</v>
-      </c>
-      <c r="E7">
-        <v>11.4</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>15.8</v>
-      </c>
-      <c r="H7">
-        <v>16.3</v>
-      </c>
-      <c r="I7">
-        <v>14.7</v>
-      </c>
-      <c r="J7">
-        <v>13.1</v>
-      </c>
-      <c r="K7">
-        <v>4.6</v>
-      </c>
-      <c r="L7">
-        <v>1.4</v>
-      </c>
-      <c r="M7">
-        <v>0.1</v>
-      </c>
       <c r="N7">
-        <v>49.8</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E8">
-        <v>6.7</v>
+        <v>11.4</v>
       </c>
       <c r="F8">
-        <v>13.4</v>
+        <v>14.9</v>
       </c>
       <c r="G8">
-        <v>15.4</v>
+        <v>16.6</v>
       </c>
       <c r="H8">
-        <v>15.2</v>
+        <v>13.9</v>
       </c>
       <c r="I8">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>12.8</v>
       </c>
       <c r="K8">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="M8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>44.9</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="E9">
-        <v>8.1</v>
+        <v>11.9</v>
       </c>
       <c r="F9">
-        <v>10.8</v>
+        <v>13.1</v>
       </c>
       <c r="G9">
-        <v>14.4</v>
+        <v>12.4</v>
       </c>
       <c r="H9">
-        <v>16.1</v>
+        <v>18.5</v>
       </c>
       <c r="I9">
-        <v>20.3</v>
+        <v>16.2</v>
       </c>
       <c r="J9">
-        <v>15.3</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="M9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N9">
-        <v>38.7</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
         <v>0.9</v>
       </c>
       <c r="D10">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="E10">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>7.7</v>
+        <v>12.6</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="H10">
-        <v>17.6</v>
+        <v>15.1</v>
       </c>
       <c r="I10">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="J10">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="K10">
-        <v>9.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="L10">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="M10">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>28.2</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2150,42 +2168,42 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H11">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="I11">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="J11">
-        <v>6.9</v>
+        <v>11.9</v>
       </c>
       <c r="K11">
-        <v>24.5</v>
+        <v>39.3</v>
       </c>
       <c r="L11">
-        <v>26.9</v>
+        <v>28.4</v>
       </c>
       <c r="M11">
-        <v>33.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N11">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2197,39 +2215,39 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
         <v>0.2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.1</v>
       </c>
-      <c r="I12">
-        <v>3.5</v>
-      </c>
       <c r="J12">
-        <v>7.3</v>
+        <v>2.6</v>
       </c>
       <c r="K12">
-        <v>21.2</v>
+        <v>15.2</v>
       </c>
       <c r="L12">
-        <v>32.3</v>
+        <v>36.1</v>
       </c>
       <c r="M12">
-        <v>33.7</v>
+        <v>44.7</v>
       </c>
       <c r="N12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2247,28 +2265,28 @@
         <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="I13">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="J13">
-        <v>8.9</v>
+        <v>4.7</v>
       </c>
       <c r="K13">
-        <v>25.2</v>
+        <v>17.6</v>
       </c>
       <c r="L13">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="M13">
-        <v>30.2</v>
+        <v>44.7</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2278,350 +2296,380 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>10.5</v>
+        <v>13.1</v>
       </c>
       <c r="C2">
-        <v>83.7</v>
+        <v>82.3</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E2">
-        <v>93</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F2">
-        <v>89.7</v>
+        <v>91.8</v>
       </c>
       <c r="G2">
-        <v>80.10000000000001</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="H2">
+        <v>88.8</v>
+      </c>
+      <c r="I2">
+        <v>96.2</v>
+      </c>
+      <c r="J2">
+        <v>96.2</v>
+      </c>
+      <c r="K2">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5.2</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>30.1</v>
+      </c>
+      <c r="E3">
+        <v>57.59999999999999</v>
+      </c>
+      <c r="F3">
+        <v>60.2</v>
+      </c>
+      <c r="G3">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>56.39999999999999</v>
+      </c>
+      <c r="I3">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="J3">
+        <v>89</v>
+      </c>
+      <c r="K3">
         <v>90.3</v>
       </c>
-      <c r="I2">
-        <v>96.5</v>
-      </c>
-      <c r="J2">
-        <v>95.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>26.5</v>
-      </c>
-      <c r="D3">
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>28.3</v>
+      </c>
+      <c r="D4">
+        <v>14.9</v>
+      </c>
+      <c r="E4">
+        <v>15.6</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>37.7</v>
+      </c>
+      <c r="H4">
+        <v>50.1</v>
+      </c>
+      <c r="I4">
+        <v>69.3</v>
+      </c>
+      <c r="J4">
+        <v>50.1</v>
+      </c>
+      <c r="K4">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>18.4</v>
+      </c>
+      <c r="D5">
         <v>16.6</v>
       </c>
-      <c r="E3">
-        <v>16.3</v>
-      </c>
-      <c r="F3">
-        <v>31.5</v>
-      </c>
-      <c r="G3">
-        <v>37.8</v>
-      </c>
-      <c r="H3">
-        <v>47.09999999999999</v>
-      </c>
-      <c r="I3">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="J3">
-        <v>74.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>6.3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>29.9</v>
-      </c>
-      <c r="E4">
-        <v>55.8</v>
-      </c>
-      <c r="F4">
-        <v>63.1</v>
-      </c>
-      <c r="G4">
-        <v>72.39999999999999</v>
-      </c>
-      <c r="H4">
-        <v>60.09999999999999</v>
-      </c>
-      <c r="I4">
-        <v>69.8</v>
-      </c>
-      <c r="J4">
-        <v>67.10000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="E5">
+        <v>41.4</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>49.6</v>
+      </c>
+      <c r="H5">
+        <v>24.7</v>
+      </c>
+      <c r="I5">
+        <v>19.5</v>
+      </c>
+      <c r="J5">
+        <v>44</v>
+      </c>
+      <c r="K5">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>66.10000000000001</v>
-      </c>
-      <c r="C5">
-        <v>60.09999999999999</v>
-      </c>
-      <c r="D5">
-        <v>60.6</v>
-      </c>
-      <c r="E5">
-        <v>20.4</v>
-      </c>
-      <c r="F5">
-        <v>54.1</v>
-      </c>
-      <c r="G5">
-        <v>59.09999999999999</v>
-      </c>
-      <c r="H5">
-        <v>74.3</v>
-      </c>
-      <c r="I5">
-        <v>58.4</v>
-      </c>
-      <c r="J5">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>59.4</v>
+      </c>
+      <c r="D6">
+        <v>61.9</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="G6">
+        <v>56.3</v>
+      </c>
+      <c r="H6">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="I6">
+        <v>59</v>
+      </c>
+      <c r="J6">
+        <v>35.6</v>
+      </c>
+      <c r="K6">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>44.5</v>
+      </c>
+      <c r="C7">
+        <v>9.4</v>
+      </c>
+      <c r="D7">
+        <v>2.3</v>
+      </c>
+      <c r="E7">
+        <v>1.3</v>
+      </c>
+      <c r="F7">
+        <v>7.8</v>
+      </c>
+      <c r="G7">
+        <v>3.6</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>13.5</v>
+      </c>
+      <c r="J7">
+        <v>25.8</v>
+      </c>
+      <c r="K7">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>58.5</v>
+      </c>
+      <c r="C8">
+        <v>26.4</v>
+      </c>
+      <c r="D8">
+        <v>49.1</v>
+      </c>
+      <c r="E8">
+        <v>51.3</v>
+      </c>
+      <c r="F8">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="G8">
+        <v>38.7</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>11.5</v>
+      </c>
+      <c r="J8">
+        <v>24.6</v>
+      </c>
+      <c r="K8">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>93.7</v>
-      </c>
-      <c r="C6">
-        <v>64.7</v>
-      </c>
-      <c r="D6">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="E6">
-        <v>45.9</v>
-      </c>
-      <c r="F6">
-        <v>22.8</v>
-      </c>
-      <c r="G6">
-        <v>48.6</v>
-      </c>
-      <c r="H6">
-        <v>67.10000000000001</v>
-      </c>
-      <c r="I6">
-        <v>39.4</v>
-      </c>
-      <c r="J6">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="B9">
+        <v>93.5</v>
+      </c>
+      <c r="C9">
+        <v>60.5</v>
+      </c>
+      <c r="D9">
+        <v>78.3</v>
+      </c>
+      <c r="E9">
+        <v>43.1</v>
+      </c>
+      <c r="F9">
+        <v>24.4</v>
+      </c>
+      <c r="G9">
+        <v>48.2</v>
+      </c>
+      <c r="H9">
+        <v>67.60000000000001</v>
+      </c>
+      <c r="I9">
+        <v>40.8</v>
+      </c>
+      <c r="J9">
+        <v>17.5</v>
+      </c>
+      <c r="K9">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>11.7</v>
-      </c>
-      <c r="C7">
-        <v>51.1</v>
-      </c>
-      <c r="D7">
-        <v>15.1</v>
-      </c>
-      <c r="E7">
-        <v>35.5</v>
-      </c>
-      <c r="F7">
-        <v>26.6</v>
-      </c>
-      <c r="G7">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="H7">
-        <v>12.6</v>
-      </c>
-      <c r="I7">
-        <v>22.2</v>
-      </c>
-      <c r="J7">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>60.9</v>
-      </c>
-      <c r="C8">
-        <v>20.2</v>
-      </c>
-      <c r="D8">
-        <v>17.5</v>
-      </c>
-      <c r="E8">
-        <v>45.5</v>
-      </c>
-      <c r="F8">
-        <v>38.4</v>
-      </c>
-      <c r="G8">
-        <v>47.3</v>
-      </c>
-      <c r="H8">
-        <v>25.2</v>
-      </c>
-      <c r="I8">
-        <v>17.2</v>
-      </c>
-      <c r="J8">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>60.3</v>
-      </c>
-      <c r="C9">
-        <v>23.5</v>
-      </c>
-      <c r="D9">
-        <v>48.8</v>
-      </c>
-      <c r="E9">
-        <v>51.5</v>
-      </c>
-      <c r="F9">
-        <v>35.9</v>
-      </c>
-      <c r="G9">
-        <v>39.2</v>
-      </c>
-      <c r="H9">
-        <v>19.5</v>
-      </c>
-      <c r="I9">
-        <v>16.1</v>
-      </c>
-      <c r="J9">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B10">
-        <v>42.9</v>
+        <v>12.2</v>
       </c>
       <c r="C10">
-        <v>8.200000000000001</v>
+        <v>51.6</v>
       </c>
       <c r="D10">
-        <v>2.8</v>
+        <v>15.8</v>
       </c>
       <c r="E10">
-        <v>1.7</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>26.9</v>
       </c>
       <c r="G10">
-        <v>2.7</v>
+        <v>7.9</v>
       </c>
       <c r="H10">
-        <v>1.8</v>
+        <v>14</v>
       </c>
       <c r="I10">
-        <v>14.6</v>
+        <v>21.9</v>
       </c>
       <c r="J10">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>16.6</v>
+      </c>
+      <c r="K10">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>37.5</v>
+        <v>8.5</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>52.6</v>
       </c>
       <c r="D11">
-        <v>20.7</v>
+        <v>26.9</v>
       </c>
       <c r="E11">
-        <v>23.2</v>
+        <v>10.6</v>
       </c>
       <c r="F11">
-        <v>10.5</v>
+        <v>14.9</v>
       </c>
       <c r="G11">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H11">
         <v>0.8</v>
@@ -2630,70 +2678,79 @@
         <v>0.1</v>
       </c>
       <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>9.9</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
-        <v>52.5</v>
+        <v>5.4</v>
       </c>
       <c r="D12">
-        <v>26.8</v>
+        <v>1.2</v>
       </c>
       <c r="E12">
-        <v>8.799999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="F12">
-        <v>16.5</v>
+        <v>1.4</v>
       </c>
       <c r="G12">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H12">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>38.1</v>
       </c>
       <c r="C13">
         <v>5.600000000000001</v>
       </c>
       <c r="D13">
-        <v>1.8</v>
+        <v>20.8</v>
       </c>
       <c r="E13">
-        <v>2.4</v>
+        <v>26.8</v>
       </c>
       <c r="F13">
-        <v>0.8999999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="G13">
+        <v>3.2</v>
+      </c>
+      <c r="H13">
         <v>0.2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
         <v>0.1</v>
       </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
+      <c r="K13">
         <v>0</v>
       </c>
     </row>
@@ -2712,31 +2769,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2744,347 +2801,347 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>159.4975</v>
+        <v>152.8555555555556</v>
       </c>
       <c r="E2">
-        <v>1275.98</v>
+        <v>1375.7</v>
       </c>
       <c r="F2">
-        <v>95.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>138.485</v>
+        <v>153.9355555555556</v>
       </c>
       <c r="E3">
-        <v>1107.88</v>
+        <v>1385.42</v>
       </c>
       <c r="F3">
-        <v>76.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>149.3175</v>
+        <v>134.9177777777778</v>
       </c>
       <c r="E4">
-        <v>1194.54</v>
+        <v>1214.26</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D5">
-        <v>146.6325</v>
+        <v>139.5266666666667</v>
       </c>
       <c r="E5">
-        <v>1173.06</v>
+        <v>1255.74</v>
       </c>
       <c r="F5">
-        <v>60.5</v>
+        <v>40.2</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>151.7225</v>
+        <v>140.1422222222222</v>
       </c>
       <c r="E6">
-        <v>1213.78</v>
+        <v>1261.28</v>
       </c>
       <c r="F6">
-        <v>36.1</v>
+        <v>38.2</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D7">
+        <v>146.2688888888889</v>
+      </c>
+      <c r="E7">
+        <v>1316.42</v>
+      </c>
+      <c r="F7">
+        <v>22.9</v>
+      </c>
+      <c r="G7">
         <v>0.5</v>
       </c>
-      <c r="D7">
-        <v>136.09</v>
-      </c>
-      <c r="E7">
-        <v>1088.72</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>0.1</v>
-      </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D8">
-        <v>139.92</v>
+        <v>135.7066666666666</v>
       </c>
       <c r="E8">
-        <v>1119.36</v>
+        <v>1221.36</v>
       </c>
       <c r="F8">
-        <v>16.1</v>
+        <v>22.3</v>
       </c>
       <c r="G8">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>135.3875</v>
+        <v>147.0644444444445</v>
       </c>
       <c r="E9">
-        <v>1083.1</v>
+        <v>1323.58</v>
       </c>
       <c r="F9">
-        <v>13.5</v>
+        <v>20.1</v>
       </c>
       <c r="G9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10">
-        <v>144.9475</v>
+        <v>141.4488888888889</v>
       </c>
       <c r="E10">
-        <v>1159.58</v>
+        <v>1273.04</v>
       </c>
       <c r="F10">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="G10">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>96.31750000000001</v>
+        <v>129.6622222222222</v>
       </c>
       <c r="E11">
-        <v>770.54</v>
+        <v>1166.96</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>33.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D12">
-        <v>127.11</v>
+        <v>125.3133333333333</v>
       </c>
       <c r="E12">
-        <v>1016.88</v>
+        <v>1127.82</v>
       </c>
       <c r="F12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>33.7</v>
+        <v>44.7</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>126.3775</v>
+        <v>101.5555555555556</v>
       </c>
       <c r="E13">
-        <v>1011.02</v>
+        <v>914</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.2</v>
+        <v>44.7</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3102,19 +3159,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3125,16 +3182,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3145,16 +3202,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3165,16 +3222,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3185,16 +3242,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3202,10 +3259,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -3214,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3222,19 +3279,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3242,19 +3299,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3262,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3282,19 +3339,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3302,19 +3359,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3322,19 +3379,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3345,16 +3402,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>-33</v>
+        <v>-29</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3364,42 +3421,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3427,11 +3487,14 @@
       <c r="I2">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3459,11 +3522,14 @@
       <c r="I3">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3491,11 +3557,14 @@
       <c r="I4">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3523,235 +3592,259 @@
       <c r="I5">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-11</v>
+      </c>
+      <c r="D6">
+        <v>-9</v>
+      </c>
+      <c r="E6">
+        <v>-3</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>-9</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>-6</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-11</v>
-      </c>
-      <c r="D7">
-        <v>-9</v>
-      </c>
-      <c r="E7">
-        <v>-3</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
       </c>
       <c r="F8">
         <v>-2</v>
       </c>
       <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-9</v>
+      </c>
+      <c r="G9">
+        <v>-15</v>
+      </c>
+      <c r="H9">
+        <v>-12</v>
+      </c>
+      <c r="I9">
+        <v>-8</v>
+      </c>
+      <c r="J9">
+        <v>-9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>-10</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-16</v>
+      </c>
+      <c r="F10">
+        <v>-10</v>
+      </c>
+      <c r="G10">
+        <v>-10</v>
+      </c>
+      <c r="H10">
+        <v>-7</v>
+      </c>
+      <c r="I10">
+        <v>-7</v>
+      </c>
+      <c r="J10">
+        <v>-10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11">
+        <v>-14</v>
+      </c>
+      <c r="H11">
+        <v>-14</v>
+      </c>
+      <c r="I11">
+        <v>-17</v>
+      </c>
+      <c r="J11">
+        <v>-18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>-4</v>
+      </c>
+      <c r="C12">
         <v>-6</v>
       </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
+      <c r="D12">
+        <v>-12</v>
+      </c>
+      <c r="E12">
         <v>-10</v>
       </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-      <c r="E9">
+      <c r="F12">
+        <v>-15</v>
+      </c>
+      <c r="G12">
+        <v>-17</v>
+      </c>
+      <c r="H12">
+        <v>-15</v>
+      </c>
+      <c r="I12">
         <v>-16</v>
       </c>
-      <c r="F9">
-        <v>-10</v>
-      </c>
-      <c r="G9">
-        <v>-10</v>
-      </c>
-      <c r="H9">
-        <v>-7</v>
-      </c>
-      <c r="I9">
-        <v>-7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>-9</v>
-      </c>
-      <c r="G10">
-        <v>-15</v>
-      </c>
-      <c r="H10">
-        <v>-12</v>
-      </c>
-      <c r="I10">
-        <v>-8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>-4</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11">
-        <v>-12</v>
-      </c>
-      <c r="E11">
-        <v>-10</v>
-      </c>
-      <c r="F11">
-        <v>-15</v>
-      </c>
-      <c r="G11">
-        <v>-17</v>
-      </c>
-      <c r="H11">
-        <v>-15</v>
-      </c>
-      <c r="I11">
-        <v>-16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>-2</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>-8</v>
-      </c>
-      <c r="G12">
-        <v>-14</v>
-      </c>
-      <c r="H12">
-        <v>-14</v>
-      </c>
-      <c r="I12">
-        <v>-17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>-19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3779,8 +3872,11 @@
       <c r="I13">
         <v>-33</v>
       </c>
-      <c r="J13" t="s">
-        <v>93</v>
+      <c r="J13">
+        <v>-29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3886,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3798,25 +3894,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3850,25 +3946,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>-10</v>
-      </c>
       <c r="G3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3879,22 +3975,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>-10</v>
       </c>
       <c r="G4">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3902,25 +3998,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="F5">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3928,25 +4024,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>-5</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3954,25 +4050,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
-      </c>
       <c r="F7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3980,25 +4076,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4006,22 +4102,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F9">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -4032,19 +4128,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -4058,25 +4154,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
       <c r="F11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4084,25 +4180,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4110,50 +4206,24 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>-16</v>
-      </c>
-      <c r="F14">
-        <v>-9</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
         <v>2</v>
       </c>
     </row>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="124">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -60,31 +60,28 @@
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>0-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -174,6 +171,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -198,61 +198,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>9.4-3.6</t>
-  </si>
-  <si>
-    <t>8.6-4.4</t>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8.8-4.2</t>
+  </si>
+  <si>
+    <t>8.7-4.3</t>
+  </si>
+  <si>
+    <t>8.3-4.7</t>
   </si>
   <si>
     <t>7.7-5.2</t>
   </si>
   <si>
-    <t>7.2-5.8</t>
-  </si>
-  <si>
-    <t>7.1-5.9</t>
-  </si>
-  <si>
-    <t>6.3-6.7</t>
-  </si>
-  <si>
-    <t>6.9-6.1</t>
+    <t>6.7-6.3</t>
+  </si>
+  <si>
+    <t>6.6-6.4</t>
+  </si>
+  <si>
+    <t>5.7-7.3</t>
   </si>
   <si>
     <t>6.2-6.8</t>
   </si>
   <si>
-    <t>6.1-6.9</t>
-  </si>
-  <si>
-    <t>4.5-8.4</t>
-  </si>
-  <si>
-    <t>3.6-9.3</t>
-  </si>
-  <si>
-    <t>4.2-8.7</t>
-  </si>
-  <si>
-    <t>10-3</t>
+    <t>5.2-7.8</t>
+  </si>
+  <si>
+    <t>3.4-9.6</t>
+  </si>
+  <si>
+    <t>4.0-9.0</t>
   </si>
   <si>
     <t>9-4</t>
@@ -267,6 +261,12 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
     <t>4-9</t>
   </si>
   <si>
@@ -282,10 +282,13 @@
     <t>Ariq Rashid</t>
   </si>
   <si>
+    <t>Basak Gafoor</t>
+  </si>
+  <si>
     <t>Dean Schar</t>
   </si>
   <si>
-    <t>Basak Gafoor</t>
+    <t>Joseph Westerlund</t>
   </si>
   <si>
     <t>Tyler Rahman</t>
@@ -294,52 +297,52 @@
     <t>Andrew Ross</t>
   </si>
   <si>
-    <t>Joseph Westerlund</t>
-  </si>
-  <si>
     <t>Michael Nader</t>
   </si>
   <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Alan Devera</t>
+  </si>
+  <si>
     <t>Ayush Chivate</t>
   </si>
   <si>
-    <t>Alan Devera</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
     <t>Nach Konuganti</t>
   </si>
   <si>
     <t>Caleb Owens</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -367,6 +370,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -797,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -809,13 +815,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -824,10 +830,10 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -838,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -853,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -865,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
@@ -885,28 +891,28 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -920,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -932,22 +938,22 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -958,40 +964,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1008,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -1017,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
@@ -1032,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1055,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1070,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1084,10 +1090,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1099,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -1122,40 +1128,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1166,10 +1172,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1178,25 +1184,25 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1213,16 +1219,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1234,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1248,25 +1254,25 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1275,10 +1281,10 @@
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1296,13 +1302,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1310,10 +1316,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2.833333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1324,13 +1330,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2.916666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1338,10 +1344,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.25</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1352,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.583333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1366,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4.666666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1383,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4.75</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1397,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.833333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1408,13 +1414,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>5.083333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1422,13 +1428,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1436,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>5.166666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1450,13 +1456,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1464,13 +1470,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1488,16 +1494,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1505,16 +1511,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1522,16 +1528,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D3">
-        <v>1.583333333333333</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1542,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.416666666666667</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>-0.583333333333333</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1556,13 +1562,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5.083333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D5">
-        <v>1.083333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1573,16 +1579,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.083333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D6">
-        <v>1.083333333333333</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1593,13 +1599,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.833333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1607,16 +1613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>4.666666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.333333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1624,16 +1630,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.416666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.583333333333333</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1641,16 +1647,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.25</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D10">
-        <v>-1.75</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1661,13 +1667,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1678,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1695,10 +1701,10 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>2.416666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.5833333333333335</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1719,72 +1725,72 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61.2</v>
+        <v>50.3</v>
       </c>
       <c r="C2">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="D2">
-        <v>6.8</v>
+        <v>12.9</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
         <v>0.2</v>
@@ -1802,39 +1808,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>98.3</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>29.5</v>
+        <v>30.9</v>
       </c>
       <c r="C3">
-        <v>40.6</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>15.2</v>
+        <v>17.7</v>
       </c>
       <c r="E3">
-        <v>6.1</v>
+        <v>13.3</v>
       </c>
       <c r="F3">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>91.40000000000001</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1854,34 +1860,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.2</v>
+        <v>12.1</v>
       </c>
       <c r="C4">
-        <v>12.3</v>
+        <v>18.4</v>
       </c>
       <c r="D4">
-        <v>19.4</v>
+        <v>17.2</v>
       </c>
       <c r="E4">
-        <v>16.4</v>
+        <v>23.1</v>
       </c>
       <c r="F4">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="I4">
-        <v>6.1</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
-        <v>5.7</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1890,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>53.3</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1898,175 +1904,175 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="C5">
-        <v>5.7</v>
+        <v>14.7</v>
       </c>
       <c r="D5">
-        <v>18.2</v>
+        <v>25.9</v>
       </c>
       <c r="E5">
-        <v>15.1</v>
+        <v>16.4</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>13.2</v>
       </c>
       <c r="G5">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="H5">
-        <v>10.1</v>
+        <v>5.5</v>
       </c>
       <c r="I5">
-        <v>10.9</v>
+        <v>4.3</v>
       </c>
       <c r="J5">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>40.2</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>10.3</v>
       </c>
       <c r="E6">
-        <v>15.7</v>
+        <v>14.5</v>
       </c>
       <c r="F6">
+        <v>20.9</v>
+      </c>
+      <c r="G6">
+        <v>13.2</v>
+      </c>
+      <c r="H6">
         <v>14.2</v>
       </c>
-      <c r="G6">
-        <v>16.5</v>
-      </c>
-      <c r="H6">
-        <v>11.4</v>
-      </c>
       <c r="I6">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="J6">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="L6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>38.2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D7">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="E7">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="F7">
-        <v>13.3</v>
+        <v>18.3</v>
       </c>
       <c r="G7">
-        <v>13.2</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>13.6</v>
+        <v>15.3</v>
       </c>
       <c r="I7">
-        <v>14.8</v>
+        <v>16.5</v>
       </c>
       <c r="J7">
-        <v>13.3</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>6.9</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>22.9</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0.7</v>
-      </c>
-      <c r="C8">
-        <v>3.6</v>
-      </c>
-      <c r="D8">
-        <v>6.6</v>
-      </c>
       <c r="E8">
-        <v>11.4</v>
+        <v>7.4</v>
       </c>
       <c r="F8">
-        <v>14.9</v>
+        <v>13.7</v>
       </c>
       <c r="G8">
+        <v>17.8</v>
+      </c>
+      <c r="H8">
         <v>16.6</v>
       </c>
-      <c r="H8">
-        <v>13.9</v>
-      </c>
       <c r="I8">
-        <v>15.7</v>
+        <v>19.9</v>
       </c>
       <c r="J8">
-        <v>12.8</v>
+        <v>11.1</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.3</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2074,87 +2080,87 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>11.9</v>
+        <v>6.3</v>
       </c>
       <c r="F9">
-        <v>13.1</v>
+        <v>9.5</v>
       </c>
       <c r="G9">
-        <v>12.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="I9">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>6.3</v>
+        <v>12.8</v>
       </c>
       <c r="L9">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="M9">
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>20.1</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="F10">
-        <v>12.6</v>
+        <v>4.6</v>
       </c>
       <c r="G10">
-        <v>11.5</v>
+        <v>10.2</v>
       </c>
       <c r="H10">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="I10">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="J10">
-        <v>20.8</v>
+        <v>21.9</v>
       </c>
       <c r="K10">
-        <v>6.4</v>
+        <v>23.4</v>
       </c>
       <c r="L10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.2</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2174,31 +2180,31 @@
         <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="G11">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H11">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="I11">
-        <v>5.6</v>
+        <v>10.5</v>
       </c>
       <c r="J11">
-        <v>11.9</v>
+        <v>25.3</v>
       </c>
       <c r="K11">
-        <v>39.3</v>
+        <v>43.1</v>
       </c>
       <c r="L11">
-        <v>28.4</v>
+        <v>10.5</v>
       </c>
       <c r="M11">
-        <v>9.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="N11">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2221,25 +2227,25 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="K12">
-        <v>15.2</v>
+        <v>6.2</v>
       </c>
       <c r="L12">
-        <v>36.1</v>
+        <v>42.9</v>
       </c>
       <c r="M12">
-        <v>44.7</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2262,28 +2268,28 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0.8</v>
       </c>
-      <c r="I13">
-        <v>2.3</v>
-      </c>
       <c r="J13">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="K13">
-        <v>17.6</v>
+        <v>6.8</v>
       </c>
       <c r="L13">
-        <v>29.3</v>
+        <v>41.7</v>
       </c>
       <c r="M13">
-        <v>44.7</v>
+        <v>49.4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2296,461 +2302,500 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19.8</v>
+      </c>
+      <c r="C2">
+        <v>1.1</v>
+      </c>
+      <c r="D2">
+        <v>52.2</v>
+      </c>
+      <c r="E2">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F2">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="G2">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="H2">
+        <v>84.3</v>
+      </c>
+      <c r="I2">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="J2">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L2">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>13.1</v>
-      </c>
-      <c r="C2">
-        <v>82.3</v>
-      </c>
-      <c r="D2">
-        <v>82.09999999999999</v>
-      </c>
-      <c r="E2">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F2">
-        <v>91.8</v>
-      </c>
-      <c r="G2">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="H2">
-        <v>88.8</v>
-      </c>
-      <c r="I2">
-        <v>96.2</v>
-      </c>
-      <c r="J2">
-        <v>96.2</v>
-      </c>
-      <c r="K2">
-        <v>96.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B3">
-        <v>5.2</v>
+        <v>31.8</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D3">
-        <v>30.1</v>
+        <v>93.7</v>
       </c>
       <c r="E3">
-        <v>57.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F3">
-        <v>60.2</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="G3">
-        <v>71.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="H3">
-        <v>56.39999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="I3">
-        <v>67.80000000000001</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>89</v>
+        <v>99.5</v>
       </c>
       <c r="K3">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>96.3</v>
+      </c>
+      <c r="L3">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>28.3</v>
+        <v>50.5</v>
       </c>
       <c r="D4">
-        <v>14.9</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>15.6</v>
+        <v>32.2</v>
       </c>
       <c r="F4">
-        <v>33</v>
+        <v>51.9</v>
       </c>
       <c r="G4">
-        <v>37.7</v>
+        <v>62.9</v>
       </c>
       <c r="H4">
-        <v>50.1</v>
+        <v>78.7</v>
       </c>
       <c r="I4">
-        <v>69.3</v>
+        <v>87.8</v>
       </c>
       <c r="J4">
-        <v>50.1</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="K4">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="L4">
+        <v>91.90000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>83.7</v>
       </c>
       <c r="C5">
-        <v>18.4</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>16.6</v>
+        <v>39.2</v>
       </c>
       <c r="E5">
-        <v>41.4</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>59.2</v>
       </c>
       <c r="G5">
-        <v>49.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H5">
-        <v>24.7</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="I5">
-        <v>19.5</v>
+        <v>43.3</v>
       </c>
       <c r="J5">
-        <v>44</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="K5">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>85.2</v>
+      </c>
+      <c r="L5">
+        <v>89.40000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>73.7</v>
+      </c>
+      <c r="C6">
+        <v>26.1</v>
+      </c>
+      <c r="D6">
+        <v>9.4</v>
+      </c>
+      <c r="E6">
+        <v>4.7</v>
+      </c>
+      <c r="F6">
+        <v>23.3</v>
+      </c>
+      <c r="G6">
+        <v>15.1</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>33.7</v>
+      </c>
+      <c r="J6">
+        <v>51</v>
+      </c>
+      <c r="K6">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="L6">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>59.4</v>
-      </c>
-      <c r="D6">
-        <v>61.9</v>
-      </c>
-      <c r="E6">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>54.90000000000001</v>
-      </c>
-      <c r="G6">
-        <v>56.3</v>
-      </c>
-      <c r="H6">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="I6">
-        <v>59</v>
-      </c>
-      <c r="J6">
-        <v>35.6</v>
-      </c>
-      <c r="K6">
-        <v>38.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>44.5</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="C7">
-        <v>9.4</v>
+        <v>83.8</v>
       </c>
       <c r="D7">
-        <v>2.3</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="E7">
-        <v>1.3</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>7.8</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G7">
-        <v>3.6</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="I7">
-        <v>13.5</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="J7">
-        <v>25.8</v>
+        <v>65.8</v>
       </c>
       <c r="K7">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>56.7</v>
+      </c>
+      <c r="L7">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>58.5</v>
+        <v>32.8</v>
       </c>
       <c r="C8">
-        <v>26.4</v>
+        <v>76.7</v>
       </c>
       <c r="D8">
-        <v>49.1</v>
+        <v>32.5</v>
       </c>
       <c r="E8">
-        <v>51.3</v>
+        <v>59.5</v>
       </c>
       <c r="F8">
-        <v>34.59999999999999</v>
+        <v>50.9</v>
       </c>
       <c r="G8">
-        <v>38.7</v>
+        <v>18.5</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I8">
-        <v>11.5</v>
+        <v>52.5</v>
       </c>
       <c r="J8">
-        <v>24.6</v>
+        <v>34.5</v>
       </c>
       <c r="K8">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>45.8</v>
+      </c>
+      <c r="L8">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>93.5</v>
+        <v>98.8</v>
       </c>
       <c r="C9">
-        <v>60.5</v>
+        <v>82.8</v>
       </c>
       <c r="D9">
-        <v>78.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E9">
-        <v>43.1</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F9">
-        <v>24.4</v>
+        <v>48.2</v>
       </c>
       <c r="G9">
-        <v>48.2</v>
+        <v>73.8</v>
       </c>
       <c r="H9">
-        <v>67.60000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="I9">
-        <v>40.8</v>
+        <v>70.8</v>
       </c>
       <c r="J9">
-        <v>17.5</v>
+        <v>41.6</v>
       </c>
       <c r="K9">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>30.4</v>
+      </c>
+      <c r="L9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>12.2</v>
+        <v>81.8</v>
       </c>
       <c r="C10">
-        <v>51.6</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>15.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F10">
-        <v>26.9</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="G10">
-        <v>7.9</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>43.9</v>
       </c>
       <c r="I10">
-        <v>21.9</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="J10">
-        <v>16.6</v>
+        <v>54.8</v>
       </c>
       <c r="K10">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>8.5</v>
+        <v>26.2</v>
       </c>
       <c r="C11">
-        <v>52.6</v>
+        <v>75.7</v>
       </c>
       <c r="D11">
-        <v>26.9</v>
+        <v>50.2</v>
       </c>
       <c r="E11">
-        <v>10.6</v>
+        <v>24.5</v>
       </c>
       <c r="F11">
-        <v>14.9</v>
+        <v>32.4</v>
       </c>
       <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+      <c r="I11">
         <v>2.2</v>
       </c>
-      <c r="H11">
-        <v>0.8</v>
-      </c>
-      <c r="I11">
-        <v>0.1</v>
-      </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>6.1</v>
+      </c>
+      <c r="L11">
+        <v>4.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>14.2</v>
+      </c>
+      <c r="D12">
+        <v>3.1</v>
+      </c>
+      <c r="E12">
+        <v>7.9</v>
+      </c>
+      <c r="F12">
+        <v>5.1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>0.3</v>
       </c>
-      <c r="C12">
-        <v>5.4</v>
-      </c>
-      <c r="D12">
-        <v>1.2</v>
-      </c>
-      <c r="E12">
-        <v>3.7</v>
-      </c>
-      <c r="F12">
-        <v>1.4</v>
-      </c>
-      <c r="G12">
-        <v>0.2</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>38.1</v>
+        <v>65.8</v>
       </c>
       <c r="C13">
-        <v>5.600000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="D13">
-        <v>20.8</v>
+        <v>39.5</v>
       </c>
       <c r="E13">
-        <v>26.8</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="F13">
+        <v>25.3</v>
+      </c>
+      <c r="G13">
         <v>10.1</v>
       </c>
-      <c r="G13">
-        <v>3.2</v>
-      </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J13">
+        <v>1.2</v>
+      </c>
+      <c r="K13">
         <v>0.1</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0</v>
       </c>
     </row>
@@ -2769,7 +2814,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>50</v>
@@ -2798,22 +2843,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>152.8555555555556</v>
+        <v>152.75</v>
       </c>
       <c r="E2">
-        <v>1375.7</v>
+        <v>1527.5</v>
       </c>
       <c r="F2">
-        <v>98.3</v>
+        <v>99.3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2822,27 +2867,27 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>153.9355555555556</v>
+        <v>146.024</v>
       </c>
       <c r="E3">
-        <v>1385.42</v>
+        <v>1460.24</v>
       </c>
       <c r="F3">
-        <v>91.40000000000001</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2851,7 +2896,7 @@
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2859,19 +2904,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>134.9177777777778</v>
+        <v>134.388</v>
       </c>
       <c r="E4">
-        <v>1214.26</v>
+        <v>1343.88</v>
       </c>
       <c r="F4">
-        <v>53.3</v>
+        <v>91.2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2880,7 +2925,7 @@
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2888,19 +2933,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>139.5266666666667</v>
+        <v>143.192</v>
       </c>
       <c r="E5">
-        <v>1255.74</v>
+        <v>1431.92</v>
       </c>
       <c r="F5">
-        <v>40.2</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2909,27 +2954,27 @@
         <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>140.1422222222222</v>
+        <v>148.77</v>
       </c>
       <c r="E6">
-        <v>1261.28</v>
+        <v>1487.7</v>
       </c>
       <c r="F6">
-        <v>38.2</v>
+        <v>66</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2938,65 +2983,65 @@
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>146.2688888888889</v>
+        <v>143.72</v>
       </c>
       <c r="E7">
-        <v>1316.42</v>
+        <v>1437.2</v>
       </c>
       <c r="F7">
-        <v>22.9</v>
+        <v>58.2</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>135.7066666666666</v>
+        <v>138.904</v>
       </c>
       <c r="E8">
-        <v>1221.36</v>
+        <v>1389.04</v>
       </c>
       <c r="F8">
-        <v>22.3</v>
+        <v>48.9</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3007,54 +3052,54 @@
         <v>61</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>147.0644444444445</v>
+        <v>146.63</v>
       </c>
       <c r="E9">
-        <v>1323.58</v>
+        <v>1466.3</v>
       </c>
       <c r="F9">
-        <v>20.1</v>
+        <v>26.2</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>141.4488888888889</v>
+        <v>127.828</v>
       </c>
       <c r="E10">
-        <v>1273.04</v>
+        <v>1278.28</v>
       </c>
       <c r="F10">
-        <v>13.2</v>
+        <v>18.2</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3062,28 +3107,28 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>129.6622222222222</v>
+        <v>131.134</v>
       </c>
       <c r="E11">
-        <v>1166.96</v>
+        <v>1311.34</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>9.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3091,28 +3136,28 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>125.3133333333333</v>
+        <v>125.644</v>
       </c>
       <c r="E12">
-        <v>1127.82</v>
+        <v>1256.44</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.7</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3120,25 +3165,25 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>101.5555555555556</v>
+        <v>101.694</v>
       </c>
       <c r="E13">
-        <v>914</v>
+        <v>1016.94</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.7</v>
+        <v>49.4</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
@@ -3159,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -3168,7 +3213,7 @@
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>84</v>
@@ -3185,10 +3230,10 @@
         <v>85</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>97</v>
@@ -3199,13 +3244,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3219,13 +3264,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3239,16 +3284,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>100</v>
@@ -3259,13 +3304,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -3279,16 +3324,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>102</v>
@@ -3305,10 +3350,10 @@
         <v>91</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
@@ -3319,16 +3364,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
       </c>
       <c r="D9">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>104</v>
@@ -3345,13 +3390,13 @@
         <v>93</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3359,19 +3404,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
       </c>
       <c r="D11">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3385,10 +3430,10 @@
         <v>95</v>
       </c>
       <c r="D12">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>105</v>
@@ -3405,13 +3450,13 @@
         <v>96</v>
       </c>
       <c r="D13">
-        <v>-29</v>
+        <v>-33</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3421,45 +3466,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3490,186 +3538,204 @@
       <c r="J2">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>-6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-8</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-11</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>-8</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>-3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-11</v>
-      </c>
-      <c r="D6">
-        <v>-9</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>-6</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3700,46 +3766,52 @@
       <c r="J8">
         <v>-8</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F9">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G9">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="H9">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="I9">
-        <v>-8</v>
+        <v>-17</v>
       </c>
       <c r="J9">
-        <v>-9</v>
-      </c>
-      <c r="K9" t="s">
+        <v>-18</v>
+      </c>
+      <c r="K9">
+        <v>-13</v>
+      </c>
+      <c r="L9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3770,46 +3842,52 @@
       <c r="J10">
         <v>-10</v>
       </c>
-      <c r="K10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="D11">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <v>-15</v>
+      </c>
+      <c r="H11">
+        <v>-12</v>
+      </c>
+      <c r="I11">
         <v>-8</v>
       </c>
-      <c r="G11">
-        <v>-14</v>
-      </c>
-      <c r="H11">
-        <v>-14</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
+        <v>-9</v>
+      </c>
+      <c r="K11">
         <v>-17</v>
       </c>
-      <c r="J11">
-        <v>-18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3840,11 +3918,14 @@
       <c r="J12">
         <v>-19</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12">
+        <v>-17</v>
+      </c>
+      <c r="L12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3875,8 +3956,11 @@
       <c r="J13">
         <v>-29</v>
       </c>
-      <c r="K13" t="s">
-        <v>101</v>
+      <c r="K13">
+        <v>-33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3886,7 +3970,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3894,25 +3978,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3920,25 +4004,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>26</v>
+        <v>-13</v>
       </c>
       <c r="F2">
-        <v>-7</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3946,25 +4030,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3972,25 +4056,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>-10</v>
-      </c>
       <c r="G4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4001,22 +4085,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>-10</v>
       </c>
       <c r="G5">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4024,25 +4108,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4050,25 +4134,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>-5</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4076,25 +4160,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
       <c r="F8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4102,25 +4186,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4128,22 +4212,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="F10">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -4154,19 +4238,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -4180,25 +4264,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>-5</v>
-      </c>
       <c r="F12">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4206,24 +4290,50 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>-5</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>-7</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>2</v>
       </c>
     </row>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="122">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -60,28 +60,31 @@
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>0-10-0</t>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>0-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -174,6 +177,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -198,55 +204,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>8.8-4.2</t>
-  </si>
-  <si>
-    <t>8.7-4.3</t>
-  </si>
-  <si>
-    <t>8.3-4.7</t>
-  </si>
-  <si>
-    <t>7.7-5.2</t>
-  </si>
-  <si>
-    <t>6.7-6.3</t>
-  </si>
-  <si>
-    <t>6.6-6.4</t>
-  </si>
-  <si>
-    <t>5.7-7.3</t>
-  </si>
-  <si>
-    <t>6.2-6.8</t>
-  </si>
-  <si>
-    <t>5.2-7.8</t>
-  </si>
-  <si>
-    <t>3.4-9.6</t>
-  </si>
-  <si>
-    <t>4.0-9.0</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>9.1-3.9</t>
+  </si>
+  <si>
+    <t>8.2-4.8</t>
+  </si>
+  <si>
+    <t>7.2-5.8</t>
+  </si>
+  <si>
+    <t>7.8-5.2</t>
+  </si>
+  <si>
+    <t>6.9-6.0</t>
+  </si>
+  <si>
+    <t>5.9-7.1</t>
+  </si>
+  <si>
+    <t>5.8-7.2</t>
+  </si>
+  <si>
+    <t>3.1-9.9</t>
+  </si>
+  <si>
+    <t>3.6-9.4</t>
   </si>
   <si>
     <t>9-4</t>
@@ -261,15 +261,9 @@
     <t>6-7</t>
   </si>
   <si>
-    <t>5-8</t>
-  </si>
-  <si>
     <t>3-10</t>
   </si>
   <si>
-    <t>4-9</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -279,27 +273,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Basak Gafoor</t>
+  </si>
+  <si>
     <t>Ariq Rashid</t>
   </si>
   <si>
-    <t>Basak Gafoor</t>
-  </si>
-  <si>
     <t>Dean Schar</t>
   </si>
   <si>
+    <t>Tyler Rahman</t>
+  </si>
+  <si>
     <t>Joseph Westerlund</t>
   </si>
   <si>
-    <t>Tyler Rahman</t>
-  </si>
-  <si>
     <t>Andrew Ross</t>
   </si>
   <si>
     <t>Michael Nader</t>
   </si>
   <si>
+    <t>Nach Konuganti</t>
+  </si>
+  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
@@ -309,40 +306,34 @@
     <t>Ayush Chivate</t>
   </si>
   <si>
-    <t>Nach Konuganti</t>
-  </si>
-  <si>
     <t>Caleb Owens</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑10</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -373,6 +364,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -803,37 +797,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -844,37 +838,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -882,40 +876,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -923,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -941,22 +935,22 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -964,37 +958,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -1005,40 +999,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1046,13 +1040,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1067,19 +1061,19 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1090,37 +1084,37 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1128,31 +1122,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -1161,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1169,40 +1163,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
         <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1219,31 +1213,31 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1251,16 +1245,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1269,22 +1263,22 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1302,13 +1296,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1319,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1333,10 +1327,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1347,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.666666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1358,13 +1352,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>4.75</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1372,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.833333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1389,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5.083333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1400,13 +1394,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5.333333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1414,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.583333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1428,13 +1422,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5.833333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1445,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.916666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1456,13 +1450,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1470,13 +1464,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1494,16 +1488,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1511,16 +1505,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>6.166666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D2">
-        <v>2.166666666666667</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1528,16 +1522,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>6.083333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.916666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1545,16 +1539,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1562,16 +1556,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.916666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D5">
-        <v>0.916666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1579,16 +1573,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.666666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1596,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.666666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D7">
-        <v>0.666666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1613,13 +1607,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>5.416666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.416666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1633,10 +1627,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>4.666666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D9">
-        <v>-2.333333333333333</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1650,13 +1644,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.583333333333333</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1667,13 +1661,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1684,13 +1678,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>3.416666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D12">
-        <v>1.416666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1707,7 +1701,7 @@
         <v>-0.4166666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1725,75 +1719,75 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>50.3</v>
+        <v>67.2</v>
       </c>
       <c r="C2">
-        <v>26.5</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>12.9</v>
+        <v>7.9</v>
       </c>
       <c r="E2">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1808,36 +1802,36 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>30.9</v>
+        <v>25.9</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>39.3</v>
       </c>
       <c r="D3">
-        <v>17.7</v>
+        <v>15.1</v>
       </c>
       <c r="E3">
-        <v>13.3</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="G3">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1852,39 +1846,39 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>97.40000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>12.1</v>
+        <v>1.3</v>
       </c>
       <c r="C4">
-        <v>18.4</v>
+        <v>16.5</v>
       </c>
       <c r="D4">
-        <v>17.2</v>
+        <v>19.1</v>
       </c>
       <c r="E4">
-        <v>23.1</v>
+        <v>19.2</v>
       </c>
       <c r="F4">
-        <v>11.9</v>
+        <v>20.6</v>
       </c>
       <c r="G4">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>4.6</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1896,39 +1890,39 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>91.2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="C5">
-        <v>14.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D5">
-        <v>25.9</v>
+        <v>15.5</v>
       </c>
       <c r="E5">
-        <v>16.4</v>
+        <v>22.4</v>
       </c>
       <c r="F5">
-        <v>13.2</v>
+        <v>12.6</v>
       </c>
       <c r="G5">
-        <v>13.9</v>
+        <v>10.5</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1940,87 +1934,87 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>89.59999999999999</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="D6">
-        <v>10.3</v>
+        <v>16.6</v>
       </c>
       <c r="E6">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F6">
-        <v>20.9</v>
+        <v>14.7</v>
       </c>
       <c r="G6">
-        <v>13.2</v>
+        <v>20.3</v>
       </c>
       <c r="H6">
-        <v>14.2</v>
+        <v>15.5</v>
       </c>
       <c r="I6">
-        <v>10.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="K6">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2.7</v>
+      </c>
+      <c r="D7">
+        <v>15.1</v>
+      </c>
+      <c r="E7">
+        <v>15.7</v>
+      </c>
+      <c r="F7">
+        <v>16.1</v>
+      </c>
+      <c r="G7">
+        <v>19.4</v>
+      </c>
+      <c r="H7">
+        <v>15.4</v>
+      </c>
+      <c r="I7">
+        <v>10.1</v>
+      </c>
+      <c r="J7">
+        <v>5.1</v>
+      </c>
+      <c r="K7">
         <v>0.4</v>
       </c>
-      <c r="C7">
-        <v>3.8</v>
-      </c>
-      <c r="D7">
-        <v>5.9</v>
-      </c>
-      <c r="E7">
-        <v>11.8</v>
-      </c>
-      <c r="F7">
-        <v>18.3</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>15.3</v>
-      </c>
-      <c r="I7">
-        <v>16.5</v>
-      </c>
-      <c r="J7">
-        <v>8.5</v>
-      </c>
-      <c r="K7">
-        <v>1.5</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -2028,51 +2022,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>58.2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="E8">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F8">
-        <v>13.7</v>
+        <v>15.6</v>
       </c>
       <c r="G8">
-        <v>17.8</v>
+        <v>21.7</v>
       </c>
       <c r="H8">
-        <v>16.6</v>
+        <v>14.2</v>
       </c>
       <c r="I8">
-        <v>19.9</v>
+        <v>14.2</v>
       </c>
       <c r="J8">
-        <v>11.1</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="L8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>48.9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2086,86 +2080,86 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="E9">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="F9">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>9.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="H9">
-        <v>17.9</v>
+        <v>16.3</v>
       </c>
       <c r="I9">
-        <v>16.4</v>
+        <v>22.1</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>25.3</v>
       </c>
       <c r="K9">
-        <v>12.8</v>
+        <v>11.3</v>
       </c>
       <c r="L9">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>26.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="G10">
-        <v>10.2</v>
+        <v>6.6</v>
       </c>
       <c r="H10">
-        <v>15.8</v>
+        <v>9.4</v>
       </c>
       <c r="I10">
-        <v>18.7</v>
+        <v>18.1</v>
       </c>
       <c r="J10">
-        <v>21.9</v>
+        <v>28.8</v>
       </c>
       <c r="K10">
-        <v>23.4</v>
+        <v>34.8</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2174,37 +2168,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="F11">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H11">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="I11">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="J11">
-        <v>25.3</v>
+        <v>22.5</v>
       </c>
       <c r="K11">
-        <v>43.1</v>
+        <v>52.9</v>
       </c>
       <c r="L11">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2236,16 +2230,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>42.9</v>
+        <v>54.7</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>45.3</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2277,19 +2271,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>41.7</v>
+        <v>45.3</v>
       </c>
       <c r="M13">
-        <v>49.4</v>
+        <v>54.7</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2302,457 +2296,490 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>19.8</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
+        <v>92.7</v>
       </c>
       <c r="D2">
-        <v>52.2</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="E2">
-        <v>74.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F2">
-        <v>77.10000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="G2">
-        <v>88.90000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H2">
-        <v>84.3</v>
+        <v>97.8</v>
       </c>
       <c r="I2">
-        <v>88.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="J2">
-        <v>96.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="K2">
-        <v>99.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="L2">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>31.8</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>92.30000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <v>93.7</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>98.09999999999999</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="F3">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="I3">
+        <v>87</v>
+      </c>
+      <c r="J3">
+        <v>97</v>
+      </c>
+      <c r="K3">
+        <v>99.2</v>
+      </c>
+      <c r="L3">
         <v>95.89999999999999</v>
       </c>
-      <c r="G3">
-        <v>94.3</v>
-      </c>
-      <c r="H3">
-        <v>98.3</v>
-      </c>
-      <c r="I3">
-        <v>99</v>
-      </c>
-      <c r="J3">
-        <v>99.5</v>
-      </c>
-      <c r="K3">
-        <v>96.3</v>
-      </c>
-      <c r="L3">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="E4">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>21.5</v>
+      </c>
+      <c r="G4">
+        <v>13.9</v>
+      </c>
+      <c r="H4">
+        <v>13.7</v>
+      </c>
+      <c r="I4">
+        <v>32.5</v>
+      </c>
+      <c r="J4">
+        <v>51.2</v>
+      </c>
+      <c r="K4">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="L4">
+        <v>81</v>
+      </c>
+      <c r="M4">
+        <v>83.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>50.5</v>
-      </c>
-      <c r="D4">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>32.2</v>
-      </c>
-      <c r="F4">
-        <v>51.9</v>
-      </c>
-      <c r="G4">
-        <v>62.9</v>
-      </c>
-      <c r="H4">
-        <v>78.7</v>
-      </c>
-      <c r="I4">
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>47.5</v>
+      </c>
+      <c r="D5">
+        <v>34.3</v>
+      </c>
+      <c r="E5">
+        <v>32.6</v>
+      </c>
+      <c r="F5">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="G5">
+        <v>66.2</v>
+      </c>
+      <c r="H5">
+        <v>78.8</v>
+      </c>
+      <c r="I5">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="J5">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="K5">
+        <v>89.8</v>
+      </c>
+      <c r="L5">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="M5">
+        <v>79.10000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>85.5</v>
+      </c>
+      <c r="C6">
+        <v>42.4</v>
+      </c>
+      <c r="D6">
+        <v>36.5</v>
+      </c>
+      <c r="E6">
+        <v>67.5</v>
+      </c>
+      <c r="F6">
+        <v>63.3</v>
+      </c>
+      <c r="G6">
+        <v>76.8</v>
+      </c>
+      <c r="H6">
+        <v>55.3</v>
+      </c>
+      <c r="I6">
+        <v>41.5</v>
+      </c>
+      <c r="J6">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="K6">
+        <v>85.3</v>
+      </c>
+      <c r="L6">
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>76.5</v>
+      </c>
+      <c r="D7">
+        <v>35.8</v>
+      </c>
+      <c r="E7">
+        <v>58.9</v>
+      </c>
+      <c r="F7">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>21.2</v>
+      </c>
+      <c r="H7">
+        <v>38.8</v>
+      </c>
+      <c r="I7">
+        <v>50.8</v>
+      </c>
+      <c r="J7">
+        <v>42.5</v>
+      </c>
+      <c r="K7">
+        <v>45.3</v>
+      </c>
+      <c r="L7">
+        <v>64.2</v>
+      </c>
+      <c r="M7">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>87.8</v>
       </c>
-      <c r="J4">
-        <v>77.60000000000001</v>
-      </c>
-      <c r="K4">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="L4">
-        <v>91.90000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>83.7</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>39.2</v>
-      </c>
-      <c r="E5">
-        <v>67.80000000000001</v>
-      </c>
-      <c r="F5">
-        <v>59.2</v>
-      </c>
-      <c r="G5">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="H5">
-        <v>56.49999999999999</v>
-      </c>
-      <c r="I5">
-        <v>43.3</v>
-      </c>
-      <c r="J5">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="K5">
-        <v>85.2</v>
-      </c>
-      <c r="L5">
-        <v>89.40000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>73.7</v>
-      </c>
-      <c r="C6">
-        <v>26.1</v>
-      </c>
-      <c r="D6">
-        <v>9.4</v>
-      </c>
-      <c r="E6">
-        <v>4.7</v>
-      </c>
-      <c r="F6">
-        <v>23.3</v>
-      </c>
-      <c r="G6">
-        <v>15.1</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>33.7</v>
-      </c>
-      <c r="J6">
-        <v>51</v>
-      </c>
-      <c r="K6">
-        <v>71.39999999999999</v>
-      </c>
-      <c r="L6">
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="C7">
-        <v>83.8</v>
-      </c>
-      <c r="D7">
-        <v>82.69999999999999</v>
-      </c>
-      <c r="E7">
-        <v>41</v>
-      </c>
-      <c r="F7">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="G7">
-        <v>81.10000000000001</v>
-      </c>
-      <c r="H7">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="I7">
-        <v>85.39999999999999</v>
-      </c>
-      <c r="J7">
-        <v>65.8</v>
-      </c>
-      <c r="K7">
-        <v>56.7</v>
-      </c>
-      <c r="L7">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>32.8</v>
-      </c>
       <c r="C8">
-        <v>76.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D8">
-        <v>32.5</v>
+        <v>83.2</v>
       </c>
       <c r="E8">
-        <v>59.5</v>
+        <v>39.6</v>
       </c>
       <c r="F8">
-        <v>50.9</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G8">
-        <v>18.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>90.8</v>
       </c>
       <c r="I8">
-        <v>52.5</v>
+        <v>85.7</v>
       </c>
       <c r="J8">
-        <v>34.5</v>
+        <v>58.2</v>
       </c>
       <c r="K8">
-        <v>45.8</v>
+        <v>56.2</v>
       </c>
       <c r="L8">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>65.5</v>
+      </c>
+      <c r="M8">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>98.8</v>
+        <v>97.3</v>
       </c>
       <c r="C9">
-        <v>82.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D9">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="E9">
-        <v>70.59999999999999</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="F9">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="G9">
-        <v>73.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H9">
-        <v>88.5</v>
+        <v>88.7</v>
       </c>
       <c r="I9">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="J9">
-        <v>41.6</v>
+        <v>42.9</v>
       </c>
       <c r="K9">
-        <v>30.4</v>
+        <v>28.5</v>
       </c>
       <c r="L9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>27.3</v>
+      </c>
+      <c r="C10">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>49.2</v>
+      </c>
+      <c r="E10">
+        <v>27.7</v>
+      </c>
+      <c r="F10">
+        <v>31.8</v>
+      </c>
+      <c r="G10">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H10">
+        <v>4.8</v>
+      </c>
+      <c r="I10">
+        <v>2.2</v>
+      </c>
+      <c r="J10">
+        <v>3.6</v>
+      </c>
+      <c r="K10">
+        <v>6.3</v>
+      </c>
+      <c r="L10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>81.8</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E10">
+      <c r="M10">
+        <v>9.700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>82.5</v>
+      </c>
+      <c r="C11">
+        <v>44.3</v>
+      </c>
+      <c r="D11">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E11">
         <v>72</v>
       </c>
-      <c r="F10">
-        <v>56.10000000000001</v>
-      </c>
-      <c r="G10">
-        <v>69.69999999999999</v>
-      </c>
-      <c r="H10">
-        <v>43.9</v>
-      </c>
-      <c r="I10">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="J10">
-        <v>54.8</v>
-      </c>
-      <c r="K10">
-        <v>19</v>
-      </c>
-      <c r="L10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>26.2</v>
-      </c>
-      <c r="C11">
-        <v>75.7</v>
-      </c>
-      <c r="D11">
-        <v>50.2</v>
-      </c>
-      <c r="E11">
-        <v>24.5</v>
-      </c>
       <c r="F11">
-        <v>32.4</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>43.5</v>
       </c>
       <c r="I11">
-        <v>2.2</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>6.1</v>
+        <v>22</v>
       </c>
       <c r="L11">
-        <v>4.100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="M11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>14.2</v>
+        <v>15.7</v>
       </c>
       <c r="D12">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="E12">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="F12">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
-        <v>1.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2760,42 +2787,48 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>65.8</v>
+        <v>63.6</v>
       </c>
       <c r="C13">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
       <c r="D13">
-        <v>39.5</v>
+        <v>44.3</v>
       </c>
       <c r="E13">
-        <v>47.09999999999999</v>
+        <v>45.6</v>
       </c>
       <c r="F13">
-        <v>25.3</v>
+        <v>23.1</v>
       </c>
       <c r="G13">
         <v>10.1</v>
       </c>
       <c r="H13">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>0.7000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="J13">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -2814,57 +2847,57 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>152.75</v>
+        <v>148.4127272727273</v>
       </c>
       <c r="E2">
-        <v>1527.5</v>
+        <v>1632.54</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
         <v>75</v>
@@ -2872,86 +2905,86 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D3">
-        <v>146.024</v>
+        <v>149.4909090909091</v>
       </c>
       <c r="E3">
-        <v>1460.24</v>
+        <v>1644.4</v>
       </c>
       <c r="F3">
-        <v>97.39999999999999</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D4">
-        <v>134.388</v>
+        <v>148.7672727272727</v>
       </c>
       <c r="E4">
-        <v>1343.88</v>
+        <v>1636.44</v>
       </c>
       <c r="F4">
-        <v>91.2</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>143.192</v>
+        <v>131.4090909090909</v>
       </c>
       <c r="E5">
-        <v>1431.92</v>
+        <v>1445.5</v>
       </c>
       <c r="F5">
-        <v>89.60000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
         <v>76</v>
@@ -2959,22 +2992,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>148.77</v>
+        <v>139.1454545454546</v>
       </c>
       <c r="E6">
-        <v>1487.7</v>
+        <v>1530.6</v>
       </c>
       <c r="F6">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2988,22 +3021,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D7">
-        <v>143.72</v>
+        <v>138.4309090909091</v>
       </c>
       <c r="E7">
-        <v>1437.2</v>
+        <v>1522.74</v>
       </c>
       <c r="F7">
-        <v>58.2</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3017,28 +3050,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D8">
-        <v>138.904</v>
+        <v>139.1</v>
       </c>
       <c r="E8">
-        <v>1389.04</v>
+        <v>1530.1</v>
       </c>
       <c r="F8">
-        <v>48.9</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
@@ -3049,25 +3082,25 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9">
-        <v>146.63</v>
+        <v>144.8581818181818</v>
       </c>
       <c r="E9">
-        <v>1466.3</v>
+        <v>1593.44</v>
       </c>
       <c r="F9">
-        <v>26.2</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
         <v>78</v>
@@ -3075,22 +3108,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D10">
-        <v>127.828</v>
+        <v>131.2690909090909</v>
       </c>
       <c r="E10">
-        <v>1278.28</v>
+        <v>1443.96</v>
       </c>
       <c r="F10">
-        <v>18.2</v>
+        <v>8.9</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3104,31 +3137,31 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D11">
-        <v>131.134</v>
+        <v>127.3054545454545</v>
       </c>
       <c r="E11">
-        <v>1311.34</v>
+        <v>1400.36</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3136,28 +3169,28 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D12">
-        <v>125.644</v>
+        <v>127.46</v>
       </c>
       <c r="E12">
-        <v>1256.44</v>
+        <v>1402.06</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>45.3</v>
       </c>
       <c r="H12" t="s">
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3165,28 +3198,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D13">
-        <v>101.694</v>
+        <v>98.99636363636364</v>
       </c>
       <c r="E13">
-        <v>1016.94</v>
+        <v>1088.96</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>49.4</v>
+        <v>54.7</v>
       </c>
       <c r="H13" t="s">
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3204,19 +3237,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3224,19 +3257,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3244,19 +3277,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3267,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -3276,7 +3309,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3284,10 +3317,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -3296,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3304,19 +3337,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3327,16 +3360,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3347,16 +3380,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3364,19 +3397,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3384,19 +3417,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3404,19 +3437,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3424,19 +3457,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3447,16 +3480,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>-33</v>
+        <v>-44</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3466,124 +3499,133 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>21</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>21</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>26</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>28</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>26</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3617,87 +3659,96 @@
       <c r="K4">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-8</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>-6</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>-6</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-8</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3731,11 +3782,14 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3769,163 +3823,178 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-12</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>-15</v>
+      </c>
+      <c r="G9">
+        <v>-17</v>
+      </c>
+      <c r="H9">
+        <v>-15</v>
+      </c>
+      <c r="I9">
+        <v>-16</v>
+      </c>
+      <c r="J9">
+        <v>-19</v>
+      </c>
+      <c r="K9">
+        <v>-17</v>
+      </c>
+      <c r="L9">
+        <v>-9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-2</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-3</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-8</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-14</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-14</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-17</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>-18</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-13</v>
       </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="L10">
+        <v>-12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-10</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-6</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-7</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-16</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-10</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-10</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-7</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-7</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>-10</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-16</v>
       </c>
-      <c r="L10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="L11">
+        <v>-15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-7</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>-9</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-15</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-12</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-8</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-9</v>
-      </c>
-      <c r="K11">
-        <v>-17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>-4</v>
-      </c>
-      <c r="C12">
-        <v>-6</v>
-      </c>
-      <c r="D12">
-        <v>-12</v>
-      </c>
-      <c r="E12">
-        <v>-10</v>
-      </c>
-      <c r="F12">
-        <v>-15</v>
-      </c>
-      <c r="G12">
-        <v>-17</v>
-      </c>
-      <c r="H12">
-        <v>-15</v>
-      </c>
-      <c r="I12">
-        <v>-16</v>
-      </c>
-      <c r="J12">
-        <v>-19</v>
       </c>
       <c r="K12">
         <v>-17</v>
       </c>
-      <c r="L12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3959,8 +4028,11 @@
       <c r="K13">
         <v>-33</v>
       </c>
-      <c r="L13" t="s">
-        <v>106</v>
+      <c r="L13">
+        <v>-44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +4042,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3978,25 +4050,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4283,58 +4355,6 @@
       </c>
       <c r="H12" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>-7</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="129">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -180,6 +181,63 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Ariq Rashid</t>
+  </si>
+  <si>
+    <t>Michael Nader</t>
+  </si>
+  <si>
+    <t>Alan Devera</t>
+  </si>
+  <si>
+    <t>Basak Gafoor</t>
+  </si>
+  <si>
+    <t>Tyler Rahman</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Caleb Owens</t>
+  </si>
+  <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
+    <t>Joseph Westerlund</t>
+  </si>
+  <si>
+    <t>Andrew Ross</t>
+  </si>
+  <si>
+    <t>Nach Konuganti</t>
+  </si>
+  <si>
+    <t>Dean Schar</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -237,16 +295,16 @@
     <t>6.9-6.0</t>
   </si>
   <si>
+    <t>5.9-7.0</t>
+  </si>
+  <si>
     <t>5.9-7.1</t>
   </si>
   <si>
-    <t>5.8-7.2</t>
-  </si>
-  <si>
-    <t>3.1-9.9</t>
-  </si>
-  <si>
-    <t>3.6-9.4</t>
+    <t>3.0-10.0</t>
+  </si>
+  <si>
+    <t>3.7-9.3</t>
   </si>
   <si>
     <t>9-4</t>
@@ -271,42 +329,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Basak Gafoor</t>
-  </si>
-  <si>
-    <t>Ariq Rashid</t>
-  </si>
-  <si>
-    <t>Dean Schar</t>
-  </si>
-  <si>
-    <t>Tyler Rahman</t>
-  </si>
-  <si>
-    <t>Joseph Westerlund</t>
-  </si>
-  <si>
-    <t>Andrew Ross</t>
-  </si>
-  <si>
-    <t>Michael Nader</t>
-  </si>
-  <si>
-    <t>Nach Konuganti</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>Alan Devera</t>
-  </si>
-  <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
-    <t>Caleb Owens</t>
   </si>
   <si>
     <t>↑3</t>
@@ -1286,6 +1308,328 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>-13</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>-7</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>-10</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1766,16 +2110,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>67.2</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>17.4</v>
       </c>
       <c r="D2">
-        <v>7.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="F2">
         <v>0.9</v>
@@ -1810,28 +2154,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>25.9</v>
+        <v>22.6</v>
       </c>
       <c r="C3">
-        <v>39.3</v>
+        <v>42.5</v>
       </c>
       <c r="D3">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="F3">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1846,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1854,31 +2198,31 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="D4">
-        <v>19.1</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>19.2</v>
+        <v>21.1</v>
       </c>
       <c r="F4">
-        <v>20.6</v>
+        <v>19.3</v>
       </c>
       <c r="G4">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="I4">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J4">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1890,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>84</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1898,28 +2242,28 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="C5">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D5">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="E5">
-        <v>22.4</v>
+        <v>21.5</v>
       </c>
       <c r="F5">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
       <c r="G5">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>14.7</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -1934,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>75.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1942,34 +2286,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D6">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="E6">
         <v>14.8</v>
       </c>
       <c r="F6">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="G6">
-        <v>20.3</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>15.5</v>
+        <v>12.1</v>
       </c>
       <c r="I6">
-        <v>8.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1978,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1986,34 +2330,34 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E7">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="G7">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="H7">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="I7">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="J7">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="K7">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2030,31 +2374,31 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D8">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="E8">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F8">
-        <v>15.6</v>
+        <v>16.6</v>
       </c>
       <c r="G8">
-        <v>21.7</v>
+        <v>18.2</v>
       </c>
       <c r="H8">
-        <v>14.2</v>
+        <v>16.4</v>
       </c>
       <c r="I8">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="K8">
         <v>0.6</v>
@@ -2066,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>62</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2080,28 +2424,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="E9">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="G9">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="H9">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="I9">
-        <v>22.1</v>
+        <v>20.9</v>
       </c>
       <c r="J9">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="K9">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2110,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2127,25 +2471,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="G10">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="H10">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="I10">
-        <v>18.1</v>
+        <v>16.7</v>
       </c>
       <c r="J10">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>34.8</v>
+        <v>37.3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2154,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2168,28 +2512,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H11">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="J11">
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="K11">
-        <v>52.9</v>
+        <v>49</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2198,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2236,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>54.7</v>
+        <v>53.4</v>
       </c>
       <c r="M12">
-        <v>45.3</v>
+        <v>46.6</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2280,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>45.3</v>
+        <v>46.6</v>
       </c>
       <c r="M13">
-        <v>54.7</v>
+        <v>53.4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2345,37 +2689,37 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>33.90000000000001</v>
+        <v>32.9</v>
       </c>
       <c r="C2">
-        <v>92.7</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>92.10000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="E2">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="F2">
-        <v>95.5</v>
+        <v>96.7</v>
       </c>
       <c r="G2">
-        <v>91.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="H2">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="I2">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="J2">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="K2">
-        <v>95.7</v>
+        <v>97.7</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2386,40 +2730,40 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>52.2</v>
       </c>
       <c r="E3">
-        <v>77.60000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="F3">
-        <v>76.90000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="G3">
-        <v>88.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="H3">
-        <v>84.59999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="I3">
-        <v>87</v>
+        <v>89.2</v>
       </c>
       <c r="J3">
-        <v>97</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="K3">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L3">
-        <v>95.89999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="M3">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2427,40 +2771,40 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>73.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>23.7</v>
       </c>
       <c r="D4">
-        <v>6.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>5.600000000000001</v>
       </c>
       <c r="F4">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="G4">
-        <v>13.9</v>
+        <v>11.4</v>
       </c>
       <c r="H4">
-        <v>13.7</v>
+        <v>12.4</v>
       </c>
       <c r="I4">
-        <v>32.5</v>
+        <v>33.7</v>
       </c>
       <c r="J4">
-        <v>51.2</v>
+        <v>50.9</v>
       </c>
       <c r="K4">
-        <v>71.39999999999999</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="L4">
-        <v>81</v>
+        <v>80.7</v>
       </c>
       <c r="M4">
-        <v>83.59999999999999</v>
+        <v>82.69999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2468,40 +2812,40 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>34.3</v>
+        <v>28.8</v>
       </c>
       <c r="E5">
-        <v>32.6</v>
+        <v>35.7</v>
       </c>
       <c r="F5">
-        <v>52.90000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="G5">
         <v>66.2</v>
       </c>
       <c r="H5">
-        <v>78.8</v>
+        <v>76.5</v>
       </c>
       <c r="I5">
-        <v>87.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="J5">
-        <v>79.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>89.8</v>
+        <v>91</v>
       </c>
       <c r="L5">
-        <v>76.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="M5">
-        <v>79.10000000000001</v>
+        <v>77.60000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2509,40 +2853,40 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>85.5</v>
+        <v>84.7</v>
       </c>
       <c r="C6">
-        <v>42.4</v>
+        <v>43.4</v>
       </c>
       <c r="D6">
         <v>36.5</v>
       </c>
       <c r="E6">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="F6">
-        <v>63.3</v>
+        <v>62.6</v>
       </c>
       <c r="G6">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="H6">
-        <v>55.3</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="I6">
-        <v>41.5</v>
+        <v>44.8</v>
       </c>
       <c r="J6">
-        <v>71.39999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="K6">
-        <v>85.3</v>
+        <v>84.7</v>
       </c>
       <c r="L6">
-        <v>68</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="M6">
-        <v>73</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2550,40 +2894,40 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="C7">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D7">
-        <v>35.8</v>
+        <v>38.1</v>
       </c>
       <c r="E7">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="F7">
-        <v>51</v>
+        <v>47.5</v>
       </c>
       <c r="G7">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="H7">
-        <v>38.8</v>
+        <v>37.2</v>
       </c>
       <c r="I7">
-        <v>50.8</v>
+        <v>47.5</v>
       </c>
       <c r="J7">
-        <v>42.5</v>
+        <v>35.4</v>
       </c>
       <c r="K7">
-        <v>45.3</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="L7">
-        <v>64.2</v>
+        <v>66.5</v>
       </c>
       <c r="M7">
-        <v>70.5</v>
+        <v>68.60000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2591,40 +2935,40 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>87.8</v>
+        <v>88.5</v>
       </c>
       <c r="C8">
-        <v>83.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="D8">
-        <v>83.2</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E8">
-        <v>39.6</v>
+        <v>38.8</v>
       </c>
       <c r="F8">
-        <v>76.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="G8">
-        <v>82.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H8">
-        <v>90.8</v>
+        <v>91</v>
       </c>
       <c r="I8">
-        <v>85.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="J8">
-        <v>58.2</v>
+        <v>63.8</v>
       </c>
       <c r="K8">
-        <v>56.2</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="L8">
-        <v>65.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="M8">
-        <v>58.2</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2632,40 +2976,40 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>97.3</v>
+        <v>98.5</v>
       </c>
       <c r="C9">
-        <v>83.59999999999999</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="D9">
-        <v>90.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E9">
-        <v>68.60000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F9">
-        <v>48.1</v>
+        <v>52.5</v>
       </c>
       <c r="G9">
-        <v>73.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="H9">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="I9">
-        <v>70.7</v>
+        <v>69.5</v>
       </c>
       <c r="J9">
-        <v>42.9</v>
+        <v>44.5</v>
       </c>
       <c r="K9">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="M9">
-        <v>22.8</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2673,40 +3017,40 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C10">
-        <v>76</v>
+        <v>75.7</v>
       </c>
       <c r="D10">
-        <v>49.2</v>
+        <v>46.8</v>
       </c>
       <c r="E10">
-        <v>27.7</v>
+        <v>26.9</v>
       </c>
       <c r="F10">
-        <v>31.8</v>
+        <v>26.7</v>
       </c>
       <c r="G10">
-        <v>9.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H10">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="I10">
-        <v>2.2</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J10">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K10">
         <v>6.3</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M10">
-        <v>9.700000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2714,40 +3058,40 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>82.5</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="C11">
-        <v>44.3</v>
+        <v>47.8</v>
       </c>
       <c r="D11">
-        <v>71.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E11">
-        <v>72</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F11">
-        <v>56.00000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="G11">
-        <v>65</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="H11">
-        <v>43.5</v>
+        <v>49.1</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>37.3</v>
       </c>
       <c r="J11">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="K11">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="L11">
-        <v>6.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="M11">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2755,31 +3099,31 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C12">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="D12">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="E12">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="F12">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I12">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2796,34 +3140,34 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>63.6</v>
+        <v>65.8</v>
       </c>
       <c r="C13">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="D13">
-        <v>44.3</v>
+        <v>41.6</v>
       </c>
       <c r="E13">
-        <v>45.6</v>
+        <v>48.1</v>
       </c>
       <c r="F13">
-        <v>23.1</v>
+        <v>25.1</v>
       </c>
       <c r="G13">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I13">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2846,380 +3190,377 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>144.86</v>
+      </c>
+      <c r="E2">
+        <v>0.455</v>
+      </c>
+      <c r="F2">
+        <v>148.59</v>
+      </c>
+      <c r="G2">
+        <v>0.636</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>139.1</v>
+      </c>
+      <c r="E3">
+        <v>0.545</v>
+      </c>
+      <c r="F3">
+        <v>143.96</v>
+      </c>
+      <c r="G3">
+        <v>0.591</v>
+      </c>
+      <c r="H3">
+        <v>10.5</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>131.41</v>
+      </c>
+      <c r="E4">
+        <v>0.636</v>
+      </c>
+      <c r="F4">
+        <v>143.78</v>
+      </c>
+      <c r="G4">
+        <v>0.636</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>148.77</v>
+      </c>
+      <c r="E5">
+        <v>0.545</v>
+      </c>
+      <c r="F5">
+        <v>138.06</v>
+      </c>
+      <c r="G5">
+        <v>0.455</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>148.4127272727273</v>
-      </c>
-      <c r="E2">
-        <v>1632.54</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>148.41</v>
+      </c>
+      <c r="E6">
+        <v>0.727</v>
+      </c>
+      <c r="F6">
+        <v>138.13</v>
+      </c>
+      <c r="G6">
+        <v>0.545</v>
+      </c>
+      <c r="H6">
+        <v>8.5</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>131.27</v>
+      </c>
+      <c r="E7">
+        <v>0.455</v>
+      </c>
+      <c r="F7">
+        <v>138.04</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>7.5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>0.273</v>
+      </c>
+      <c r="F8">
+        <v>132.95</v>
+      </c>
+      <c r="G8">
+        <v>0.364</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D3">
-        <v>149.4909090909091</v>
-      </c>
-      <c r="E3">
-        <v>1644.4</v>
-      </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D9">
+        <v>127.31</v>
+      </c>
+      <c r="E9">
+        <v>0.455</v>
+      </c>
+      <c r="F9">
+        <v>140.38</v>
+      </c>
+      <c r="G9">
+        <v>0.545</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="I3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D4">
-        <v>148.7672727272727</v>
-      </c>
-      <c r="E4">
-        <v>1636.44</v>
-      </c>
-      <c r="F4">
-        <v>84</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D10">
+        <v>139.15</v>
+      </c>
+      <c r="E10">
+        <v>0.545</v>
+      </c>
+      <c r="F10">
+        <v>129.43</v>
+      </c>
+      <c r="G10">
+        <v>0.409</v>
+      </c>
+      <c r="H10">
+        <v>-12</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="D11">
+        <v>149.49</v>
+      </c>
+      <c r="E11">
+        <v>0.636</v>
+      </c>
+      <c r="F11">
+        <v>133.2</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>131.4090909090909</v>
-      </c>
-      <c r="E5">
-        <v>1445.5</v>
-      </c>
-      <c r="F5">
-        <v>75.5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>69</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D6">
-        <v>139.1454545454546</v>
-      </c>
-      <c r="E6">
-        <v>1530.6</v>
-      </c>
-      <c r="F6">
-        <v>72</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D7">
-        <v>138.4309090909091</v>
-      </c>
-      <c r="E7">
-        <v>1522.74</v>
-      </c>
-      <c r="F7">
-        <v>69</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D8">
-        <v>139.1</v>
-      </c>
-      <c r="E8">
-        <v>1530.1</v>
-      </c>
-      <c r="F8">
-        <v>62</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D9">
-        <v>144.8581818181818</v>
-      </c>
-      <c r="E9">
-        <v>1593.44</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D10">
-        <v>131.2690909090909</v>
-      </c>
-      <c r="E10">
-        <v>1443.96</v>
-      </c>
-      <c r="F10">
-        <v>8.9</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D11">
-        <v>127.3054545454545</v>
-      </c>
-      <c r="E11">
-        <v>1400.36</v>
-      </c>
-      <c r="F11">
-        <v>4.6</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12">
-        <v>0.1818181818181818</v>
       </c>
       <c r="D12">
         <v>127.46</v>
       </c>
       <c r="E12">
-        <v>1402.06</v>
+        <v>0.182</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>119.07</v>
       </c>
       <c r="G12">
-        <v>45.3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
+        <v>0.409</v>
+      </c>
+      <c r="H12">
+        <v>-17.5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
+      <c r="A13" s="1">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>0.2727272727272727</v>
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>98.99636363636364</v>
+        <v>138.43</v>
       </c>
       <c r="E13">
-        <v>1088.96</v>
+        <v>0.545</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>119.05</v>
       </c>
       <c r="G13">
-        <v>54.7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
+        <v>0.409</v>
+      </c>
+      <c r="H13">
+        <v>-26</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3228,6 +3569,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>148.4127272727273</v>
+      </c>
+      <c r="E2">
+        <v>1632.54</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D3">
+        <v>149.4909090909091</v>
+      </c>
+      <c r="E3">
+        <v>1644.4</v>
+      </c>
+      <c r="F3">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D4">
+        <v>148.7672727272727</v>
+      </c>
+      <c r="E4">
+        <v>1636.44</v>
+      </c>
+      <c r="F4">
+        <v>82.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>131.4090909090909</v>
+      </c>
+      <c r="E5">
+        <v>1445.5</v>
+      </c>
+      <c r="F5">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D6">
+        <v>139.1454545454546</v>
+      </c>
+      <c r="E6">
+        <v>1530.6</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D7">
+        <v>138.4309090909091</v>
+      </c>
+      <c r="E7">
+        <v>1522.74</v>
+      </c>
+      <c r="F7">
+        <v>69</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D8">
+        <v>139.1</v>
+      </c>
+      <c r="E8">
+        <v>1530.1</v>
+      </c>
+      <c r="F8">
+        <v>59.4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D9">
+        <v>144.8581818181818</v>
+      </c>
+      <c r="E9">
+        <v>1593.44</v>
+      </c>
+      <c r="F9">
+        <v>25.9</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D10">
+        <v>131.2690909090909</v>
+      </c>
+      <c r="E10">
+        <v>1443.96</v>
+      </c>
+      <c r="F10">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D11">
+        <v>127.3054545454545</v>
+      </c>
+      <c r="E11">
+        <v>1400.36</v>
+      </c>
+      <c r="F11">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D12">
+        <v>127.46</v>
+      </c>
+      <c r="E12">
+        <v>1402.06</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>46.6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D13">
+        <v>98.99636363636364</v>
+      </c>
+      <c r="E13">
+        <v>1088.96</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3240,16 +3971,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3260,7 +3991,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>33</v>
@@ -3269,7 +4000,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3280,7 +4011,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -3289,7 +4020,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3300,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -3309,7 +4040,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3320,7 +4051,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -3329,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3340,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -3349,7 +4080,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3360,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3369,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3380,7 +4111,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>-8</v>
@@ -3389,7 +4120,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3400,7 +4131,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>-9</v>
@@ -3409,7 +4140,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3420,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>-12</v>
@@ -3429,7 +4160,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3440,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>-15</v>
@@ -3449,7 +4180,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3460,7 +4191,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>-18</v>
@@ -3469,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3480,7 +4211,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>-44</v>
@@ -3489,7 +4220,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3497,7 +4228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -3507,40 +4238,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3581,7 +4312,7 @@
         <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3622,7 +4353,7 @@
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3663,7 +4394,7 @@
         <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3704,7 +4435,7 @@
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3745,7 +4476,7 @@
         <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3786,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3827,7 +4558,7 @@
         <v>-8</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3868,7 +4599,7 @@
         <v>-9</v>
       </c>
       <c r="M9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3909,7 +4640,7 @@
         <v>-12</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3950,7 +4681,7 @@
         <v>-15</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3991,7 +4722,7 @@
         <v>-18</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4032,329 +4763,7 @@
         <v>-44</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>-13</v>
-      </c>
-      <c r="F2">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>-7</v>
-      </c>
-      <c r="G3">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>-10</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>-2</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>22</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>-9</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="129">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -187,7 +187,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -280,31 +280,31 @@
     <t>3-8</t>
   </si>
   <si>
-    <t>9.1-3.9</t>
+    <t>9.1-3.8</t>
   </si>
   <si>
     <t>8.2-4.8</t>
   </si>
   <si>
+    <t>7.9-5.1</t>
+  </si>
+  <si>
+    <t>7.1-5.9</t>
+  </si>
+  <si>
     <t>7.2-5.8</t>
   </si>
   <si>
-    <t>7.8-5.2</t>
-  </si>
-  <si>
-    <t>6.9-6.0</t>
-  </si>
-  <si>
-    <t>5.9-7.0</t>
+    <t>6.9-6.1</t>
   </si>
   <si>
     <t>5.9-7.1</t>
   </si>
   <si>
-    <t>3.0-10.0</t>
-  </si>
-  <si>
-    <t>3.7-9.3</t>
+    <t>3.1-9.9</t>
+  </si>
+  <si>
+    <t>3.6-9.4</t>
   </si>
   <si>
     <t>9-4</t>
@@ -2110,22 +2110,22 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C2">
-        <v>17.4</v>
+        <v>19.1</v>
       </c>
       <c r="D2">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="E2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2154,28 +2154,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="C3">
-        <v>42.5</v>
+        <v>41.8</v>
       </c>
       <c r="D3">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
       <c r="E3">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="F3">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="G3">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2190,39 +2190,39 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="C4">
-        <v>15.4</v>
+        <v>10.7</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="E4">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="F4">
-        <v>19.3</v>
+        <v>12.9</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>10.6</v>
       </c>
       <c r="H4">
-        <v>5.2</v>
+        <v>14.2</v>
       </c>
       <c r="I4">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="J4">
-        <v>4.7</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2234,39 +2234,39 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>82.3</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="C5">
-        <v>9.300000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="D5">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="E5">
-        <v>21.5</v>
+        <v>19.1</v>
       </c>
       <c r="F5">
-        <v>11.6</v>
+        <v>20.4</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="H5">
-        <v>14.7</v>
+        <v>5.8</v>
       </c>
       <c r="I5">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2278,42 +2278,42 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>78</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
       <c r="D6">
-        <v>16.7</v>
+        <v>15.7</v>
       </c>
       <c r="E6">
-        <v>14.8</v>
+        <v>16.2</v>
       </c>
       <c r="F6">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="H6">
-        <v>12.1</v>
+        <v>15.5</v>
       </c>
       <c r="I6">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2322,42 +2322,42 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>75</v>
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="D7">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>14.2</v>
       </c>
       <c r="F7">
-        <v>15.9</v>
+        <v>14.4</v>
       </c>
       <c r="G7">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
       <c r="H7">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="I7">
-        <v>10.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J7">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="K7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>69</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2374,34 +2374,34 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>9.5</v>
+        <v>10.2</v>
       </c>
       <c r="E8">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="F8">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="G8">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="H8">
-        <v>16.4</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="J8">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>59.4</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2427,25 +2427,25 @@
         <v>1.2</v>
       </c>
       <c r="E9">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="F9">
-        <v>10.6</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="H9">
-        <v>16.6</v>
+        <v>18.3</v>
       </c>
       <c r="I9">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="J9">
-        <v>24.5</v>
+        <v>23.8</v>
       </c>
       <c r="K9">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2468,28 +2468,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="G10">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="H10">
-        <v>10.6</v>
+        <v>9.1</v>
       </c>
       <c r="I10">
-        <v>16.7</v>
+        <v>18.2</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>25.5</v>
       </c>
       <c r="K10">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>7.4</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2518,31 +2518,31 @@
         <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="G11">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="I11">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="J11">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="K11">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2580,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>53.4</v>
+        <v>56.2</v>
       </c>
       <c r="M12">
-        <v>46.6</v>
+        <v>43.8</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2621,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L13">
-        <v>46.6</v>
+        <v>43.7</v>
       </c>
       <c r="M13">
-        <v>53.4</v>
+        <v>56.2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2689,34 +2689,34 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>32.9</v>
+        <v>33.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>91.7</v>
       </c>
       <c r="D2">
-        <v>93.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E2">
-        <v>97.5</v>
+        <v>98.2</v>
       </c>
       <c r="F2">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="G2">
-        <v>93.7</v>
+        <v>92.7</v>
       </c>
       <c r="H2">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="I2">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J2">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K2">
-        <v>97.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="L2">
         <v>99.8</v>
@@ -2730,40 +2730,40 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>17.1</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>52.2</v>
+        <v>53.5</v>
       </c>
       <c r="E3">
-        <v>74.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F3">
-        <v>79.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G3">
-        <v>86.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="H3">
-        <v>82.89999999999999</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="I3">
-        <v>89.2</v>
+        <v>88.2</v>
       </c>
       <c r="J3">
-        <v>96.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="K3">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>96.7</v>
+        <v>96.2</v>
       </c>
       <c r="M3">
-        <v>99.3</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2771,40 +2771,40 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="C4">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="E4">
-        <v>5.600000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="F4">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="G4">
-        <v>11.4</v>
+        <v>13.2</v>
       </c>
       <c r="H4">
-        <v>12.4</v>
+        <v>10.9</v>
       </c>
       <c r="I4">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="J4">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="K4">
-        <v>68.60000000000001</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="L4">
-        <v>80.7</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="M4">
-        <v>82.69999999999999</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2812,122 +2812,122 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>50.9</v>
       </c>
       <c r="D5">
-        <v>28.8</v>
+        <v>32.5</v>
       </c>
       <c r="E5">
-        <v>35.7</v>
+        <v>31.5</v>
       </c>
       <c r="F5">
-        <v>52.8</v>
+        <v>51.5</v>
       </c>
       <c r="G5">
-        <v>66.2</v>
+        <v>63.4</v>
       </c>
       <c r="H5">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="I5">
-        <v>89</v>
+        <v>87.8</v>
       </c>
       <c r="J5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K5">
-        <v>91</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="L5">
-        <v>75.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="M5">
-        <v>77.60000000000001</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>84.7</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>43.4</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>36.5</v>
+        <v>35.6</v>
       </c>
       <c r="E6">
-        <v>67.2</v>
+        <v>58.5</v>
       </c>
       <c r="F6">
-        <v>62.6</v>
+        <v>48.5</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>20.8</v>
       </c>
       <c r="H6">
-        <v>57.59999999999999</v>
+        <v>37.6</v>
       </c>
       <c r="I6">
-        <v>44.8</v>
+        <v>49.9</v>
       </c>
       <c r="J6">
-        <v>71.8</v>
+        <v>37.6</v>
       </c>
       <c r="K6">
-        <v>84.7</v>
+        <v>47.2</v>
       </c>
       <c r="L6">
-        <v>65.60000000000001</v>
+        <v>63.8</v>
       </c>
       <c r="M6">
-        <v>71.3</v>
+        <v>70.19999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>28.2</v>
+        <v>85.7</v>
       </c>
       <c r="C7">
+        <v>42.5</v>
+      </c>
+      <c r="D7">
+        <v>36.7</v>
+      </c>
+      <c r="E7">
+        <v>68.60000000000001</v>
+      </c>
+      <c r="F7">
+        <v>63.5</v>
+      </c>
+      <c r="G7">
         <v>76.90000000000001</v>
       </c>
-      <c r="D7">
-        <v>38.1</v>
-      </c>
-      <c r="E7">
-        <v>59.3</v>
-      </c>
-      <c r="F7">
-        <v>47.5</v>
-      </c>
-      <c r="G7">
-        <v>20.6</v>
-      </c>
       <c r="H7">
-        <v>37.2</v>
+        <v>57.7</v>
       </c>
       <c r="I7">
-        <v>47.5</v>
+        <v>44.4</v>
       </c>
       <c r="J7">
-        <v>35.4</v>
+        <v>75.3</v>
       </c>
       <c r="K7">
-        <v>46.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="L7">
-        <v>66.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="M7">
-        <v>68.60000000000001</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2935,40 +2935,40 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>88.5</v>
+        <v>85.5</v>
       </c>
       <c r="C8">
-        <v>82.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D8">
-        <v>82.59999999999999</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="E8">
-        <v>38.8</v>
+        <v>38.2</v>
       </c>
       <c r="F8">
-        <v>73.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G8">
-        <v>79.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="H8">
-        <v>91</v>
+        <v>91.5</v>
       </c>
       <c r="I8">
-        <v>86.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="J8">
-        <v>63.8</v>
+        <v>60.6</v>
       </c>
       <c r="K8">
-        <v>55.90000000000001</v>
+        <v>55.8</v>
       </c>
       <c r="L8">
-        <v>64.90000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="M8">
-        <v>63.1</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2979,37 +2979,37 @@
         <v>98.5</v>
       </c>
       <c r="C9">
-        <v>80.30000000000001</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="D9">
-        <v>90.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>64.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F9">
-        <v>52.5</v>
+        <v>45.3</v>
       </c>
       <c r="G9">
-        <v>75.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="H9">
-        <v>88.8</v>
+        <v>91.5</v>
       </c>
       <c r="I9">
-        <v>69.5</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="J9">
-        <v>44.5</v>
+        <v>43.9</v>
       </c>
       <c r="K9">
-        <v>29.7</v>
+        <v>30.9</v>
       </c>
       <c r="L9">
-        <v>35.09999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="M9">
-        <v>24.6</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3020,37 +3020,37 @@
         <v>27.4</v>
       </c>
       <c r="C10">
-        <v>75.7</v>
+        <v>76.3</v>
       </c>
       <c r="D10">
-        <v>46.8</v>
+        <v>48.5</v>
       </c>
       <c r="E10">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>26.7</v>
+        <v>31.6</v>
       </c>
       <c r="G10">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="H10">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0.7000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="J10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="K10">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="L10">
-        <v>8.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M10">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3058,40 +3058,40 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>83.89999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="C11">
-        <v>47.8</v>
+        <v>43.1</v>
       </c>
       <c r="D11">
-        <v>75.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E11">
-        <v>73.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F11">
-        <v>56.7</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="G11">
-        <v>67.60000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H11">
-        <v>49.1</v>
+        <v>44.2</v>
       </c>
       <c r="I11">
-        <v>37.3</v>
+        <v>34.9</v>
       </c>
       <c r="J11">
-        <v>54.3</v>
+        <v>56.2</v>
       </c>
       <c r="K11">
-        <v>20.3</v>
+        <v>18.9</v>
       </c>
       <c r="L11">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3099,19 +3099,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>15.3</v>
+        <v>17.3</v>
       </c>
       <c r="D12">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="E12">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="F12">
-        <v>4.2</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="G12">
         <v>1.2</v>
@@ -3120,10 +3120,10 @@
         <v>0.4</v>
       </c>
       <c r="I12">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3140,34 +3140,34 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>65.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C13">
-        <v>12.3</v>
+        <v>13.7</v>
       </c>
       <c r="D13">
-        <v>41.6</v>
+        <v>43.3</v>
       </c>
       <c r="E13">
-        <v>48.1</v>
+        <v>45.6</v>
       </c>
       <c r="F13">
-        <v>25.1</v>
+        <v>23.8</v>
       </c>
       <c r="G13">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="H13">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I13">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3228,8 +3228,8 @@
       <c r="D2">
         <v>144.86</v>
       </c>
-      <c r="E2">
-        <v>0.455</v>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2">
         <v>148.59</v>
@@ -3257,8 +3257,8 @@
       <c r="D3">
         <v>139.1</v>
       </c>
-      <c r="E3">
-        <v>0.545</v>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="F3">
         <v>143.96</v>
@@ -3286,8 +3286,8 @@
       <c r="D4">
         <v>131.41</v>
       </c>
-      <c r="E4">
-        <v>0.636</v>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4">
         <v>143.78</v>
@@ -3315,8 +3315,8 @@
       <c r="D5">
         <v>148.77</v>
       </c>
-      <c r="E5">
-        <v>0.545</v>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5">
         <v>138.06</v>
@@ -3344,8 +3344,8 @@
       <c r="D6">
         <v>148.41</v>
       </c>
-      <c r="E6">
-        <v>0.727</v>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="F6">
         <v>138.13</v>
@@ -3373,8 +3373,8 @@
       <c r="D7">
         <v>131.27</v>
       </c>
-      <c r="E7">
-        <v>0.455</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
         <v>138.04</v>
@@ -3402,8 +3402,8 @@
       <c r="D8">
         <v>99</v>
       </c>
-      <c r="E8">
-        <v>0.273</v>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
       <c r="F8">
         <v>132.95</v>
@@ -3431,8 +3431,8 @@
       <c r="D9">
         <v>127.31</v>
       </c>
-      <c r="E9">
-        <v>0.455</v>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
       <c r="F9">
         <v>140.38</v>
@@ -3460,8 +3460,8 @@
       <c r="D10">
         <v>139.15</v>
       </c>
-      <c r="E10">
-        <v>0.545</v>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
       <c r="F10">
         <v>129.43</v>
@@ -3489,8 +3489,8 @@
       <c r="D11">
         <v>149.49</v>
       </c>
-      <c r="E11">
-        <v>0.636</v>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
       <c r="F11">
         <v>133.2</v>
@@ -3518,8 +3518,8 @@
       <c r="D12">
         <v>127.46</v>
       </c>
-      <c r="E12">
-        <v>0.182</v>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
       <c r="F12">
         <v>119.07</v>
@@ -3547,8 +3547,8 @@
       <c r="D13">
         <v>138.43</v>
       </c>
-      <c r="E13">
-        <v>0.545</v>
+      <c r="E13" t="s">
+        <v>13</v>
       </c>
       <c r="F13">
         <v>119.05</v>
@@ -3651,7 +3651,7 @@
         <v>1644.4</v>
       </c>
       <c r="F3">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3665,22 +3665,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>148.7672727272727</v>
+        <v>131.4090909090909</v>
       </c>
       <c r="E4">
-        <v>1636.44</v>
+        <v>1445.5</v>
       </c>
       <c r="F4">
-        <v>82.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3689,27 +3689,27 @@
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D5">
-        <v>131.4090909090909</v>
+        <v>148.7672727272727</v>
       </c>
       <c r="E5">
-        <v>1445.5</v>
+        <v>1636.44</v>
       </c>
       <c r="F5">
-        <v>78</v>
+        <v>79.3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3718,12 +3718,12 @@
         <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
@@ -3732,19 +3732,19 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="D6">
-        <v>139.1454545454546</v>
+        <v>138.4309090909091</v>
       </c>
       <c r="E6">
-        <v>1530.6</v>
+        <v>1522.74</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
         <v>96</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
@@ -3761,19 +3761,19 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="D7">
-        <v>138.4309090909091</v>
+        <v>139.1454545454546</v>
       </c>
       <c r="E7">
-        <v>1522.74</v>
+        <v>1530.6</v>
       </c>
       <c r="F7">
-        <v>69</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
         <v>96</v>
@@ -3796,13 +3796,13 @@
         <v>1530.1</v>
       </c>
       <c r="F8">
-        <v>59.4</v>
+        <v>60.3</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
         <v>96</v>
@@ -3825,13 +3825,13 @@
         <v>1593.44</v>
       </c>
       <c r="F9">
-        <v>25.9</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
         <v>97</v>
@@ -3854,7 +3854,7 @@
         <v>1443.96</v>
       </c>
       <c r="F10">
-        <v>7.399999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>1400.36</v>
       </c>
       <c r="F11">
-        <v>4.100000000000001</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.6</v>
+        <v>43.8</v>
       </c>
       <c r="H12" t="s">
         <v>92</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>53.40000000000001</v>
+        <v>56.2</v>
       </c>
       <c r="H13" t="s">
         <v>93</v>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="133">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -61,31 +61,34 @@
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>0-11-0</t>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>0-12-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -181,6 +184,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -202,30 +208,33 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Tyler Rahman</t>
+  </si>
+  <si>
+    <t>Michael Nader</t>
+  </si>
+  <si>
     <t>Ariq Rashid</t>
   </si>
   <si>
-    <t>Michael Nader</t>
-  </si>
-  <si>
     <t>Alan Devera</t>
   </si>
   <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
+    <t>Dean Schar</t>
+  </si>
+  <si>
+    <t>Caleb Owens</t>
+  </si>
+  <si>
     <t>Basak Gafoor</t>
   </si>
   <si>
-    <t>Tyler Rahman</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
-    <t>Caleb Owens</t>
-  </si>
-  <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
     <t>Joseph Westerlund</t>
   </si>
   <si>
@@ -235,9 +244,6 @@
     <t>Nach Konuganti</t>
   </si>
   <si>
-    <t>Dean Schar</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -262,63 +268,69 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>9.1-3.8</t>
-  </si>
-  <si>
-    <t>8.2-4.8</t>
-  </si>
-  <si>
-    <t>7.9-5.1</t>
-  </si>
-  <si>
-    <t>7.1-5.9</t>
-  </si>
-  <si>
-    <t>7.2-5.8</t>
-  </si>
-  <si>
-    <t>6.9-6.1</t>
-  </si>
-  <si>
-    <t>5.9-7.1</t>
-  </si>
-  <si>
-    <t>3.1-9.9</t>
-  </si>
-  <si>
-    <t>3.6-9.4</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>8.5-4.5</t>
+  </si>
+  <si>
+    <t>7.6-5.4</t>
+  </si>
+  <si>
+    <t>7.5-5.4</t>
+  </si>
+  <si>
+    <t>7.5-5.5</t>
+  </si>
+  <si>
+    <t>6.4-6.5</t>
+  </si>
+  <si>
+    <t>6.5-6.5</t>
+  </si>
+  <si>
+    <t>3.7-9.3</t>
+  </si>
+  <si>
+    <t>5.4-7.6</t>
+  </si>
+  <si>
+    <t>3.3-9.7</t>
+  </si>
+  <si>
+    <t>5.5-7.5</t>
+  </si>
+  <si>
+    <t>8-5</t>
   </si>
   <si>
     <t>9-4</t>
   </si>
   <si>
-    <t>8-5</t>
-  </si>
-  <si>
     <t>7-6</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
     <t>3-10</t>
   </si>
   <si>
@@ -331,31 +343,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -389,6 +398,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -819,37 +831,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -857,40 +869,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -898,40 +910,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -939,40 +951,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -983,37 +995,37 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1021,40 +1033,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1062,40 +1074,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1103,40 +1115,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1144,40 +1156,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1188,37 +1200,37 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
       <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
         <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1226,40 +1238,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
       <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
         <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1267,40 +1279,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
         <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1318,25 +1330,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1422,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -1434,10 +1446,10 @@
         <v>13</v>
       </c>
       <c r="F5">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
@@ -1451,22 +1463,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>-10</v>
       </c>
       <c r="G6">
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1474,25 +1486,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
       <c r="E7">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1500,25 +1512,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>-5</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1526,25 +1538,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
       <c r="F9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1552,25 +1564,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1578,25 +1590,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F11">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1604,22 +1616,22 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -1640,13 +1652,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1657,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.083333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1671,10 +1683,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>4.083333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1685,10 +1697,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.416666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1696,10 +1708,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.916666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1710,13 +1722,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.083333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1727,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5.666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1738,13 +1750,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6.166666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1752,10 +1764,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>6.166666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1769,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.25</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1783,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1794,10 +1806,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>6.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1811,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>6.5</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1832,16 +1844,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1852,13 +1864,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>7.083333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.916666666666667</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1869,13 +1881,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6.833333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D3">
-        <v>0.833333333333333</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1883,16 +1895,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6.75</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D4">
-        <v>1.75</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1903,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.333333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.666666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1917,16 +1929,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>6.166666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D6">
-        <v>0.166666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1934,16 +1946,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>5.833333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>-0.166666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1951,16 +1963,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.833333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D8">
-        <v>-0.166666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1971,13 +1983,13 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>4.916666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9">
-        <v>-2.083333333333333</v>
+        <v>-2.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1985,16 +1997,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.833333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.166666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2002,16 +2014,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>4.666666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.333333333333333</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2022,13 +2034,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>4.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>2.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2063,69 +2075,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>67.59999999999999</v>
+        <v>24.7</v>
       </c>
       <c r="C2">
-        <v>19.1</v>
+        <v>23.8</v>
       </c>
       <c r="D2">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>24.2</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>16.3</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2151,31 +2163,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>23.1</v>
+        <v>56.5</v>
       </c>
       <c r="C3">
-        <v>41.8</v>
+        <v>15.1</v>
       </c>
       <c r="D3">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="E3">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="F3">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="G3">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2190,39 +2202,39 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>5.6</v>
+        <v>10.4</v>
       </c>
       <c r="C4">
-        <v>10.7</v>
+        <v>27.8</v>
       </c>
       <c r="D4">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="E4">
-        <v>21.5</v>
+        <v>11.1</v>
       </c>
       <c r="F4">
-        <v>12.9</v>
+        <v>25.1</v>
       </c>
       <c r="G4">
-        <v>10.6</v>
+        <v>5.4</v>
       </c>
       <c r="H4">
-        <v>14.2</v>
+        <v>0.6</v>
       </c>
       <c r="I4">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2234,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>79.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2242,31 +2254,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.9</v>
+        <v>7.8</v>
       </c>
       <c r="C5">
-        <v>13.2</v>
+        <v>21.6</v>
       </c>
       <c r="D5">
-        <v>16.8</v>
+        <v>19.3</v>
       </c>
       <c r="E5">
-        <v>19.1</v>
+        <v>13.6</v>
       </c>
       <c r="F5">
-        <v>20.4</v>
+        <v>27.3</v>
       </c>
       <c r="G5">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="H5">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2278,42 +2290,42 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>79.3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="D6">
-        <v>15.7</v>
+        <v>17.6</v>
       </c>
       <c r="E6">
-        <v>16.2</v>
+        <v>18.1</v>
       </c>
       <c r="F6">
-        <v>15.3</v>
+        <v>7.5</v>
       </c>
       <c r="G6">
-        <v>20.1</v>
+        <v>16.5</v>
       </c>
       <c r="H6">
-        <v>15.5</v>
+        <v>25.1</v>
       </c>
       <c r="I6">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="J6">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2322,42 +2334,42 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>71.09999999999999</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="D7">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>14.2</v>
+        <v>20.8</v>
       </c>
       <c r="F7">
-        <v>14.4</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>20.8</v>
+        <v>16.8</v>
       </c>
       <c r="H7">
-        <v>13.8</v>
+        <v>23.3</v>
       </c>
       <c r="I7">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2366,42 +2378,42 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>70.59999999999999</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="F8">
-        <v>16.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G8">
-        <v>17.7</v>
+        <v>24.1</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="I8">
-        <v>14.4</v>
+        <v>30.5</v>
       </c>
       <c r="J8">
-        <v>8.9</v>
+        <v>19.4</v>
       </c>
       <c r="K8">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2410,12 +2422,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>60.3</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2424,28 +2436,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>7.5</v>
+        <v>0.1</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>3.5</v>
       </c>
       <c r="G9">
-        <v>6.7</v>
+        <v>27.8</v>
       </c>
       <c r="H9">
-        <v>18.3</v>
+        <v>23</v>
       </c>
       <c r="I9">
-        <v>20.8</v>
+        <v>27.9</v>
       </c>
       <c r="J9">
-        <v>23.8</v>
+        <v>17.5</v>
       </c>
       <c r="K9">
-        <v>13.1</v>
+        <v>0.2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2454,12 +2466,12 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2468,37 +2480,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N10">
-        <v>10.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2515,39 +2527,39 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13.5</v>
+        <v>0.6</v>
       </c>
       <c r="J11">
-        <v>25.3</v>
+        <v>20.5</v>
       </c>
       <c r="K11">
-        <v>47.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="L11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2580,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>56.2</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>43.8</v>
+        <v>70</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2591,7 +2603,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2612,22 +2624,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>42.6</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>20.6</v>
       </c>
       <c r="L13">
-        <v>43.7</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>56.2</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2640,490 +2652,523 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
         <v>48</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="D2">
+        <v>33.3</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+      <c r="F2">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="G2">
+        <v>63.6</v>
+      </c>
+      <c r="H2">
+        <v>77.7</v>
+      </c>
+      <c r="I2">
+        <v>87.3</v>
+      </c>
+      <c r="J2">
+        <v>77.60000000000001</v>
+      </c>
+      <c r="K2">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="L2">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="M2">
+        <v>93.5</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>33.8</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="D3">
         <v>91.7</v>
       </c>
-      <c r="D2">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E2">
+      <c r="E3">
         <v>98.2</v>
       </c>
-      <c r="F2">
-        <v>96.8</v>
-      </c>
-      <c r="G2">
+      <c r="F3">
+        <v>96</v>
+      </c>
+      <c r="G3">
         <v>92.7</v>
       </c>
-      <c r="H2">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="I2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="J2">
+      <c r="H3">
+        <v>97.7</v>
+      </c>
+      <c r="I3">
+        <v>99.8</v>
+      </c>
+      <c r="J3">
         <v>98.90000000000001</v>
       </c>
-      <c r="K2">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L2">
-        <v>99.8</v>
-      </c>
-      <c r="M2">
+      <c r="K3">
+        <v>97.2</v>
+      </c>
+      <c r="L3">
+        <v>99.7</v>
+      </c>
+      <c r="M3">
+        <v>99.5</v>
+      </c>
+      <c r="N3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>0.6</v>
-      </c>
-      <c r="D3">
-        <v>53.5</v>
-      </c>
-      <c r="E3">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F3">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="G3">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="H3">
-        <v>83.89999999999999</v>
-      </c>
-      <c r="I3">
-        <v>88.2</v>
-      </c>
-      <c r="J3">
-        <v>95</v>
-      </c>
-      <c r="K3">
-        <v>99</v>
-      </c>
-      <c r="L3">
-        <v>96.2</v>
-      </c>
-      <c r="M3">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>21.2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>52.6</v>
+      </c>
+      <c r="E4">
+        <v>77.3</v>
+      </c>
+      <c r="F4">
+        <v>78.7</v>
+      </c>
+      <c r="G4">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="H4">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="I4">
+        <v>88.5</v>
+      </c>
+      <c r="J4">
+        <v>97</v>
+      </c>
+      <c r="K4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L4">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="M4">
+        <v>90.2</v>
+      </c>
+      <c r="N4">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>72.3</v>
-      </c>
-      <c r="C4">
-        <v>25.7</v>
-      </c>
-      <c r="D4">
-        <v>9.4</v>
-      </c>
-      <c r="E4">
-        <v>4.5</v>
-      </c>
-      <c r="F4">
-        <v>22.7</v>
-      </c>
-      <c r="G4">
-        <v>13.2</v>
-      </c>
-      <c r="H4">
-        <v>10.9</v>
-      </c>
-      <c r="I4">
-        <v>33.4</v>
-      </c>
-      <c r="J4">
-        <v>50.7</v>
-      </c>
-      <c r="K4">
-        <v>70.19999999999999</v>
-      </c>
-      <c r="L4">
-        <v>79.80000000000001</v>
-      </c>
-      <c r="M4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B5">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="C5">
-        <v>50.9</v>
+        <v>25.8</v>
       </c>
       <c r="D5">
-        <v>32.5</v>
+        <v>7.9</v>
       </c>
       <c r="E5">
-        <v>31.5</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>51.5</v>
+        <v>23.1</v>
       </c>
       <c r="G5">
-        <v>63.4</v>
+        <v>15.1</v>
       </c>
       <c r="H5">
-        <v>76.3</v>
+        <v>11.5</v>
       </c>
       <c r="I5">
-        <v>87.8</v>
+        <v>34.2</v>
       </c>
       <c r="J5">
-        <v>78</v>
+        <v>53.2</v>
       </c>
       <c r="K5">
-        <v>91.10000000000001</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="L5">
-        <v>75.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="M5">
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>85.8</v>
+      </c>
+      <c r="N5">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D6">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="E6">
-        <v>58.5</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="F6">
-        <v>48.5</v>
+        <v>49.8</v>
       </c>
       <c r="G6">
-        <v>20.8</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>37.6</v>
+        <v>37.9</v>
       </c>
       <c r="I6">
-        <v>49.9</v>
+        <v>46.3</v>
       </c>
       <c r="J6">
-        <v>37.6</v>
+        <v>38.9</v>
       </c>
       <c r="K6">
-        <v>47.2</v>
+        <v>45.6</v>
       </c>
       <c r="L6">
-        <v>63.8</v>
+        <v>67.7</v>
       </c>
       <c r="M6">
-        <v>70.19999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="N6">
+        <v>67.90000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>83.7</v>
+      </c>
+      <c r="C7">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D7">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="E7">
+        <v>40.5</v>
+      </c>
+      <c r="F7">
+        <v>75.3</v>
+      </c>
+      <c r="G7">
+        <v>81.5</v>
+      </c>
+      <c r="H7">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="I7">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="J7">
+        <v>61.2</v>
+      </c>
+      <c r="K7">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="L7">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="M7">
+        <v>72.5</v>
+      </c>
+      <c r="N7">
+        <v>64.09999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>25.8</v>
+      </c>
+      <c r="C8">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="D8">
+        <v>48.1</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>31.1</v>
+      </c>
+      <c r="G8">
+        <v>8.4</v>
+      </c>
+      <c r="H8">
+        <v>4.7</v>
+      </c>
+      <c r="I8">
+        <v>1.9</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>6.2</v>
+      </c>
+      <c r="L8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="M8">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="N8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>85.7</v>
-      </c>
-      <c r="C7">
-        <v>42.5</v>
-      </c>
-      <c r="D7">
-        <v>36.7</v>
-      </c>
-      <c r="E7">
-        <v>68.60000000000001</v>
-      </c>
-      <c r="F7">
-        <v>63.5</v>
-      </c>
-      <c r="G7">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="H7">
-        <v>57.7</v>
-      </c>
-      <c r="I7">
-        <v>44.4</v>
-      </c>
-      <c r="J7">
-        <v>75.3</v>
-      </c>
-      <c r="K7">
-        <v>84.8</v>
-      </c>
-      <c r="L7">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="M7">
-        <v>69.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>85.5</v>
-      </c>
-      <c r="C8">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="D8">
-        <v>81.69999999999999</v>
-      </c>
-      <c r="E8">
-        <v>38.2</v>
-      </c>
-      <c r="F8">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="G8">
-        <v>80.5</v>
-      </c>
-      <c r="H8">
-        <v>91.5</v>
-      </c>
-      <c r="I8">
-        <v>85.2</v>
-      </c>
-      <c r="J8">
-        <v>60.6</v>
-      </c>
-      <c r="K8">
-        <v>55.8</v>
-      </c>
-      <c r="L8">
-        <v>65.2</v>
-      </c>
-      <c r="M8">
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B9">
-        <v>98.5</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="C9">
-        <v>79.10000000000001</v>
+        <v>41.8</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>41.2</v>
       </c>
       <c r="E9">
-        <v>72.3</v>
+        <v>66.2</v>
       </c>
       <c r="F9">
-        <v>45.3</v>
+        <v>63</v>
       </c>
       <c r="G9">
-        <v>74.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="H9">
-        <v>91.5</v>
+        <v>58.4</v>
       </c>
       <c r="I9">
-        <v>72.39999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="J9">
-        <v>43.9</v>
+        <v>70.7</v>
       </c>
       <c r="K9">
-        <v>30.9</v>
+        <v>83.2</v>
       </c>
       <c r="L9">
-        <v>34.9</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="M9">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>32.6</v>
+      </c>
+      <c r="N9">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1.2</v>
+      </c>
+      <c r="C10">
+        <v>15.1</v>
+      </c>
+      <c r="D10">
+        <v>4.5</v>
+      </c>
+      <c r="E10">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>27.4</v>
-      </c>
-      <c r="C10">
-        <v>76.3</v>
-      </c>
-      <c r="D10">
-        <v>48.5</v>
-      </c>
-      <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>31.6</v>
-      </c>
-      <c r="G10">
-        <v>8.6</v>
-      </c>
       <c r="H10">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="I10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="J10">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>82.89999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="C11">
-        <v>43.1</v>
+        <v>45.3</v>
       </c>
       <c r="D11">
-        <v>70.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E11">
-        <v>73.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F11">
-        <v>55.90000000000001</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="G11">
-        <v>69.09999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H11">
-        <v>44.2</v>
+        <v>45.9</v>
       </c>
       <c r="I11">
-        <v>34.9</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>56.2</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="K11">
-        <v>18.9</v>
+        <v>19.9</v>
       </c>
       <c r="L11">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="M11">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>62.3</v>
       </c>
       <c r="C12">
-        <v>17.3</v>
+        <v>14.1</v>
       </c>
       <c r="D12">
-        <v>3.6</v>
+        <v>42.4</v>
       </c>
       <c r="E12">
-        <v>7.9</v>
+        <v>46.1</v>
       </c>
       <c r="F12">
-        <v>4.399999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="G12">
-        <v>1.2</v>
+        <v>9.9</v>
       </c>
       <c r="H12">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="I12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3134,45 +3179,51 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C13">
-        <v>13.7</v>
+        <v>81.2</v>
       </c>
       <c r="D13">
-        <v>43.3</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="E13">
-        <v>45.6</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="F13">
-        <v>23.8</v>
+        <v>49.2</v>
       </c>
       <c r="G13">
-        <v>11.1</v>
+        <v>74.3</v>
       </c>
       <c r="H13">
-        <v>3.9</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="I13">
-        <v>0.8999999999999999</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="J13">
-        <v>0.8999999999999999</v>
+        <v>45.7</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>29.4</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M13">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
     </row>
@@ -3191,28 +3242,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3220,28 +3271,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>144.86</v>
+        <v>138.79</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>148.59</v>
+        <v>146.04</v>
       </c>
       <c r="G2">
-        <v>0.636</v>
+        <v>0.583</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3249,28 +3300,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>139.1</v>
+        <v>146.16</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>143.96</v>
+        <v>141.28</v>
       </c>
       <c r="G3">
-        <v>0.591</v>
+        <v>0.417</v>
       </c>
       <c r="H3">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3278,28 +3329,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>131.41</v>
+        <v>138.06</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>143.78</v>
+        <v>137.53</v>
       </c>
       <c r="G4">
-        <v>0.636</v>
+        <v>0.583</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3307,28 +3358,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>148.77</v>
+        <v>141.28</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>146.16</v>
+      </c>
+      <c r="G5">
+        <v>0.667</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="F5">
-        <v>138.06</v>
-      </c>
-      <c r="G5">
-        <v>0.455</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3336,28 +3387,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>148.41</v>
+        <v>135.04</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>138.13</v>
+        <v>137.72</v>
       </c>
       <c r="G6">
-        <v>0.545</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3365,28 +3416,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>126.73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>147.26</v>
+      </c>
+      <c r="G7">
+        <v>0.583</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
-        <v>131.27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>138.04</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7">
-        <v>7.5</v>
-      </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3394,28 +3445,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>137.53</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>132.95</v>
+        <v>138.06</v>
       </c>
       <c r="G8">
-        <v>0.364</v>
+        <v>0.583</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3423,28 +3474,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>127.31</v>
+        <v>95.67</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>140.38</v>
+        <v>131.13</v>
       </c>
       <c r="G9">
-        <v>0.545</v>
+        <v>0.25</v>
       </c>
       <c r="H9">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3452,28 +3503,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>139.15</v>
+        <v>146.04</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>129.43</v>
+        <v>138.79</v>
       </c>
       <c r="G10">
-        <v>0.409</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3481,28 +3532,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>149.49</v>
+        <v>137.72</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>133.2</v>
+        <v>135.04</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H11">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3510,28 +3561,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>127.46</v>
+        <v>147.26</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>119.07</v>
+        <v>126.73</v>
       </c>
       <c r="G12">
-        <v>0.409</v>
+        <v>0.417</v>
       </c>
       <c r="H12">
-        <v>-17.5</v>
+        <v>-16</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3539,28 +3590,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>138.43</v>
+        <v>131.13</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>119.05</v>
+        <v>95.67</v>
       </c>
       <c r="G13">
-        <v>0.409</v>
+        <v>0.25</v>
       </c>
       <c r="H13">
-        <v>-26</v>
+        <v>-48</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3578,48 +3629,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>148.4127272727273</v>
+        <v>135.04</v>
       </c>
       <c r="E2">
-        <v>1632.54</v>
+        <v>1620.48</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3628,30 +3679,30 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>149.4909090909091</v>
+        <v>146.1566666666667</v>
       </c>
       <c r="E3">
-        <v>1644.4</v>
+        <v>1753.88</v>
       </c>
       <c r="F3">
-        <v>98.7</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3660,27 +3711,27 @@
         <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4">
-        <v>131.4090909090909</v>
+        <v>147.2566666666667</v>
       </c>
       <c r="E4">
-        <v>1445.5</v>
+        <v>1767.08</v>
       </c>
       <c r="F4">
-        <v>79.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3689,7 +3740,7 @@
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3697,19 +3748,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>148.7672727272727</v>
+        <v>146.0433333333333</v>
       </c>
       <c r="E5">
-        <v>1636.44</v>
+        <v>1752.52</v>
       </c>
       <c r="F5">
-        <v>79.3</v>
+        <v>99</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3723,22 +3774,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6">
-        <v>138.4309090909091</v>
+        <v>138.0566666666667</v>
       </c>
       <c r="E6">
-        <v>1522.74</v>
+        <v>1656.68</v>
       </c>
       <c r="F6">
-        <v>71.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3752,51 +3803,51 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7">
-        <v>139.1454545454546</v>
+        <v>137.5333333333334</v>
       </c>
       <c r="E7">
-        <v>1530.6</v>
+        <v>1650.4</v>
       </c>
       <c r="F7">
-        <v>70.59999999999999</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>139.1</v>
+        <v>138.79</v>
       </c>
       <c r="E8">
-        <v>1530.1</v>
+        <v>1665.48</v>
       </c>
       <c r="F8">
-        <v>60.3</v>
+        <v>35.6</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3805,27 +3856,27 @@
         <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>144.8581818181818</v>
+        <v>137.7183333333333</v>
       </c>
       <c r="E9">
-        <v>1593.44</v>
+        <v>1652.62</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>31.4</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3834,36 +3885,36 @@
         <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10">
-        <v>0.4545454545454545</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>131.2690909090909</v>
+        <v>131.1283333333333</v>
       </c>
       <c r="E10">
-        <v>1443.96</v>
+        <v>1573.54</v>
       </c>
       <c r="F10">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3871,86 +3922,86 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D11">
-        <v>127.3054545454545</v>
+        <v>126.7266666666666</v>
       </c>
       <c r="E11">
-        <v>1400.36</v>
+        <v>1520.72</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>0.1818181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>127.46</v>
+        <v>95.67333333333333</v>
       </c>
       <c r="E12">
-        <v>1402.06</v>
+        <v>1148.08</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>43.8</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13">
-        <v>0.2727272727272727</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D13">
-        <v>98.99636363636364</v>
+        <v>141.2833333333334</v>
       </c>
       <c r="E13">
-        <v>1088.96</v>
+        <v>1695.4</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3968,19 +4019,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3991,16 +4042,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4011,16 +4062,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4031,16 +4082,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4051,16 +4102,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4071,16 +4122,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4091,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4111,16 +4162,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4131,16 +4182,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4151,16 +4202,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4171,16 +4222,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4194,13 +4245,13 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4211,16 +4262,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>-44</v>
+        <v>-48</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4230,51 +4281,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>125</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4311,11 +4365,14 @@
       <c r="L2">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4352,11 +4409,14 @@
       <c r="L3">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4393,11 +4453,14 @@
       <c r="L4">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4434,11 +4497,14 @@
       <c r="L5">
         <v>11</v>
       </c>
-      <c r="M5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4475,11 +4541,14 @@
       <c r="L6">
         <v>9</v>
       </c>
-      <c r="M6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4516,11 +4585,14 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4557,11 +4629,14 @@
       <c r="L8">
         <v>-8</v>
       </c>
-      <c r="M8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4598,11 +4673,14 @@
       <c r="L9">
         <v>-9</v>
       </c>
-      <c r="M9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4639,11 +4717,14 @@
       <c r="L10">
         <v>-12</v>
       </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4680,11 +4761,14 @@
       <c r="L11">
         <v>-15</v>
       </c>
-      <c r="M11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>-11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4721,11 +4805,14 @@
       <c r="L12">
         <v>-18</v>
       </c>
-      <c r="M12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4762,8 +4849,11 @@
       <c r="L13">
         <v>-44</v>
       </c>
-      <c r="M13" t="s">
-        <v>110</v>
+      <c r="M13">
+        <v>-48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="138">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -61,34 +61,37 @@
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>0-12-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
+    <t>8-5-1</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>9-4-1</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -187,6 +190,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -208,40 +214,61 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Andrew Ross</t>
+  </si>
+  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
+    <t>Alan Devera</t>
+  </si>
+  <si>
+    <t>Dean Schar</t>
+  </si>
+  <si>
     <t>Tyler Rahman</t>
   </si>
   <si>
+    <t>Joseph Westerlund</t>
+  </si>
+  <si>
+    <t>Basak Gafoor</t>
+  </si>
+  <si>
+    <t>Nach Konuganti</t>
+  </si>
+  <si>
+    <t>Ayush Chivate</t>
+  </si>
+  <si>
+    <t>Caleb Owens</t>
+  </si>
+  <si>
     <t>Michael Nader</t>
   </si>
   <si>
     <t>Ariq Rashid</t>
   </si>
   <si>
-    <t>Alan Devera</t>
-  </si>
-  <si>
-    <t>Ayush Chivate</t>
-  </si>
-  <si>
-    <t>Dean Schar</t>
-  </si>
-  <si>
-    <t>Caleb Owens</t>
-  </si>
-  <si>
-    <t>Basak Gafoor</t>
-  </si>
-  <si>
-    <t>Joseph Westerlund</t>
-  </si>
-  <si>
-    <t>Andrew Ross</t>
-  </si>
-  <si>
-    <t>Nach Konuganti</t>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
   </si>
   <si>
     <t>Current_Record</t>
@@ -268,51 +295,6 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>8.5-4.5</t>
-  </si>
-  <si>
-    <t>7.6-5.4</t>
-  </si>
-  <si>
-    <t>7.5-5.4</t>
-  </si>
-  <si>
-    <t>7.5-5.5</t>
-  </si>
-  <si>
-    <t>6.4-6.5</t>
-  </si>
-  <si>
-    <t>6.5-6.5</t>
-  </si>
-  <si>
-    <t>3.7-9.3</t>
-  </si>
-  <si>
-    <t>5.4-7.6</t>
-  </si>
-  <si>
-    <t>3.3-9.7</t>
-  </si>
-  <si>
-    <t>5.5-7.5</t>
-  </si>
-  <si>
     <t>8-5</t>
   </si>
   <si>
@@ -325,13 +307,34 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
     <t>4-9</t>
   </si>
   <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>3-10</t>
+    <t>8.0-5.0</t>
+  </si>
+  <si>
+    <t>9.0-4.0</t>
+  </si>
+  <si>
+    <t>7.0-6.0</t>
+  </si>
+  <si>
+    <t>6.0-7.0</t>
+  </si>
+  <si>
+    <t>3.0-10.0</t>
+  </si>
+  <si>
+    <t>5.0-8.0</t>
+  </si>
+  <si>
+    <t>4.0-9.0</t>
   </si>
   <si>
     <t>Owners</t>
@@ -343,28 +346,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↓9</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -401,6 +410,12 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -834,28 +849,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -869,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -878,31 +893,31 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -910,40 +925,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -951,40 +966,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -992,40 +1007,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1033,16 +1048,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1051,22 +1066,22 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1074,40 +1089,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1115,40 +1130,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1156,34 +1171,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1197,40 +1212,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1238,40 +1253,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1279,40 +1294,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1330,25 +1345,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1382,25 +1397,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>-44</v>
       </c>
       <c r="F3">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1408,25 +1423,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1434,25 +1449,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1460,25 +1475,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1486,25 +1501,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1512,25 +1527,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1538,25 +1553,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>-10</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>2</v>
-      </c>
-      <c r="F9">
-        <v>22</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1564,10 +1579,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1576,13 +1591,13 @@
         <v>-2</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1590,25 +1605,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1619,22 +1634,48 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>-5</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1652,13 +1693,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1666,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4.916666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1683,10 +1724,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>4.916666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1694,13 +1735,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5.333333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1711,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5.333333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1722,13 +1763,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5.416666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1739,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6.333333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1750,13 +1791,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6.333333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1767,10 +1808,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.416666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1778,13 +1819,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>6.583333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1792,13 +1833,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1806,13 +1847,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>6.75</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1820,13 +1861,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>6.916666666666667</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1844,16 +1885,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1861,16 +1902,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>7.416666666666667</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D2">
-        <v>-0.583333333333333</v>
+        <v>-0.1666666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1878,16 +1919,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>7.083333333333333</v>
+        <v>8.25</v>
       </c>
       <c r="D3">
-        <v>0.08333333333333304</v>
+        <v>-0.75</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1895,13 +1936,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.916666666666667</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D4">
-        <v>-0.08333333333333304</v>
+        <v>0.1666666666666661</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1912,16 +1953,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>6.833333333333333</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>-0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1929,16 +1970,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.833333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D6">
-        <v>1.833333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1946,16 +1987,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1963,16 +2004,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>-2.166666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1980,16 +2021,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D9">
-        <v>-2.166666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2000,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5.666666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D10">
         <v>-0.333333333333333</v>
@@ -2017,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>5.083333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D11">
-        <v>0.08333333333333304</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2034,13 +2075,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2051,13 +2092,13 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>2.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.4166666666666665</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2075,66 +2116,66 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>23.8</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2163,22 +2204,22 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.6</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2207,28 +2248,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>10.4</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>25.1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2246,36 +2287,36 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>27.3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.4</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2290,36 +2331,36 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>17.6</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>25.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2334,36 +2375,36 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>67.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>20.8</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2378,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>67.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2395,25 +2436,25 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>30.5</v>
+        <v>100</v>
       </c>
       <c r="J8">
-        <v>19.4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2422,12 +2463,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>35.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2439,25 +2480,25 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>27.9</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2466,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>31.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2504,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2539,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>78.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2592,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2624,16 +2665,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>42.6</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2652,435 +2693,462 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>1.3</v>
       </c>
       <c r="D2">
-        <v>33.3</v>
+        <v>51.7</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G2">
-        <v>63.6</v>
+        <v>88.3</v>
       </c>
       <c r="H2">
-        <v>77.7</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="I2">
-        <v>87.3</v>
+        <v>88.3</v>
       </c>
       <c r="J2">
-        <v>77.60000000000001</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="K2">
-        <v>92.10000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="L2">
-        <v>76.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="M2">
-        <v>93.5</v>
+        <v>90.7</v>
       </c>
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>52.3</v>
+      </c>
+      <c r="D3">
+        <v>34.8</v>
+      </c>
+      <c r="E3">
+        <v>33.6</v>
+      </c>
+      <c r="F3">
+        <v>53.6</v>
+      </c>
+      <c r="G3">
+        <v>61.4</v>
+      </c>
+      <c r="H3">
+        <v>77.8</v>
+      </c>
+      <c r="I3">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="J3">
+        <v>77.5</v>
+      </c>
+      <c r="K3">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="L3">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="M3">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="N3">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>92.10000000000001</v>
-      </c>
-      <c r="D3">
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
         <v>91.7</v>
       </c>
-      <c r="E3">
-        <v>98.2</v>
-      </c>
-      <c r="F3">
-        <v>96</v>
-      </c>
-      <c r="G3">
-        <v>92.7</v>
-      </c>
-      <c r="H3">
-        <v>97.7</v>
-      </c>
-      <c r="I3">
-        <v>99.8</v>
-      </c>
-      <c r="J3">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="K3">
-        <v>97.2</v>
-      </c>
-      <c r="L3">
+      <c r="D4">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E4">
+        <v>98.3</v>
+      </c>
+      <c r="F4">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="G4">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>97.5</v>
+      </c>
+      <c r="I4">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="J4">
+        <v>99.2</v>
+      </c>
+      <c r="K4">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="L4">
         <v>99.7</v>
       </c>
-      <c r="M3">
-        <v>99.5</v>
-      </c>
-      <c r="N3">
+      <c r="M4">
+        <v>99.3</v>
+      </c>
+      <c r="N4">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>21.2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>52.6</v>
-      </c>
-      <c r="E4">
-        <v>77.3</v>
-      </c>
-      <c r="F4">
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="C5">
+        <v>41.4</v>
+      </c>
+      <c r="D5">
+        <v>36.4</v>
+      </c>
+      <c r="E5">
+        <v>68.10000000000001</v>
+      </c>
+      <c r="F5">
+        <v>60.5</v>
+      </c>
+      <c r="G5">
         <v>78.7</v>
       </c>
-      <c r="G4">
-        <v>89.60000000000001</v>
-      </c>
-      <c r="H4">
-        <v>81.69999999999999</v>
-      </c>
-      <c r="I4">
-        <v>88.5</v>
-      </c>
-      <c r="J4">
-        <v>97</v>
-      </c>
-      <c r="K4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="L4">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="M4">
-        <v>90.2</v>
-      </c>
-      <c r="N4">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+      <c r="H5">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="I5">
+        <v>45.1</v>
+      </c>
+      <c r="J5">
+        <v>73.5</v>
+      </c>
+      <c r="K5">
+        <v>86.2</v>
+      </c>
+      <c r="L5">
+        <v>66</v>
+      </c>
+      <c r="M5">
+        <v>34.4</v>
+      </c>
+      <c r="N5">
+        <v>62.1</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>71.2</v>
-      </c>
-      <c r="C5">
-        <v>25.8</v>
-      </c>
-      <c r="D5">
-        <v>7.9</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>23.1</v>
-      </c>
-      <c r="G5">
-        <v>15.1</v>
-      </c>
-      <c r="H5">
-        <v>11.5</v>
-      </c>
-      <c r="I5">
-        <v>34.2</v>
-      </c>
-      <c r="J5">
-        <v>53.2</v>
-      </c>
-      <c r="K5">
-        <v>69.39999999999999</v>
-      </c>
-      <c r="L5">
-        <v>81.5</v>
-      </c>
-      <c r="M5">
-        <v>85.8</v>
-      </c>
-      <c r="N5">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B6">
-        <v>31.5</v>
+        <v>73.5</v>
       </c>
       <c r="C6">
-        <v>76.59999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="D6">
-        <v>35.5</v>
+        <v>9.9</v>
       </c>
       <c r="E6">
-        <v>58.59999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="F6">
-        <v>49.8</v>
+        <v>24.2</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="H6">
-        <v>37.9</v>
+        <v>12.4</v>
       </c>
       <c r="I6">
-        <v>46.3</v>
+        <v>32.1</v>
       </c>
       <c r="J6">
-        <v>38.9</v>
+        <v>50.4</v>
       </c>
       <c r="K6">
-        <v>45.6</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="L6">
-        <v>67.7</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="M6">
-        <v>82.89999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="N6">
-        <v>67.90000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>83.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C7">
-        <v>82.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>80.10000000000001</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="E7">
-        <v>40.5</v>
+        <v>36.8</v>
       </c>
       <c r="F7">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G7">
-        <v>81.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="H7">
-        <v>91.10000000000001</v>
+        <v>93</v>
       </c>
       <c r="I7">
-        <v>85.59999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="J7">
-        <v>61.2</v>
+        <v>64.3</v>
       </c>
       <c r="K7">
-        <v>58.09999999999999</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="L7">
-        <v>64.09999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="M7">
-        <v>72.5</v>
+        <v>72</v>
       </c>
       <c r="N7">
-        <v>64.09999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>25.8</v>
+        <v>28.5</v>
       </c>
       <c r="C8">
-        <v>76.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D8">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="F8">
-        <v>31.1</v>
+        <v>32.1</v>
       </c>
       <c r="G8">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H8">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I8">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J8">
+        <v>2.5</v>
+      </c>
+      <c r="K8">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="L8">
+        <v>8.1</v>
+      </c>
+      <c r="M8">
+        <v>34.8</v>
+      </c>
+      <c r="N8">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K8">
-        <v>6.2</v>
-      </c>
-      <c r="L8">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="M8">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="N8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B9">
-        <v>84.89999999999999</v>
+        <v>31.3</v>
       </c>
       <c r="C9">
-        <v>41.8</v>
+        <v>76.7</v>
       </c>
       <c r="D9">
-        <v>41.2</v>
+        <v>35.8</v>
       </c>
       <c r="E9">
-        <v>66.2</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="F9">
-        <v>63</v>
+        <v>50.8</v>
       </c>
       <c r="G9">
-        <v>77.5</v>
+        <v>18.4</v>
       </c>
       <c r="H9">
-        <v>58.4</v>
+        <v>36.2</v>
       </c>
       <c r="I9">
-        <v>43.3</v>
+        <v>53.1</v>
       </c>
       <c r="J9">
-        <v>70.7</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>83.2</v>
+        <v>45.2</v>
       </c>
       <c r="L9">
-        <v>66.60000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="M9">
-        <v>32.6</v>
+        <v>82.3</v>
       </c>
       <c r="N9">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>54.7</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="C10">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="D10">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="E10">
-        <v>7.399999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H10">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3094,43 +3162,46 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>82.5</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="C11">
-        <v>45.3</v>
+        <v>42.8</v>
       </c>
       <c r="D11">
-        <v>70.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="E11">
-        <v>73.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F11">
-        <v>56.59999999999999</v>
+        <v>54.3</v>
       </c>
       <c r="G11">
-        <v>68.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="H11">
-        <v>45.9</v>
+        <v>47.7</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>36.1</v>
       </c>
       <c r="J11">
-        <v>52.90000000000001</v>
+        <v>58.4</v>
       </c>
       <c r="K11">
-        <v>19.9</v>
+        <v>21.8</v>
       </c>
       <c r="L11">
-        <v>6.2</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="M11">
         <v>0.2</v>
@@ -3138,40 +3209,43 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>62.3</v>
+        <v>66.7</v>
       </c>
       <c r="C12">
-        <v>14.1</v>
+        <v>12.3</v>
       </c>
       <c r="D12">
-        <v>42.4</v>
+        <v>43.3</v>
       </c>
       <c r="E12">
-        <v>46.1</v>
+        <v>44.8</v>
       </c>
       <c r="F12">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="G12">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="H12">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I12">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J12">
-        <v>0.7000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3182,48 +3256,54 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C13">
-        <v>81.2</v>
+        <v>81.8</v>
       </c>
       <c r="D13">
-        <v>92.60000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="E13">
-        <v>68.30000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="F13">
-        <v>49.2</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="G13">
-        <v>74.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="H13">
-        <v>89.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="I13">
-        <v>70.39999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="J13">
-        <v>45.7</v>
+        <v>44.6</v>
       </c>
       <c r="K13">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>35.3</v>
       </c>
       <c r="M13">
-        <v>8.200000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
@@ -3242,28 +3322,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3271,28 +3351,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>138.79</v>
+        <v>146.42</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>146.04</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3300,28 +3380,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>146.16</v>
+        <v>136.04</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>141.28</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3329,28 +3409,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>138.06</v>
+        <v>133.27</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>137.53</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3358,28 +3438,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>141.28</v>
+        <v>136.62</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>146.16</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3387,28 +3467,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>135.04</v>
+        <v>145.22</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F6">
-        <v>137.72</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3416,28 +3496,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>126.73</v>
+        <v>137.33</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>147.26</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3445,28 +3525,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>137.53</v>
+        <v>146.28</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F8">
-        <v>138.06</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3474,28 +3554,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>95.67</v>
+        <v>130.75</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="F9">
-        <v>131.13</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3503,28 +3583,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>146.04</v>
+        <v>127.24</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>138.79</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3532,28 +3612,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>137.72</v>
+        <v>100.04</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F11">
-        <v>135.04</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3561,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>147.26</v>
+        <v>139.42</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F12">
-        <v>126.73</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3590,28 +3670,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>131.13</v>
+        <v>138.54</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>95.67</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3629,48 +3709,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D2">
-        <v>135.04</v>
+        <v>146.4169230769231</v>
       </c>
       <c r="E2">
-        <v>1620.48</v>
+        <v>1903.42</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3679,27 +3759,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>146.1566666666667</v>
+        <v>133.2676923076923</v>
       </c>
       <c r="E3">
-        <v>1753.88</v>
+        <v>1732.48</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3708,126 +3788,126 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>0.5833333333333334</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D4">
-        <v>147.2566666666667</v>
+        <v>145.2215384615384</v>
       </c>
       <c r="E4">
-        <v>1767.08</v>
+        <v>1887.88</v>
       </c>
       <c r="F4">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D5">
-        <v>146.0433333333333</v>
+        <v>137.3261538461539</v>
       </c>
       <c r="E5">
-        <v>1752.52</v>
+        <v>1785.24</v>
       </c>
       <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>99</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>88</v>
-      </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C6">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D6">
-        <v>138.0566666666667</v>
+        <v>146.2753846153846</v>
       </c>
       <c r="E6">
-        <v>1656.68</v>
+        <v>1901.58</v>
       </c>
       <c r="F6">
-        <v>67.5</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D7">
-        <v>137.5333333333334</v>
+        <v>139.4184615384615</v>
       </c>
       <c r="E7">
-        <v>1650.4</v>
+        <v>1812.44</v>
       </c>
       <c r="F7">
-        <v>67.10000000000001</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3835,57 +3915,57 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>138.79</v>
+        <v>136.0430769230769</v>
       </c>
       <c r="E8">
-        <v>1665.48</v>
+        <v>1768.56</v>
       </c>
       <c r="F8">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
-        <v>137.7183333333333</v>
+        <v>136.6215384615385</v>
       </c>
       <c r="E9">
-        <v>1652.62</v>
+        <v>1776.08</v>
       </c>
       <c r="F9">
-        <v>31.4</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3893,28 +3973,28 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D10">
-        <v>131.1283333333333</v>
+        <v>130.7507692307692</v>
       </c>
       <c r="E10">
-        <v>1573.54</v>
+        <v>1699.76</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3922,16 +4002,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C11">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D11">
-        <v>126.7266666666666</v>
+        <v>127.2353846153846</v>
       </c>
       <c r="E11">
-        <v>1520.72</v>
+        <v>1654.06</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3940,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3951,28 +4031,28 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D12">
-        <v>95.67333333333333</v>
+        <v>100.04</v>
       </c>
       <c r="E12">
-        <v>1148.08</v>
+        <v>1300.52</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3980,16 +4060,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C13">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D13">
-        <v>141.2833333333334</v>
+        <v>138.5384615384615</v>
       </c>
       <c r="E13">
-        <v>1695.4</v>
+        <v>1801</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3998,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="s">
         <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4019,19 +4099,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4048,10 +4128,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4059,19 +4139,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4079,19 +4159,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4099,19 +4179,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4122,16 +4202,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4139,19 +4219,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4162,16 +4242,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4182,16 +4262,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4202,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4228,10 +4308,10 @@
         <v>-11</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4242,16 +4322,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>-16</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4262,16 +4342,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4281,54 +4361,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>129</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4368,143 +4454,167 @@
       <c r="M2">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>25</v>
+      </c>
+      <c r="O2">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>19</v>
+      </c>
+      <c r="N3">
+        <v>21</v>
+      </c>
+      <c r="O3">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>21</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>28</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>26</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>28</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>31</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="N4">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-11</v>
+      </c>
+      <c r="D5">
+        <v>-9</v>
+      </c>
+      <c r="E5">
+        <v>-3</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>-1</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>22</v>
-      </c>
-      <c r="J4">
-        <v>27</v>
-      </c>
-      <c r="K4">
-        <v>21</v>
-      </c>
-      <c r="L4">
-        <v>21</v>
-      </c>
-      <c r="M4">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-8</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>-3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>18</v>
-      </c>
       <c r="J5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4544,55 +4654,67 @@
       <c r="M6">
         <v>11</v>
       </c>
-      <c r="N6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C7">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="D7">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4632,11 +4754,17 @@
       <c r="M8">
         <v>-5</v>
       </c>
-      <c r="N8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4676,11 +4804,17 @@
       <c r="M9">
         <v>-5</v>
       </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>-3</v>
+      </c>
+      <c r="O9">
+        <v>-4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4720,11 +4854,17 @@
       <c r="M10">
         <v>-8</v>
       </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-11</v>
+      </c>
+      <c r="O10">
+        <v>-7</v>
+      </c>
+      <c r="P10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4764,11 +4904,17 @@
       <c r="M11">
         <v>-11</v>
       </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>-16</v>
+      </c>
+      <c r="O11">
+        <v>-11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4808,11 +4954,17 @@
       <c r="M12">
         <v>-16</v>
       </c>
-      <c r="N12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-14</v>
+      </c>
+      <c r="O12">
+        <v>-16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4852,8 +5004,14 @@
       <c r="M13">
         <v>-48</v>
       </c>
-      <c r="N13" t="s">
-        <v>113</v>
+      <c r="N13">
+        <v>-44</v>
+      </c>
+      <c r="O13">
+        <v>-47</v>
+      </c>
+      <c r="P13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="138">
   <si>
     <t>Ross' Sauces</t>
   </si>
@@ -61,37 +61,37 @@
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>8-5-1</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>9-4-1</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
+    <t>9-5-1</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -346,13 +346,16 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>↑3</t>
@@ -361,21 +364,15 @@
     <t>↓1</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -416,6 +413,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -846,37 +846,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -887,34 +887,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
@@ -925,25 +925,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -952,10 +952,10 @@
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -969,28 +969,28 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -1016,10 +1016,10 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1028,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1051,37 +1051,37 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1092,37 +1092,37 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1130,16 +1130,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1148,10 +1148,10 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -1160,7 +1160,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -1171,40 +1171,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
         <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1212,40 +1212,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1256,31 +1256,31 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -1300,34 +1300,34 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1371,25 +1371,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>-54</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1397,25 +1397,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>-44</v>
+        <v>-13</v>
       </c>
       <c r="F3">
-        <v>-3</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1423,25 +1423,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>-44</v>
       </c>
       <c r="F4">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1449,25 +1449,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1478,22 +1478,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>-16</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1501,25 +1501,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1527,25 +1527,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1553,25 +1553,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1579,25 +1579,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>-11</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1605,25 +1605,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
       <c r="F11">
-        <v>21</v>
+        <v>-10</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1631,25 +1631,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
       <c r="E12">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="F12">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1657,24 +1657,76 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>-5</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>22</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1710,10 +1762,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1724,10 +1776,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>5.666666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1735,13 +1787,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6.166666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1749,13 +1801,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6.25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1766,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6.666666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1777,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.25</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1791,13 +1843,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1805,13 +1857,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>7.666666666666667</v>
-      </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1819,13 +1871,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>7.75</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1833,13 +1885,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>7.75</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1847,13 +1899,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>7.833333333333333</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1861,13 +1913,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7.916666666666667</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1905,10 +1957,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>8.833333333333334</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D2">
-        <v>-0.1666666666666661</v>
+        <v>0.4166666666666661</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1919,16 +1971,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.25</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D3">
-        <v>-0.75</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1936,16 +1988,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>8.166666666666666</v>
+        <v>8.5</v>
       </c>
       <c r="D4">
-        <v>0.1666666666666661</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1953,16 +2005,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1970,16 +2022,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7.416666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D6">
-        <v>0.416666666666667</v>
+        <v>-2.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1987,16 +2039,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>6.916666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D7">
-        <v>1.916666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2004,16 +2056,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6.833333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D8">
-        <v>-2.166666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2021,16 +2073,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>6.833333333333333</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>-0.166666666666667</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2041,13 +2093,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>6.666666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.333333333333333</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2058,10 +2110,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>6.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D11">
-        <v>0.333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -2075,13 +2127,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>5.833333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D12">
-        <v>1.833333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2092,13 +2144,13 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>3.833333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666665</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2748,40 +2800,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>18.1</v>
       </c>
       <c r="C2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D2">
-        <v>51.7</v>
+        <v>50.8</v>
       </c>
       <c r="E2">
-        <v>77</v>
+        <v>75.8</v>
       </c>
       <c r="F2">
-        <v>80.90000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G2">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H2">
-        <v>82.19999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="I2">
-        <v>88.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="J2">
-        <v>94.19999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="K2">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L2">
-        <v>96.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="M2">
-        <v>90.7</v>
+        <v>87.8</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2795,43 +2847,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>52.3</v>
+        <v>46.7</v>
       </c>
       <c r="D3">
-        <v>34.8</v>
+        <v>31.4</v>
       </c>
       <c r="E3">
-        <v>33.6</v>
+        <v>32.7</v>
       </c>
       <c r="F3">
-        <v>53.6</v>
+        <v>51.3</v>
       </c>
       <c r="G3">
-        <v>61.4</v>
+        <v>62.7</v>
       </c>
       <c r="H3">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="I3">
-        <v>88.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="J3">
         <v>77.5</v>
       </c>
       <c r="K3">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="L3">
-        <v>76.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="M3">
-        <v>92.30000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="N3">
-        <v>76.90000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2842,40 +2894,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>35.5</v>
       </c>
       <c r="C4">
-        <v>91.7</v>
+        <v>93.5</v>
       </c>
       <c r="D4">
-        <v>92.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="E4">
-        <v>98.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F4">
-        <v>95.89999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="G4">
-        <v>93.89999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="H4">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="I4">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="J4">
         <v>99.2</v>
       </c>
       <c r="K4">
-        <v>95.89999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="L4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2889,43 +2941,43 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>83.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="C5">
-        <v>41.4</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="E5">
-        <v>68.10000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="F5">
-        <v>60.5</v>
+        <v>62.9</v>
       </c>
       <c r="G5">
-        <v>78.7</v>
+        <v>77.2</v>
       </c>
       <c r="H5">
-        <v>57.49999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="I5">
-        <v>45.1</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>73.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K5">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="M5">
-        <v>34.4</v>
+        <v>38.2</v>
       </c>
       <c r="N5">
-        <v>62.1</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2936,40 +2988,40 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>73.5</v>
+        <v>70.7</v>
       </c>
       <c r="C6">
-        <v>24.9</v>
+        <v>25.6</v>
       </c>
       <c r="D6">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E6">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="F6">
-        <v>24.2</v>
+        <v>21.6</v>
       </c>
       <c r="G6">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="H6">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="I6">
-        <v>32.1</v>
+        <v>33.8</v>
       </c>
       <c r="J6">
-        <v>50.4</v>
+        <v>47.9</v>
       </c>
       <c r="K6">
-        <v>70.39999999999999</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="L6">
-        <v>79.60000000000001</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="M6">
-        <v>85.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -2983,43 +3035,43 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="D7">
-        <v>82.89999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="E7">
-        <v>36.8</v>
+        <v>41.6</v>
       </c>
       <c r="F7">
-        <v>75.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G7">
-        <v>78.90000000000001</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="H7">
-        <v>93</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I7">
-        <v>82.19999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="J7">
-        <v>64.3</v>
+        <v>62.3</v>
       </c>
       <c r="K7">
-        <v>55.50000000000001</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="L7">
-        <v>65.2</v>
+        <v>65.3</v>
       </c>
       <c r="M7">
-        <v>72</v>
+        <v>71.3</v>
       </c>
       <c r="N7">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -3030,43 +3082,43 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>28.5</v>
+        <v>27.6</v>
       </c>
       <c r="C8">
-        <v>75.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>50.3</v>
       </c>
       <c r="E8">
-        <v>24.8</v>
+        <v>26.4</v>
       </c>
       <c r="F8">
-        <v>32.1</v>
+        <v>29.5</v>
       </c>
       <c r="G8">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H8">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="I8">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="J8">
-        <v>2.5</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="K8">
-        <v>6.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>8.1</v>
+        <v>10.4</v>
       </c>
       <c r="M8">
-        <v>34.8</v>
+        <v>36.5</v>
       </c>
       <c r="N8">
-        <v>7.399999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3077,43 +3129,43 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>31.3</v>
+        <v>30.2</v>
       </c>
       <c r="C9">
-        <v>76.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D9">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>58.59999999999999</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="F9">
-        <v>50.8</v>
+        <v>50.7</v>
       </c>
       <c r="G9">
-        <v>18.4</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>36.2</v>
+        <v>37.7</v>
       </c>
       <c r="I9">
-        <v>53.1</v>
+        <v>50.2</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>39.3</v>
       </c>
       <c r="K9">
-        <v>45.2</v>
+        <v>42.9</v>
       </c>
       <c r="L9">
-        <v>65.2</v>
+        <v>65.8</v>
       </c>
       <c r="M9">
-        <v>82.3</v>
+        <v>83.5</v>
       </c>
       <c r="N9">
-        <v>54.7</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3124,28 +3176,28 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>15.9</v>
+        <v>13.9</v>
       </c>
       <c r="D10">
-        <v>3.6</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="E10">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F10">
-        <v>4.399999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="G10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3171,40 +3223,40 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>82.19999999999999</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="C11">
-        <v>42.8</v>
+        <v>43.8</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E11">
-        <v>75.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F11">
-        <v>54.3</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="G11">
-        <v>71</v>
+        <v>65.8</v>
       </c>
       <c r="H11">
-        <v>47.7</v>
+        <v>43.6</v>
       </c>
       <c r="I11">
-        <v>36.1</v>
+        <v>37.8</v>
       </c>
       <c r="J11">
-        <v>58.4</v>
+        <v>51.9</v>
       </c>
       <c r="K11">
-        <v>21.8</v>
+        <v>24.9</v>
       </c>
       <c r="L11">
-        <v>8.200000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="M11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3218,34 +3270,34 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>66.7</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="C12">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D12">
-        <v>43.3</v>
+        <v>45.3</v>
       </c>
       <c r="E12">
-        <v>44.8</v>
+        <v>46.3</v>
       </c>
       <c r="F12">
-        <v>21.5</v>
+        <v>23.9</v>
       </c>
       <c r="G12">
         <v>10.1</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>1.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J12">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3265,40 +3317,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="C13">
-        <v>81.8</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="D13">
-        <v>90.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="E13">
-        <v>70.8</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="F13">
-        <v>46.40000000000001</v>
+        <v>45.8</v>
       </c>
       <c r="G13">
-        <v>73.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="H13">
-        <v>87.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="I13">
-        <v>70.59999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="J13">
-        <v>44.6</v>
+        <v>45.9</v>
       </c>
       <c r="K13">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="L13">
-        <v>35.3</v>
+        <v>32.4</v>
       </c>
       <c r="M13">
-        <v>8.4</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -4125,7 +4177,7 @@
         <v>69</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -4145,10 +4197,10 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>108</v>
@@ -4159,16 +4211,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>109</v>
@@ -4179,19 +4231,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4199,19 +4251,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4219,19 +4271,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4239,19 +4291,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4265,10 +4317,10 @@
         <v>70</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>111</v>
@@ -4279,19 +4331,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4299,19 +4351,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4325,13 +4377,13 @@
         <v>71</v>
       </c>
       <c r="D12">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4345,13 +4397,13 @@
         <v>72</v>
       </c>
       <c r="D13">
-        <v>-47</v>
+        <v>-54</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4361,60 +4413,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4460,11 +4515,14 @@
       <c r="O2">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4510,261 +4568,279 @@
       <c r="O3">
         <v>23</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-11</v>
+      </c>
+      <c r="D4">
+        <v>-9</v>
+      </c>
+      <c r="E4">
+        <v>-3</v>
+      </c>
+      <c r="F4">
+        <v>-6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>-6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>21</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>24</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>28</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>26</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>28</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>31</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>32</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>23</v>
       </c>
-      <c r="N4">
+      <c r="N6">
         <v>19</v>
       </c>
-      <c r="O4">
+      <c r="O6">
         <v>15</v>
       </c>
-      <c r="P4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-11</v>
-      </c>
-      <c r="D5">
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>-9</v>
       </c>
-      <c r="E5">
-        <v>-3</v>
-      </c>
-      <c r="F5">
+      <c r="F7">
+        <v>-2</v>
+      </c>
+      <c r="G7">
         <v>-6</v>
       </c>
-      <c r="G5">
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>-6</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="M6">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
+      <c r="J7">
         <v>-8</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>-3</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>-8</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="N7">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>-8</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>-3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>-9</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
       <c r="G8">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J8">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4810,111 +4886,120 @@
       <c r="O9">
         <v>-4</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>-10</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-16</v>
+      </c>
+      <c r="F10">
+        <v>-10</v>
+      </c>
+      <c r="G10">
+        <v>-10</v>
+      </c>
+      <c r="H10">
+        <v>-7</v>
+      </c>
+      <c r="I10">
+        <v>-7</v>
+      </c>
+      <c r="J10">
+        <v>-10</v>
+      </c>
+      <c r="K10">
+        <v>-16</v>
+      </c>
+      <c r="L10">
+        <v>-15</v>
+      </c>
+      <c r="M10">
+        <v>-11</v>
+      </c>
+      <c r="N10">
+        <v>-16</v>
+      </c>
+      <c r="O10">
+        <v>-11</v>
+      </c>
+      <c r="P10">
+        <v>-10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-2</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-3</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-8</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-14</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-14</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-17</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>-18</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-13</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-12</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>-8</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>-11</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>-7</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P11">
+        <v>-12</v>
+      </c>
+      <c r="Q11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-10</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11">
-        <v>-7</v>
-      </c>
-      <c r="E11">
-        <v>-16</v>
-      </c>
-      <c r="F11">
-        <v>-10</v>
-      </c>
-      <c r="G11">
-        <v>-10</v>
-      </c>
-      <c r="H11">
-        <v>-7</v>
-      </c>
-      <c r="I11">
-        <v>-7</v>
-      </c>
-      <c r="J11">
-        <v>-10</v>
-      </c>
-      <c r="K11">
-        <v>-16</v>
-      </c>
-      <c r="L11">
-        <v>-15</v>
-      </c>
-      <c r="M11">
-        <v>-11</v>
-      </c>
-      <c r="N11">
-        <v>-16</v>
-      </c>
-      <c r="O11">
-        <v>-11</v>
-      </c>
-      <c r="P11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4960,11 +5045,14 @@
       <c r="O12">
         <v>-16</v>
       </c>
-      <c r="P12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-19</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5010,8 +5098,11 @@
       <c r="O13">
         <v>-47</v>
       </c>
-      <c r="P13" t="s">
-        <v>116</v>
+      <c r="P13">
+        <v>-54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -2800,40 +2800,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.1</v>
+        <v>16.8</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D2">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="E2">
-        <v>75.8</v>
+        <v>78.8</v>
       </c>
       <c r="F2">
-        <v>78.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G2">
-        <v>89.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="H2">
-        <v>85.39999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="I2">
-        <v>88.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J2">
-        <v>96.89999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="K2">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L2">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="M2">
-        <v>87.8</v>
+        <v>90</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2847,43 +2847,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>46.7</v>
+        <v>47.4</v>
       </c>
       <c r="D3">
-        <v>31.4</v>
+        <v>32.1</v>
       </c>
       <c r="E3">
-        <v>32.7</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>51.3</v>
+        <v>54.1</v>
       </c>
       <c r="G3">
-        <v>62.7</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>77.5</v>
+        <v>79.3</v>
       </c>
       <c r="I3">
-        <v>88.3</v>
+        <v>88.8</v>
       </c>
       <c r="J3">
-        <v>77.5</v>
+        <v>78.3</v>
       </c>
       <c r="K3">
-        <v>90.8</v>
+        <v>91.2</v>
       </c>
       <c r="L3">
-        <v>77.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="M3">
-        <v>92.7</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="N3">
-        <v>76.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2894,40 +2894,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>35.5</v>
+        <v>32.9</v>
       </c>
       <c r="C4">
-        <v>93.5</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="D4">
-        <v>93.2</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="E4">
-        <v>97.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="F4">
-        <v>95.7</v>
+        <v>96.3</v>
       </c>
       <c r="G4">
-        <v>93.8</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="H4">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="I4">
         <v>99.5</v>
       </c>
       <c r="J4">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="K4">
-        <v>96.89999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="M4">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2941,43 +2941,43 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>84.7</v>
+        <v>85.8</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="D5">
-        <v>36.7</v>
+        <v>39.1</v>
       </c>
       <c r="E5">
-        <v>65.8</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="F5">
-        <v>62.9</v>
+        <v>60.9</v>
       </c>
       <c r="G5">
-        <v>77.2</v>
+        <v>75.8</v>
       </c>
       <c r="H5">
-        <v>57.9</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="I5">
-        <v>42</v>
+        <v>43.2</v>
       </c>
       <c r="J5">
-        <v>74.40000000000001</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="K5">
-        <v>86.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L5">
-        <v>65.60000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="M5">
-        <v>38.2</v>
+        <v>32.8</v>
       </c>
       <c r="N5">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2988,40 +2988,40 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>74.8</v>
+      </c>
+      <c r="C6">
+        <v>27.3</v>
+      </c>
+      <c r="D6">
+        <v>7.8</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>20.4</v>
+      </c>
+      <c r="G6">
+        <v>15.1</v>
+      </c>
+      <c r="H6">
+        <v>12.9</v>
+      </c>
+      <c r="I6">
+        <v>31.2</v>
+      </c>
+      <c r="J6">
+        <v>50.4</v>
+      </c>
+      <c r="K6">
         <v>70.7</v>
       </c>
-      <c r="C6">
-        <v>25.6</v>
-      </c>
-      <c r="D6">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E6">
-        <v>5.2</v>
-      </c>
-      <c r="F6">
-        <v>21.6</v>
-      </c>
-      <c r="G6">
-        <v>13.5</v>
-      </c>
-      <c r="H6">
-        <v>11.5</v>
-      </c>
-      <c r="I6">
-        <v>33.8</v>
-      </c>
-      <c r="J6">
-        <v>47.9</v>
-      </c>
-      <c r="K6">
-        <v>69.69999999999999</v>
-      </c>
       <c r="L6">
-        <v>79.80000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="M6">
-        <v>83.8</v>
+        <v>85.7</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -3035,43 +3035,43 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>85.7</v>
       </c>
       <c r="C7">
-        <v>83.89999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="D7">
-        <v>81.5</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="E7">
-        <v>41.6</v>
+        <v>36.9</v>
       </c>
       <c r="F7">
-        <v>78.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="G7">
-        <v>81.69999999999999</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="H7">
-        <v>91.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="I7">
-        <v>85.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="J7">
-        <v>62.3</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>56.99999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="L7">
-        <v>65.3</v>
+        <v>65.5</v>
       </c>
       <c r="M7">
-        <v>71.3</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="N7">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -3082,43 +3082,43 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="C8">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="D8">
-        <v>50.3</v>
+        <v>49.9</v>
       </c>
       <c r="E8">
-        <v>26.4</v>
+        <v>24.9</v>
       </c>
       <c r="F8">
-        <v>29.5</v>
+        <v>31.4</v>
       </c>
       <c r="G8">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3.4</v>
+      </c>
+      <c r="K8">
         <v>5.2</v>
       </c>
-      <c r="I8">
-        <v>2.3</v>
-      </c>
-      <c r="J8">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
       <c r="L8">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="M8">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="N8">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3129,43 +3129,43 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="C9">
-        <v>78.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D9">
+        <v>36.5</v>
+      </c>
+      <c r="E9">
+        <v>59.09999999999999</v>
+      </c>
+      <c r="F9">
+        <v>49.8</v>
+      </c>
+      <c r="G9">
+        <v>19.8</v>
+      </c>
+      <c r="H9">
         <v>36</v>
       </c>
-      <c r="E9">
-        <v>59.59999999999999</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
         <v>50.7</v>
       </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>37.7</v>
-      </c>
-      <c r="I9">
-        <v>50.2</v>
-      </c>
       <c r="J9">
-        <v>39.3</v>
+        <v>41.2</v>
       </c>
       <c r="K9">
-        <v>42.9</v>
+        <v>45.6</v>
       </c>
       <c r="L9">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="M9">
-        <v>83.5</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="N9">
-        <v>54.50000000000001</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3176,31 +3176,31 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C10">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="D10">
-        <v>4.100000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="E10">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="F10">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G10">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I10">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3223,40 +3223,40 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>82.39999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="C11">
-        <v>43.8</v>
+        <v>41.7</v>
       </c>
       <c r="D11">
-        <v>73.09999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="E11">
-        <v>74.09999999999999</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="F11">
-        <v>55.50000000000001</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="G11">
-        <v>65.8</v>
+        <v>67.2</v>
       </c>
       <c r="H11">
-        <v>43.6</v>
+        <v>46.5</v>
       </c>
       <c r="I11">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J11">
-        <v>51.9</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="K11">
-        <v>24.9</v>
+        <v>21</v>
       </c>
       <c r="L11">
-        <v>6.9</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3270,31 +3270,31 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>65.10000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="C12">
-        <v>12.2</v>
+        <v>14.2</v>
       </c>
       <c r="D12">
-        <v>45.3</v>
+        <v>42.3</v>
       </c>
       <c r="E12">
-        <v>46.3</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="F12">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="G12">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I12">
-        <v>0.7000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="J12">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3317,40 +3317,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C13">
-        <v>81.39999999999999</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="D13">
-        <v>88.90000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="E13">
-        <v>69.19999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F13">
-        <v>45.8</v>
+        <v>44.9</v>
       </c>
       <c r="G13">
-        <v>75.7</v>
+        <v>73.8</v>
       </c>
       <c r="H13">
         <v>88.5</v>
       </c>
       <c r="I13">
-        <v>69.8</v>
+        <v>69.5</v>
       </c>
       <c r="J13">
-        <v>45.9</v>
+        <v>43.5</v>
       </c>
       <c r="K13">
-        <v>27.6</v>
+        <v>30.3</v>
       </c>
       <c r="L13">
-        <v>32.4</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="M13">
-        <v>6.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="N13">
         <v>0</v>

--- a/leagues/Ross' Fantasy League 2025.xlsx
+++ b/leagues/Ross' Fantasy League 2025.xlsx
@@ -2800,40 +2800,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.8</v>
+        <v>17.6</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>50.5</v>
+        <v>49.3</v>
       </c>
       <c r="E2">
-        <v>78.8</v>
+        <v>75.2</v>
       </c>
       <c r="F2">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="G2">
-        <v>88.8</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H2">
-        <v>81.59999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="I2">
-        <v>88.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="J2">
-        <v>95.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="K2">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L2">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="M2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -2850,40 +2850,40 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>47.4</v>
+        <v>48.8</v>
       </c>
       <c r="D3">
-        <v>32.1</v>
+        <v>31.4</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="F3">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>65.5</v>
       </c>
       <c r="H3">
-        <v>79.3</v>
+        <v>78.8</v>
       </c>
       <c r="I3">
         <v>88.8</v>
       </c>
       <c r="J3">
-        <v>78.3</v>
+        <v>80.5</v>
       </c>
       <c r="K3">
-        <v>91.2</v>
+        <v>90.2</v>
       </c>
       <c r="L3">
-        <v>73.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="M3">
-        <v>92.60000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="N3">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2894,40 +2894,40 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>32.9</v>
+        <v>33.6</v>
       </c>
       <c r="C4">
-        <v>92.80000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="D4">
-        <v>92.60000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E4">
-        <v>97.7</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="F4">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="G4">
-        <v>92.80000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H4">
         <v>97.8</v>
       </c>
       <c r="I4">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J4">
-        <v>98.7</v>
+        <v>99.2</v>
       </c>
       <c r="K4">
-        <v>95.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="L4">
         <v>99.8</v>
       </c>
       <c r="M4">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -2941,43 +2941,43 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>85.8</v>
+        <v>85.3</v>
       </c>
       <c r="C5">
         <v>42.1</v>
       </c>
       <c r="D5">
-        <v>39.1</v>
+        <v>36.7</v>
       </c>
       <c r="E5">
-        <v>65.10000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="F5">
-        <v>60.9</v>
+        <v>62.2</v>
       </c>
       <c r="G5">
-        <v>75.8</v>
+        <v>77.7</v>
       </c>
       <c r="H5">
-        <v>56.89999999999999</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="I5">
-        <v>43.2</v>
+        <v>40.40000000000001</v>
       </c>
       <c r="J5">
-        <v>71.39999999999999</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>83.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="L5">
-        <v>68.2</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="M5">
-        <v>32.8</v>
+        <v>36.6</v>
       </c>
       <c r="N5">
-        <v>61.5</v>
+        <v>63.7</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2988,40 +2988,40 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>74.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C6">
-        <v>27.3</v>
+        <v>24.2</v>
       </c>
       <c r="D6">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="F6">
-        <v>20.4</v>
+        <v>22.4</v>
       </c>
       <c r="G6">
-        <v>15.1</v>
+        <v>13.5</v>
       </c>
       <c r="H6">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="I6">
-        <v>31.2</v>
+        <v>32.3</v>
       </c>
       <c r="J6">
-        <v>50.4</v>
+        <v>50.1</v>
       </c>
       <c r="K6">
-        <v>70.7</v>
+        <v>73</v>
       </c>
       <c r="L6">
-        <v>79.3</v>
+        <v>81.5</v>
       </c>
       <c r="M6">
-        <v>85.7</v>
+        <v>84.2</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -3035,43 +3035,43 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>85.7</v>
+        <v>86.5</v>
       </c>
       <c r="C7">
-        <v>82.19999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="D7">
-        <v>82.19999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="E7">
-        <v>36.9</v>
+        <v>39.5</v>
       </c>
       <c r="F7">
-        <v>77.2</v>
+        <v>76.2</v>
       </c>
       <c r="G7">
-        <v>79.60000000000001</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="H7">
-        <v>92.2</v>
+        <v>91.8</v>
       </c>
       <c r="I7">
-        <v>86</v>
+        <v>85.2</v>
       </c>
       <c r="J7">
-        <v>60</v>
+        <v>61.7</v>
       </c>
       <c r="K7">
-        <v>57.7</v>
+        <v>54.2</v>
       </c>
       <c r="L7">
-        <v>65.5</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>71.89999999999999</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="N7">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -3082,43 +3082,43 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="C8">
-        <v>76.8</v>
+        <v>75.5</v>
       </c>
       <c r="D8">
-        <v>49.9</v>
+        <v>50.2</v>
       </c>
       <c r="E8">
-        <v>24.9</v>
+        <v>26.2</v>
       </c>
       <c r="F8">
-        <v>31.4</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="J8">
         <v>3.4</v>
       </c>
       <c r="K8">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L8">
         <v>10.2</v>
       </c>
       <c r="M8">
-        <v>36.7</v>
+        <v>35.6</v>
       </c>
       <c r="N8">
-        <v>6.7</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3132,40 +3132,40 @@
         <v>30.4</v>
       </c>
       <c r="C9">
-        <v>77.3</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="D9">
-        <v>36.5</v>
+        <v>34.3</v>
       </c>
       <c r="E9">
-        <v>59.09999999999999</v>
+        <v>59.4</v>
       </c>
       <c r="F9">
-        <v>49.8</v>
+        <v>52</v>
       </c>
       <c r="G9">
-        <v>19.8</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>36</v>
+        <v>37.6</v>
       </c>
       <c r="I9">
-        <v>50.7</v>
+        <v>51.9</v>
       </c>
       <c r="J9">
-        <v>41.2</v>
+        <v>37.2</v>
       </c>
       <c r="K9">
-        <v>45.6</v>
+        <v>48.2</v>
       </c>
       <c r="L9">
-        <v>65.5</v>
+        <v>66.8</v>
       </c>
       <c r="M9">
         <v>82.69999999999999</v>
       </c>
       <c r="N9">
-        <v>56.10000000000001</v>
+        <v>52.5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3179,28 +3179,28 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C10">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="D10">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="E10">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="F10">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="G10">
-        <v>1.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I10">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="J10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3223,37 +3223,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>83.7</v>
+        <v>82.5</v>
       </c>
       <c r="C11">
-        <v>41.7</v>
+        <v>45.3</v>
       </c>
       <c r="D11">
-        <v>69.8</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="E11">
-        <v>71.89999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="F11">
-        <v>56.10000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="G11">
-        <v>67.2</v>
+        <v>65.7</v>
       </c>
       <c r="H11">
-        <v>46.5</v>
+        <v>44.4</v>
       </c>
       <c r="I11">
-        <v>37.7</v>
+        <v>39.1</v>
       </c>
       <c r="J11">
-        <v>56.39999999999999</v>
+        <v>56.3</v>
       </c>
       <c r="K11">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="L11">
-        <v>7.399999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="M11">
         <v>0.4</v>
@@ -3270,31 +3270,31 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>62.2</v>
+        <v>64.2</v>
       </c>
       <c r="C12">
-        <v>14.2</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>42.3</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>52.40000000000001</v>
+        <v>46.3</v>
       </c>
       <c r="F12">
-        <v>24.1</v>
+        <v>23.4</v>
       </c>
       <c r="G12">
-        <v>10.4</v>
+        <v>8.5</v>
       </c>
       <c r="H12">
-        <v>4.100000000000001</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="J12">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3317,40 +3317,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C13">
-        <v>82.69999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D13">
-        <v>92.60000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E13">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F13">
-        <v>44.9</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="G13">
-        <v>73.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H13">
-        <v>88.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I13">
-        <v>69.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="J13">
-        <v>43.5</v>
+        <v>44.8</v>
       </c>
       <c r="K13">
-        <v>30.3</v>
+        <v>28.1</v>
       </c>
       <c r="L13">
-        <v>33.90000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="M13">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="N13">
         <v>0</v>
